--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -2,118 +2,178 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amin\PO_SQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="PO" sheetId="4" r:id="rId1"/>
+    <sheet name="PO" sheetId="6" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="ADVANCES.JUNE" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$A$1:$M$52</definedName>
+    <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
+    <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="aa" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="BGJHNG" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="BGJHNG" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="CC">[0]!CC</definedName>
+    <definedName name="Data.Dump" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="FHFGH" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="FHFGH" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="HFGHFG" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="HFGHFG" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Description" hidden="1">""</definedName>
+    <definedName name="HTML_Email" hidden="1">""</definedName>
+    <definedName name="HTML_Header" hidden="1">"Leverage"</definedName>
+    <definedName name="HTML_LastUpdate" hidden="1">"8/21/00"</definedName>
+    <definedName name="HTML_LineAfter" hidden="1">FALSE</definedName>
+    <definedName name="HTML_LineBefore" hidden="1">FALSE</definedName>
+    <definedName name="HTML_Name" hidden="1">"Frank Vickers"</definedName>
+    <definedName name="HTML_OBDlg2" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OBDlg4" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OS" hidden="1">0</definedName>
+    <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
+    <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="jujuy" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="Macro1" localSheetId="0">PO!Macro1</definedName>
+    <definedName name="Macro1">[0]!Macro1</definedName>
+    <definedName name="Macro2" localSheetId="0">PO!Macro2</definedName>
+    <definedName name="Macro2">[0]!Macro2</definedName>
+    <definedName name="Ownership" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="P">[0]!P</definedName>
+    <definedName name="PACK" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="PACK" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$A$1:$I$42</definedName>
+    <definedName name="qwdwqdqw" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="qwdwqdqw" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="SDGVDFGV" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="SDGVDFGV" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="sq">[0]!sq</definedName>
     <definedName name="valuevx">42.314159</definedName>
-    <definedName name="vertex42_copyright" hidden="1">"© 2011-2014 Vertex42 LLC"</definedName>
-    <definedName name="vertex42_id" hidden="1">"proforma-invoice.xlsx"</definedName>
-    <definedName name="vertex42_title" hidden="1">"Pro Forma Invoice Template"</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>DATE</t>
+    <t>Date:</t>
   </si>
   <si>
-    <t>EXPORTER</t>
+    <t>Reference:</t>
   </si>
   <si>
-    <t>TOTAL AMOUNT</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Sub-Total</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Amount in Words:</t>
+  </si>
+  <si>
+    <t>Prepared By: ____________________________________________</t>
   </si>
   <si>
     <t>PURCHASE ORDER</t>
   </si>
   <si>
-    <t>REFERENCE</t>
+    <t>EXPORTER:</t>
   </si>
   <si>
-    <t>PAYMENT TERMS</t>
+    <t>SHIP TO:</t>
   </si>
   <si>
-    <t>SHIPMENT MODE</t>
+    <t>PAYMENT TERMS:</t>
+  </si>
+  <si>
+    <t>SHIPMENT MODE:</t>
+  </si>
+  <si>
+    <t>SHIPMENT TERMS:</t>
+  </si>
+  <si>
+    <t>PACKAGING:</t>
+  </si>
+  <si>
+    <t>ORIGIN:</t>
+  </si>
+  <si>
+    <t>REPRESENTATIVE OF EXPORTER:</t>
+  </si>
+  <si>
+    <t>DISCHARGE :</t>
+  </si>
+  <si>
+    <t>LOADING :</t>
+  </si>
+  <si>
+    <t>Others:</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>100% CASH ADVANCE</t>
   </si>
   <si>
     <t>BY SEA</t>
   </si>
   <si>
-    <t>SHIPMENT TERMS</t>
-  </si>
-  <si>
     <t>EX FACTORY</t>
   </si>
   <si>
-    <t>SHIP TO</t>
-  </si>
-  <si>
-    <t>BILL TO THE REPRESENTATIVE OF EXPORTER</t>
-  </si>
-  <si>
-    <t>SR.NO.</t>
-  </si>
-  <si>
-    <t>UNIT OF MEASURE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>UNIT PRICE</t>
-  </si>
-  <si>
-    <t>[42]</t>
-  </si>
-  <si>
-    <t>SUB TOTAL:</t>
-  </si>
-  <si>
-    <t>OTHER:</t>
-  </si>
-  <si>
-    <t>TOTAL:</t>
-  </si>
-  <si>
-    <t>PACKING: CONTAINER</t>
-  </si>
-  <si>
-    <t>100 % CASH ADVANCE</t>
-  </si>
-  <si>
-    <t>AAAA</t>
+    <t>Container</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$AED]\ * #,##0.00_);_([$AED]\ * \(#,##0.00\);_([$AED]\ * &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$AED]\ * #,##0.00_);_([$AED]\ * \(#,##0.00\);_([$AED]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,38 +189,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,30 +274,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,20 +306,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,13 +331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,16 +352,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,6 +367,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -292,38 +412,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -344,29 +435,18 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -386,9 +466,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -396,198 +478,244 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="2"/>
+  <cellStyles count="8">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 4" xfId="6"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Percent 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Percent 2" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,23 +731,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>863660</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>182106</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1718697</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18854309-FBE3-479B-84B9-80DC4D70203B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8BEE84-BA71-47D3-8E85-68E1BE85D8BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,7 +756,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -640,9 +768,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="21029553">
-          <a:off x="6988629" y="10974160"/>
-          <a:ext cx="2917913" cy="1877557"/>
+        <a:xfrm>
+          <a:off x="781050" y="7353300"/>
+          <a:ext cx="2871222" cy="804674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,27 +781,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15347</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>150250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>369600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>43483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666020</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6867</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221779</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>151236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447C9D91-3320-487D-A77B-040A55F88761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="11200"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="400000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -684,95 +830,13 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="19420048">
-          <a:off x="4606397" y="10637275"/>
-          <a:ext cx="1688898" cy="2006546"/>
+        <a:xfrm rot="21136685">
+          <a:off x="531525" y="6244258"/>
+          <a:ext cx="1623829" cy="1574603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>530679</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>863660</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>182106</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="21029553">
-          <a:off x="6750504" y="10678885"/>
-          <a:ext cx="2923781" cy="1828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15347</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>150250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666020</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="19420048">
-          <a:off x="4368272" y="10380100"/>
-          <a:ext cx="1688898" cy="1952118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -918,4394 +982,4275 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>HLG,0689</v>
+            <v>VT-240</v>
           </cell>
           <cell r="B2" t="str">
-            <v>AL FEEL TRADING LLC</v>
+            <v>WATRIN TRADING DWC LLC</v>
           </cell>
           <cell r="C2" t="str">
             <v>Dubai, U.A.E</v>
           </cell>
           <cell r="D2" t="str">
-            <v>Nutreco</v>
+            <v>GRAVINA TUFI</v>
           </cell>
           <cell r="E2" t="str">
-            <v>Boxmeer, Netherlands</v>
+            <v>Puglia, Italy</v>
           </cell>
           <cell r="F2" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G2" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H2" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I2" t="str">
             <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Origin:  Netherlands</v>
+            <v xml:space="preserve"> Italy</v>
           </cell>
           <cell r="K2" t="str">
-            <v>Loading: Boxmeer, Netherlands</v>
+            <v>Puglia, Italy</v>
           </cell>
           <cell r="L2" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M2">
-            <v>93421</v>
+            <v>420646.24</v>
           </cell>
           <cell r="N2" t="str">
-            <v>Ninety Three Thousand Four Hundred Twenty One Dirhams Only</v>
+            <v>Four Hundred Twenty Thousand Six Hundred Forty Six 24.0/100 canadian Dollars Only</v>
           </cell>
           <cell r="O2" t="str">
-            <v>AC DC Power Adapter 24V 7A Tattoo</v>
+            <v>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</v>
           </cell>
           <cell r="P2">
-            <v>2919</v>
+            <v>61</v>
           </cell>
           <cell r="Q2" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R2">
-            <v>32.004453579993097</v>
+            <v>895.52</v>
           </cell>
           <cell r="S2">
-            <v>93421</v>
+            <v>54626.720000000001</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>Construction Building Passenger Hoist</v>
+          </cell>
+          <cell r="U2">
+            <v>6</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="W2">
+            <v>61003.25</v>
+          </cell>
+          <cell r="X2">
+            <v>366019.52</v>
           </cell>
           <cell r="AO2" t="str">
-            <v>AED</v>
+            <v>CAD</v>
           </cell>
           <cell r="AP2">
-            <v>43526</v>
+            <v>43433</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>HLG,0754</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>AL FEEL TRADING LLC</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-159</v>
           </cell>
           <cell r="D3" t="str">
-            <v>ARAYMOND FLUID CONNECTION</v>
+            <v>ACAR KIMYA ANONIM SIRKETI</v>
           </cell>
           <cell r="E3" t="str">
-            <v>Grenoble, France</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F3" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G3" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H3" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I3" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Origin:  France</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K3" t="str">
-            <v>Loading: Grenoble, France</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L3" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M3">
-            <v>700000</v>
+            <v>80000</v>
           </cell>
           <cell r="N3" t="str">
-            <v>Seven Hundred Thousand Dirhams Only</v>
+            <v>Eighty Thousand Euros Only</v>
           </cell>
           <cell r="O3" t="str">
-            <v>Paper Cup Stripping Machine</v>
+            <v>Aluminum Awing Windows with Timber Reveal Install</v>
           </cell>
           <cell r="P3">
-            <v>46</v>
+            <v>800</v>
           </cell>
           <cell r="Q3" t="str">
-            <v>SETS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R3">
-            <v>15217.391304347801</v>
+            <v>100</v>
           </cell>
           <cell r="S3">
-            <v>700000</v>
+            <v>80000</v>
           </cell>
           <cell r="AO3" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP3">
-            <v>43543</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>HLG,0690</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ALKHALSAN GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-162</v>
           </cell>
           <cell r="D4" t="str">
-            <v>AUTOMATION CO. UNITED</v>
+            <v>AKKIM YAPI KIMYASALLARI SAN VE TIC AS</v>
           </cell>
           <cell r="E4" t="str">
-            <v>Liverpool, United Kingdom</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F4" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G4" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H4" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I4" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Origin:  United Kingdom</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K4" t="str">
-            <v>Loading: Liverpool, United Kingdom</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L4" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M4">
-            <v>309701</v>
+            <v>113494.44</v>
           </cell>
           <cell r="N4" t="str">
-            <v>Three Hundred Nine Thousand Seven Hundred One Dirhams Only</v>
+            <v>One Hundred Thirteen Thousand Four Hundred Ninety Four 44.0/100 Euros Only</v>
           </cell>
           <cell r="O4" t="str">
-            <v>Outdoor Full Color 7000 CD P6/P8/P10 LED Display</v>
+            <v>Solid Surface / Building Material Artificial Quartz Stone with SGS</v>
           </cell>
           <cell r="P4">
-            <v>691</v>
+            <v>2026</v>
           </cell>
           <cell r="Q4" t="str">
-            <v>M2</v>
+            <v>PCS</v>
           </cell>
           <cell r="R4">
-            <v>448.19247467438402</v>
+            <v>56.02</v>
           </cell>
           <cell r="S4">
-            <v>309701</v>
+            <v>113494.44</v>
           </cell>
           <cell r="AO4" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP4">
-            <v>43526</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>HLG,0725</v>
+            <v>VT-160</v>
           </cell>
           <cell r="D5" t="str">
-            <v>ANVERALLY AND SONS</v>
+            <v>FI JOINT VENTURE PTY LTD</v>
           </cell>
           <cell r="E5" t="str">
-            <v>Colombo, Sri Lanka</v>
+            <v>Leederville, Australia</v>
           </cell>
           <cell r="F5" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G5" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H5" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I5" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Origin:  Sri Lanka</v>
+            <v xml:space="preserve"> Australia</v>
           </cell>
           <cell r="K5" t="str">
-            <v>Loading: Colombo, Sri Lanka</v>
+            <v>Leederville, Australia</v>
           </cell>
           <cell r="L5" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M5">
-            <v>94486.59</v>
+            <v>100000</v>
           </cell>
           <cell r="N5" t="str">
-            <v>Ninety Four Thousand Four Hundred Eighty Six 59.0/100 Euros Only</v>
+            <v>One Hundred Thousand Euros Only</v>
           </cell>
           <cell r="O5" t="str">
-            <v>Rtk GPS Receiver Surveying Instrument G992</v>
+            <v>Modern Aluminum Sliding Door and Windows</v>
           </cell>
           <cell r="P5">
-            <v>8</v>
+            <v>1000</v>
           </cell>
           <cell r="Q5" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R5">
-            <v>11810.82375</v>
+            <v>100</v>
           </cell>
           <cell r="S5">
-            <v>94486.59</v>
+            <v>100000</v>
           </cell>
           <cell r="AO5" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP5">
-            <v>43536</v>
+            <v>43430</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>HLG,0756</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>ANWAAR MEDICAL CENTER LLC</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-156</v>
           </cell>
           <cell r="D6" t="str">
-            <v>GUANGDONG ZHONGBAO KITCHENWARE CO. LTD</v>
+            <v>FRT METAL VE SANAYI DIS TICAR</v>
           </cell>
           <cell r="E6" t="str">
-            <v>Guandong China</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F6" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G6" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H6" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I6" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Origin: Guandong China</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K6" t="str">
-            <v>Loading: Guandong China</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L6" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M6">
-            <v>150000</v>
+            <v>41601.599999999999</v>
           </cell>
           <cell r="N6" t="str">
-            <v>One Hundred Fifty Thousand Dirhams Only</v>
+            <v>Forty One Thousand Six Hundred One 60.0/100 Euros Only</v>
           </cell>
           <cell r="O6" t="str">
-            <v>4D Color Doppler Ultrasound Scanner System</v>
+            <v>Reliable Quality Motoer Lift 2 Ton Building Construction Materials Hoist Passenger Home Hydraulic Sightseeing Elevator</v>
           </cell>
           <cell r="P6">
-            <v>6</v>
+            <v>20</v>
           </cell>
           <cell r="Q6" t="str">
-            <v>PCS</v>
+            <v>SETS</v>
           </cell>
           <cell r="R6">
-            <v>6811.98910081743</v>
+            <v>2080.08</v>
           </cell>
           <cell r="S6">
-            <v>150000</v>
+            <v>41601.599999999999</v>
           </cell>
           <cell r="AO6" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP6">
-            <v>43545</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>HLG,0746</v>
+            <v>VT-158</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D7" t="str">
-            <v>BGRS TEXTILE SERVICES LLP</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E7" t="str">
-            <v>Gujarat, India</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F7" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G7" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H7" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I7" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Origin:  India</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K7" t="str">
-            <v>Loading: Gujarat, India</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L7" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M7">
-            <v>15059.37</v>
+            <v>70000</v>
           </cell>
           <cell r="N7" t="str">
-            <v>Fifteen Thousand Fifty Nine 37.0/100 Euros Only</v>
+            <v>Seventy Thousand Euros Only</v>
           </cell>
           <cell r="O7" t="str">
-            <v>Outdoor Full Color 7000 CD P6/P8/P10 LED Display</v>
+            <v>Q345 Large Span Steel Structure</v>
           </cell>
           <cell r="P7">
-            <v>33</v>
+            <v>1272</v>
           </cell>
           <cell r="Q7" t="str">
-            <v>M2</v>
+            <v>M3</v>
           </cell>
           <cell r="R7">
-            <v>456.34454545454503</v>
+            <v>55.03</v>
           </cell>
           <cell r="S7">
-            <v>15059.37</v>
+            <v>70000</v>
+          </cell>
+          <cell r="AN7" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO7" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP7">
-            <v>43545</v>
+            <v>43414</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>HLG,0684</v>
+            <v>VT-161</v>
           </cell>
           <cell r="B8" t="str">
-            <v>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C8" t="str">
             <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D8" t="str">
-            <v>SANDBOX GENERAL TRADING LIMITED</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E8" t="str">
-            <v>Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F8" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G8" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H8" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I8" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K8" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L8" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M8">
-            <v>350000</v>
+            <v>107317.45</v>
           </cell>
           <cell r="N8" t="str">
-            <v>Three Hundred Fifty Thousand Dirhams Only</v>
+            <v>One Hundred Seven Thousand Three Hundred Seventeen 45.0/100 Euros Only</v>
           </cell>
           <cell r="O8" t="str">
-            <v>UL Listed OS&amp;Y Type Cast Steel Flanged Gate Valve</v>
+            <v>0.125-3.0mm Building Material Gi Galvanized Steel Coil</v>
           </cell>
           <cell r="P8">
-            <v>1598</v>
+            <v>178</v>
           </cell>
           <cell r="Q8" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R8">
-            <v>219.02377972465499</v>
+            <v>602.91</v>
           </cell>
           <cell r="S8">
-            <v>350000</v>
-          </cell>
-          <cell r="AN8">
-            <v>3.7</v>
+            <v>107317.45</v>
+          </cell>
+          <cell r="AN8" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO8" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP8">
-            <v>43542</v>
+            <v>43434</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>HLG,0713</v>
+            <v>VT-163</v>
           </cell>
           <cell r="B9" t="str">
-            <v>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C9" t="str">
             <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D9" t="str">
-            <v>SANDBOX GENERAL TRADING LIMITED</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E9" t="str">
-            <v>Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F9" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G9" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H9" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I9" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K9" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L9" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M9">
-            <v>300000</v>
+            <v>710000</v>
           </cell>
           <cell r="N9" t="str">
-            <v>Three Hundred Thousand Dirhams Only</v>
+            <v>Seven Hundred Ten Thousand Euros Only</v>
           </cell>
           <cell r="O9" t="str">
-            <v>Ductile Iron Flanged Gate Valve for Drinking Water</v>
+            <v>Building Construction Material Steel Frabrication Structure</v>
           </cell>
           <cell r="P9">
-            <v>1500</v>
+            <v>4333</v>
           </cell>
           <cell r="Q9" t="str">
-            <v>PCS</v>
+            <v>SETS</v>
           </cell>
           <cell r="R9">
-            <v>54.495912806539501</v>
+            <v>101.12</v>
           </cell>
           <cell r="S9">
-            <v>300000</v>
-          </cell>
-          <cell r="AN9">
-            <v>3.7</v>
+            <v>438152.96000000002</v>
+          </cell>
+          <cell r="T9" t="str">
+            <v>Modern Aluminum Sliding Door and Windows</v>
+          </cell>
+          <cell r="U9">
+            <v>2718</v>
+          </cell>
+          <cell r="V9" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W9">
+            <v>100.02</v>
+          </cell>
+          <cell r="X9">
+            <v>271847.03999999998</v>
+          </cell>
+          <cell r="AN9" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO9" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP9">
-            <v>43543</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>HLG,0714</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Dubai, United Arab Emirates</v>
+            <v>VT-151</v>
           </cell>
           <cell r="D10" t="str">
-            <v>SANDBOX GENERAL TRADING LIMITED</v>
+            <v>IGP ENGINEERS PVT LTD</v>
           </cell>
           <cell r="E10" t="str">
-            <v>Hong Kong, China</v>
+            <v>Chennai, India</v>
           </cell>
           <cell r="F10" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G10" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H10" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I10" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K10" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Chennai, India</v>
           </cell>
           <cell r="L10" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M10">
-            <v>450000</v>
+            <v>15000</v>
           </cell>
           <cell r="N10" t="str">
-            <v>Four Hundred Fifty Thousand Dirhams Only</v>
+            <v>Fifteen Thousand Euros Only</v>
           </cell>
           <cell r="O10" t="str">
-            <v>Powder Coating Gun Spare Part</v>
+            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
           </cell>
           <cell r="P10">
-            <v>9846</v>
+            <v>33</v>
           </cell>
           <cell r="Q10" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R10">
-            <v>45.703839122486201</v>
+            <v>454.55</v>
           </cell>
           <cell r="S10">
-            <v>450000</v>
-          </cell>
-          <cell r="AN10">
-            <v>3.7</v>
+            <v>15000</v>
           </cell>
           <cell r="AO10" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP10">
-            <v>43545</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>HLG,0761</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Dubai, United Arab Emirates</v>
+            <v>VT-154</v>
           </cell>
           <cell r="D11" t="str">
-            <v>SANDBOX GENERAL TRADING LIMITED</v>
+            <v>KALE KIMYA</v>
           </cell>
           <cell r="E11" t="str">
-            <v>Hong Kong, China</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F11" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H11" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I11" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K11" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L11" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M11">
-            <v>400000</v>
+            <v>35532</v>
           </cell>
           <cell r="N11" t="str">
-            <v>Four Hundred Thousand Dirhams Only</v>
+            <v>Thirty Five Thousand Five Hundred Thirty Two Euros Only</v>
           </cell>
           <cell r="O11" t="str">
-            <v>Flange RF or Bw Cast &amp; Forged Wedge Gate Valve</v>
+            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
           </cell>
           <cell r="P11">
-            <v>2758</v>
+            <v>78</v>
           </cell>
           <cell r="Q11" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R11">
-            <v>145.032632342277</v>
+            <v>455.54</v>
           </cell>
           <cell r="S11">
-            <v>400000</v>
-          </cell>
-          <cell r="AN11">
-            <v>3.7</v>
+            <v>35532</v>
           </cell>
           <cell r="AO11" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP11">
-            <v>43536</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>HLG,0764</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Dubai, United Arab Emirates</v>
+            <v>VT-155</v>
           </cell>
           <cell r="D12" t="str">
-            <v>SANDBOX GENERAL TRADING LIMITED</v>
+            <v>KEMRON KIMYA SAN VE TIC A S</v>
           </cell>
           <cell r="E12" t="str">
-            <v>Hong Kong, China</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F12" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G12" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H12" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I12" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K12" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L12" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M12">
-            <v>350000</v>
+            <v>38970</v>
           </cell>
           <cell r="N12" t="str">
-            <v>Three Hundred Fifty Thousand Dirhams Only</v>
+            <v>Thirty Eight Thousand Nine Hundred Seventy Euros Only</v>
           </cell>
           <cell r="O12" t="str">
-            <v>PVC Plastic Diaphragm Valve/Ball</v>
+            <v>Wrought Iron Front Door</v>
           </cell>
           <cell r="P12">
-            <v>2916</v>
+            <v>16</v>
           </cell>
           <cell r="Q12" t="str">
-            <v>PCS</v>
+            <v>SETS</v>
           </cell>
           <cell r="R12">
-            <v>120.02743484224899</v>
+            <v>2435.62</v>
           </cell>
           <cell r="S12">
-            <v>350000</v>
-          </cell>
-          <cell r="AN12">
-            <v>3.7</v>
+            <v>38970</v>
           </cell>
           <cell r="AO12" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP12">
-            <v>43545</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>HLG,0673</v>
+            <v>VT-157</v>
           </cell>
           <cell r="B13" t="str">
-            <v xml:space="preserve">BUZWAIR GENERAL TRADING LLC </v>
+            <v>RAMZ AL HAQEEQA GENERAL TRADING</v>
           </cell>
           <cell r="C13" t="str">
             <v>Dubai, U.A.E</v>
           </cell>
           <cell r="D13" t="str">
-            <v>GUANGDONG ZHONGBAO KITCHENWARE CO. LTD</v>
+            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
           </cell>
           <cell r="E13" t="str">
-            <v>Guandong China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="F13" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G13" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H13" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I13" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Origin: Guandong China</v>
+            <v xml:space="preserve"> China</v>
           </cell>
           <cell r="K13" t="str">
-            <v>Loading: Guandong China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="L13" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M13">
-            <v>183750</v>
+            <v>45980</v>
           </cell>
           <cell r="N13" t="str">
-            <v>One Hundred Eighty Three Thousand Seven Hundred Fifty Dirhams Only</v>
+            <v>Forty Five Thousand Nine Hundred Eighty Euros Only</v>
           </cell>
           <cell r="O13" t="str">
-            <v>SF6 Plus O2 Infrared Gas Sensor IR NDIR Leak Alarm</v>
+            <v>Brick Force Wire Mesh Welding Machine</v>
           </cell>
           <cell r="P13">
-            <v>735</v>
+            <v>3</v>
           </cell>
           <cell r="Q13" t="str">
-            <v>PCS</v>
+            <v>SETS</v>
           </cell>
           <cell r="R13">
-            <v>68.119891008174307</v>
+            <v>15326.67</v>
           </cell>
           <cell r="S13">
-            <v>183750</v>
+            <v>45980</v>
           </cell>
           <cell r="AO13" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP13">
-            <v>43530</v>
+            <v>43423</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>HLG,0715</v>
+            <v>VT-152</v>
           </cell>
           <cell r="D14" t="str">
-            <v>DMV,FONTERRA EXCIPIENTS GMBH &amp; CO. KG</v>
+            <v>SYMRISE AG</v>
           </cell>
           <cell r="E14" t="str">
-            <v>Goch, Germany</v>
+            <v>Holzminden, Germany</v>
           </cell>
           <cell r="F14" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G14" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H14" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I14" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> Germany</v>
           </cell>
           <cell r="K14" t="str">
-            <v>Loading: Goch, Germany</v>
+            <v>Holzminden, Germany</v>
           </cell>
           <cell r="L14" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M14">
-            <v>220013.55</v>
+            <v>20367.599999999999</v>
           </cell>
           <cell r="N14" t="str">
-            <v>Two Hundred Twenty Thousand Thirteen 55.0/100 Euros Only</v>
+            <v>Twenty Thousand Three Hundred Sixty Seven 60.0/100 Euros Only</v>
           </cell>
           <cell r="O14" t="str">
-            <v>Rtk GPS Surveying System</v>
+            <v>FacadeÂ BuildingÂ DecorativeÂ MaterialÂ ACP/Mcp/A2 Fr Aluminum Composite Panel</v>
           </cell>
           <cell r="P14">
-            <v>19</v>
+            <v>581</v>
           </cell>
           <cell r="Q14" t="str">
-            <v>SETS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R14">
-            <v>11579.6605263157</v>
+            <v>35.06</v>
           </cell>
           <cell r="S14">
-            <v>220013.55</v>
+            <v>20367.599999999999</v>
           </cell>
           <cell r="AO14" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP14">
-            <v>43530</v>
+            <v>43424</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>HLG,0747</v>
+            <v>VT-106</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D15" t="str">
-            <v>DMV,FONTERRA EXCIPIENTS GMBH &amp; CO. KG</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E15" t="str">
-            <v>Goch, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F15" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G15" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H15" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I15" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K15" t="str">
-            <v>Loading: Goch, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L15" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M15">
-            <v>285013.37</v>
+            <v>7513.3</v>
           </cell>
           <cell r="N15" t="str">
-            <v>Two Hundred Eighty Five Thousand Thirteen 37.0/100 Euros Only</v>
+            <v>Seven Thousand Five Hundred Thirteen 30.0/100 U.S.Dollars Only</v>
           </cell>
           <cell r="O15" t="str">
-            <v>Five Wires Stripping Cutting Machine (DNBX-40)</v>
+            <v>Galvanized Angle Bar</v>
           </cell>
           <cell r="P15">
-            <v>89</v>
+            <v>8</v>
           </cell>
           <cell r="Q15" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R15">
-            <v>3202.3974157303301</v>
+            <v>939.16</v>
           </cell>
           <cell r="S15">
-            <v>285013.37</v>
+            <v>7513.3</v>
+          </cell>
+          <cell r="AN15" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO15" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP15">
-            <v>43545</v>
+            <v>43434</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>HLG,0668</v>
+            <v>VT-165</v>
           </cell>
           <cell r="B16" t="str">
-            <v xml:space="preserve">EMAC ENGINEERING SERVICES LLC </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D16" t="str">
-            <v>FIMAR SPA</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E16" t="str">
-            <v>Villa Verucchio, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F16" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G16" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H16" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I16" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K16" t="str">
-            <v>Loading: Villa Verucchio, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L16" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M16">
-            <v>101283</v>
+            <v>4950</v>
           </cell>
           <cell r="N16" t="str">
-            <v>One Hundred One Thousand Two Hundred Eighty Three Dirhams Only</v>
+            <v>Four Thousand Nine Hundred Fifty Euros Only</v>
           </cell>
           <cell r="O16" t="str">
-            <v>7500CD LED Screen Advertising Display (P4 P5 P6 P8 P10)</v>
+            <v>600X1200mmÂ Polished Porcelain Floor Tile &amp; Wall Tile</v>
           </cell>
           <cell r="P16">
-            <v>202</v>
+            <v>374</v>
           </cell>
           <cell r="Q16" t="str">
-            <v>BOXES</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R16">
-            <v>501.40099009900899</v>
+            <v>13.24</v>
           </cell>
           <cell r="S16">
-            <v>101283</v>
+            <v>4950</v>
+          </cell>
+          <cell r="AN16" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO16" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP16">
-            <v>43526</v>
+            <v>43490</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>HLG,0672</v>
+            <v>VT-166</v>
           </cell>
           <cell r="B17" t="str">
-            <v xml:space="preserve">FARAHI GENERAL TRADING LLC </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D17" t="str">
-            <v>GRAVINA TUFI</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E17" t="str">
-            <v>Puglia, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F17" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G17" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H17" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I17" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K17" t="str">
-            <v>Loading: Puglia, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L17" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M17">
-            <v>139555</v>
+            <v>12100</v>
           </cell>
           <cell r="N17" t="str">
-            <v>One Hundred Thirty Nine Thousand Five Hundred Fifty Five Dirhams Only</v>
+            <v>Twelve Thousand One Hundred Euros Only</v>
           </cell>
           <cell r="O17" t="str">
-            <v>Low Power Consumption Stage LED Display</v>
+            <v>Thermal Insulation Building Construction Decorative Materials</v>
           </cell>
           <cell r="P17">
-            <v>69</v>
+            <v>121</v>
           </cell>
           <cell r="Q17" t="str">
-            <v>M2</v>
+            <v>MS</v>
           </cell>
           <cell r="R17">
-            <v>2022.53623188405</v>
+            <v>100</v>
           </cell>
           <cell r="S17">
-            <v>139555</v>
+            <v>12100</v>
+          </cell>
+          <cell r="AN17" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO17" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP17">
-            <v>43530</v>
+            <v>43483</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>HLG,0736</v>
+            <v>VT-171</v>
           </cell>
           <cell r="D18" t="str">
-            <v xml:space="preserve">GEOCLIMA S.R.L  </v>
+            <v>AFS TEKNIK DANISMANLIK SAN.VE TIC.LTD.STI</v>
           </cell>
           <cell r="E18" t="str">
-            <v>Gorizia, Italy</v>
+            <v>Sakarya, Turkey</v>
           </cell>
           <cell r="F18" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G18" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H18" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I18" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K18" t="str">
-            <v>Loading: Gorizia, Italy</v>
+            <v>Sakarya, Turkey</v>
           </cell>
           <cell r="L18" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M18">
-            <v>82109.78</v>
+            <v>49855</v>
           </cell>
           <cell r="N18" t="str">
-            <v>Eighty Two Thousand One Hundred Nine 78.0/100 Euros Only</v>
+            <v>Forty Nine Thousand Eight Hundred Fifty Five Euros Only</v>
           </cell>
           <cell r="O18" t="str">
-            <v>Power Transformer/Voltage Regulating Transfomer</v>
+            <v>Competitive Price Steel StructureÂ ConstructionÂ Hangar</v>
           </cell>
           <cell r="P18">
-            <v>3</v>
+            <v>623</v>
           </cell>
           <cell r="Q18" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R18">
-            <v>27369.926666666601</v>
+            <v>80.02</v>
           </cell>
           <cell r="S18">
-            <v>82109.78</v>
+            <v>49855</v>
           </cell>
           <cell r="AO18" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP18">
-            <v>43542</v>
+            <v>43479</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HLG,0659</v>
+            <v>VT-173</v>
           </cell>
           <cell r="B19" t="str">
-            <v xml:space="preserve">GULF PROMPT PARTNERS GENERAL TRADING LLC </v>
+            <v>AL HOLOL AL BADEELA GENERAL TRADING</v>
           </cell>
           <cell r="C19" t="str">
             <v>Dubai, U.A.E</v>
           </cell>
           <cell r="D19" t="str">
-            <v>ARAYMOND FLUID CONNECTION</v>
+            <v>KOLON GLOBAL CORPORATION</v>
           </cell>
           <cell r="E19" t="str">
-            <v>Grenoble, France</v>
+            <v>Incheon, South Korea</v>
           </cell>
           <cell r="F19" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G19" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H19" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I19" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Origin:  France</v>
+            <v xml:space="preserve"> South Korea</v>
           </cell>
           <cell r="K19" t="str">
-            <v>Loading: Grenoble, France</v>
+            <v>Incheon, South Korea</v>
           </cell>
           <cell r="L19" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M19">
-            <v>1042600</v>
+            <v>60717</v>
           </cell>
           <cell r="N19" t="str">
-            <v>One Million Forty Two Thousand Six Hundred Dirhams Only</v>
+            <v>Sixty Thousand Seven Hundred Seventeen Euros Only</v>
           </cell>
           <cell r="O19" t="str">
-            <v>Outdoor Full Color 7000 CD P6/P8/P10 LED Display</v>
+            <v>Corrugated Prime Cold Rolled Hot Dipped Zinc Prepainted Color Coated PPGI PPGL Galvalume Galvanized Steel Sheet</v>
           </cell>
           <cell r="P19">
-            <v>2327</v>
+            <v>67</v>
           </cell>
           <cell r="Q19" t="str">
-            <v>M2</v>
+            <v>TONS</v>
           </cell>
           <cell r="R19">
-            <v>448.04469273743001</v>
+            <v>906.22</v>
           </cell>
           <cell r="S19">
-            <v>1042600</v>
+            <v>60717</v>
           </cell>
           <cell r="AO19" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP19">
-            <v>43528</v>
+            <v>43486</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HLG,0765</v>
+            <v>VT-179</v>
           </cell>
           <cell r="D20" t="str">
-            <v>HARDY EXPORT COMPANY (PVT) LTD</v>
+            <v>HEST AG</v>
           </cell>
           <cell r="E20" t="str">
-            <v>Panadura, Sri Lanka</v>
+            <v>Berlin, Germany</v>
           </cell>
           <cell r="F20" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G20" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H20" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I20" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Origin:  Sri Lanka</v>
+            <v xml:space="preserve"> Germany</v>
           </cell>
           <cell r="K20" t="str">
-            <v>Loading: Panadura, Sri Lanka</v>
+            <v>Berlin, Germany</v>
           </cell>
           <cell r="L20" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M20">
-            <v>9175.1200000000008</v>
+            <v>134707</v>
           </cell>
           <cell r="N20" t="str">
-            <v>Nine Thousand One Hundred Seventy Five 12.0/100 U.S.Dollars Only</v>
+            <v>One Hundred Thirty Four Thousand Seven Hundred Seven Euros Only</v>
           </cell>
           <cell r="O20" t="str">
-            <v>holder for cylindrical fuses  10x38 / 1P / LED</v>
+            <v>Artificial Quartz Stone with SGS Standards (black Calacatta)</v>
           </cell>
           <cell r="P20">
-            <v>788</v>
+            <v>2245</v>
           </cell>
           <cell r="Q20" t="str">
-            <v>SETS</v>
+            <v>PCS</v>
           </cell>
           <cell r="R20">
-            <v>11.6435532994923</v>
+            <v>60</v>
           </cell>
           <cell r="S20">
-            <v>9175.1200000000008</v>
+            <v>134707</v>
           </cell>
           <cell r="AO20" t="str">
-            <v>USD</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP20">
-            <v>43531</v>
+            <v>43479</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HLG,0729</v>
+            <v>VT-185</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D21" t="str">
-            <v>JET PROFIT CO.,LTD</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E21" t="str">
-            <v>Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F21" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G21" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H21" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I21" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K21" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L21" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M21">
-            <v>32466.5</v>
+            <v>200000</v>
           </cell>
           <cell r="N21" t="str">
-            <v>Thirty Two Thousand Four Hundred Sixty Six 50.0/100 Euros Only</v>
+            <v>Two Hundred Thousand Euros Only</v>
           </cell>
           <cell r="O21" t="str">
-            <v>Three-Phase Oil-Immersed Distributing Transformer</v>
+            <v>0.125-3.0mm Building Material Gi Galvanized Steel Coil</v>
           </cell>
           <cell r="P21">
-            <v>2</v>
+            <v>333</v>
           </cell>
           <cell r="Q21" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R21">
-            <v>16233.25</v>
+            <v>600.6</v>
           </cell>
           <cell r="S21">
-            <v>32466.5</v>
+            <v>200000</v>
+          </cell>
+          <cell r="AN21" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO21" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP21">
-            <v>43538</v>
+            <v>43472</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>HLG,0667</v>
+            <v>VT-190</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D22" t="str">
-            <v>KLEBCHEMIE M. G. BECKER GMBH &amp; CO. KG</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E22" t="str">
-            <v>Weingarten, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F22" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G22" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H22" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I22" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K22" t="str">
-            <v>Loading: Weingarten, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L22" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M22">
-            <v>97560</v>
+            <v>499332.6</v>
           </cell>
           <cell r="N22" t="str">
-            <v>Ninety Seven Thousand Five Hundred Sixty Euros Only</v>
+            <v>Four Hundred Ninety Nine Thousand Three Hundred Thirty Two 60.0/100 Euros Only</v>
           </cell>
           <cell r="O22" t="str">
-            <v>35kv Find Power Distribution Transformer</v>
+            <v>Machinery Lightweight Wall Panel Machine</v>
           </cell>
           <cell r="P22">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="Q22" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R22">
-            <v>16260</v>
+            <v>11235.96</v>
           </cell>
           <cell r="S22">
-            <v>97560</v>
+            <v>44943.839999999997</v>
+          </cell>
+          <cell r="T22" t="str">
+            <v>PPGI Steel Coil/Color Coated Galvanized Steel Coil</v>
+          </cell>
+          <cell r="U22">
+            <v>757</v>
+          </cell>
+          <cell r="V22" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W22">
+            <v>600.25</v>
+          </cell>
+          <cell r="X22">
+            <v>454388.76</v>
+          </cell>
+          <cell r="AN22" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO22" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP22">
-            <v>43528</v>
+            <v>43490</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HLG,0711</v>
+            <v>VT-191</v>
           </cell>
           <cell r="B23" t="str">
-            <v xml:space="preserve">MAGIC BRICK BUILDING MATERIAL TRADING LLC </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C23" t="str">
             <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D23" t="str">
-            <v>COLORGRES BUILDING MATERIAL CO LTD</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E23" t="str">
-            <v>Foshan City, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F23" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G23" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H23" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I23" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J23" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K23" t="str">
-            <v>Loading: Foshan City, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L23" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M23">
-            <v>1378000</v>
+            <v>500000</v>
           </cell>
           <cell r="N23" t="str">
-            <v>One Million Three Hundred Seventy Eight Thousand Dirhams Only</v>
+            <v>Five Hundred Thousand Euros Only</v>
           </cell>
           <cell r="O23" t="str">
-            <v>Various Color Coated PPGI</v>
+            <v>Remote ControlÂ BuildingÂ MaterialÂ Security Fast Speed PVC Folding Aluminium Door (Hz-FC05623)</v>
           </cell>
           <cell r="P23">
-            <v>127</v>
+            <v>202</v>
           </cell>
           <cell r="Q23" t="str">
-            <v>TONS</v>
+            <v>PCS</v>
           </cell>
           <cell r="R23">
-            <v>217.983651226158</v>
+            <v>1348.31</v>
           </cell>
           <cell r="S23">
-            <v>27683.923705722002</v>
+            <v>272358.62</v>
           </cell>
           <cell r="T23" t="str">
-            <v>Decorative Building Material Stone Aluminum Honeycomb Panel</v>
+            <v>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</v>
           </cell>
           <cell r="U23">
-            <v>15003</v>
+            <v>3252</v>
           </cell>
           <cell r="V23" t="str">
             <v>SQUARE METERS</v>
           </cell>
           <cell r="W23">
-            <v>90.003071138724096</v>
+            <v>70</v>
           </cell>
           <cell r="X23">
-            <v>1350316.0762942701</v>
-          </cell>
-          <cell r="AN23">
-            <v>14.9</v>
+            <v>227641.38</v>
+          </cell>
+          <cell r="AN23" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO23" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP23">
-            <v>43541</v>
+            <v>43479</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HLG,0742</v>
+            <v>VT-177</v>
           </cell>
           <cell r="D24" t="str">
-            <v xml:space="preserve">MARBO ITALIA SPA  </v>
+            <v>NEW MULBERRY PTE LTD</v>
           </cell>
           <cell r="E24" t="str">
-            <v>Pavia, Italy</v>
+            <v>Singapore, Singapore</v>
           </cell>
           <cell r="F24" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G24" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H24" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I24" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J24" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> Singapore</v>
           </cell>
           <cell r="K24" t="str">
-            <v>Loading: Pavia, Italy</v>
+            <v>Singapore, Singapore</v>
           </cell>
           <cell r="L24" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M24">
-            <v>96617</v>
+            <v>107010</v>
           </cell>
           <cell r="N24" t="str">
-            <v>Ninety Six Thousand Six Hundred Seventeen Euros Only</v>
+            <v>One Hundred Seven Thousand Ten Euros Only</v>
           </cell>
           <cell r="O24" t="str">
-            <v>Waterproof LED Triac Dimmable</v>
+            <v>Economic Embossed Coated Aluminum Coil</v>
           </cell>
           <cell r="P24">
-            <v>1558</v>
+            <v>44</v>
           </cell>
           <cell r="Q24" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R24">
-            <v>62.013478818998699</v>
+            <v>2432.0500000000002</v>
           </cell>
           <cell r="S24">
-            <v>96617</v>
+            <v>107010</v>
           </cell>
           <cell r="AO24" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP24">
-            <v>43544</v>
+            <v>43484</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HLG,0738</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>MONTE STELLA TRADING LLC</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-176</v>
           </cell>
           <cell r="D25" t="str">
-            <v>MENGYANG GROUP</v>
+            <v>PETROFER ENDUSTRIYEL YAGLAR SANAYI VE TICARET A.S.</v>
           </cell>
           <cell r="E25" t="str">
-            <v>Jiangsu, China</v>
+            <v>Izmir, Turkey</v>
           </cell>
           <cell r="F25" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G25" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H25" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I25" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J25" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K25" t="str">
-            <v>Loading: Jiangsu, China</v>
+            <v>Izmir, Turkey</v>
           </cell>
           <cell r="L25" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M25">
-            <v>95566</v>
+            <v>100010</v>
           </cell>
           <cell r="N25" t="str">
-            <v>Ninety Five Thousand Five Hundred Sixty Six Euros Only</v>
+            <v>One Hundred Thousand Ten Euros Only</v>
           </cell>
           <cell r="O25" t="str">
-            <v>Power Transformer/Voltage Regulating Transfomer</v>
+            <v>2017Â BuildingÂ MaterialÂ Rapid Rolling High Speed Roller Shutter Doors (Hz-FC061)</v>
           </cell>
           <cell r="P25">
-            <v>3</v>
+            <v>83</v>
           </cell>
           <cell r="Q25" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R25">
-            <v>31855.333333333299</v>
+            <v>1204.94</v>
           </cell>
           <cell r="S25">
-            <v>95566</v>
+            <v>100010</v>
           </cell>
           <cell r="AO25" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP25">
-            <v>43543</v>
+            <v>43486</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HLG,0675</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v xml:space="preserve">NEWROZ BANEH TRADING LLC </v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-188</v>
           </cell>
           <cell r="D26" t="str">
-            <v>SENECA SRL</v>
+            <v>SICOR S P A</v>
           </cell>
           <cell r="E26" t="str">
-            <v>Padua, Italy</v>
+            <v>Rovereto, Italy</v>
           </cell>
           <cell r="F26" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G26" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H26" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I26" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J26" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> Italy</v>
           </cell>
           <cell r="K26" t="str">
-            <v>Loading: Padua, Italy</v>
+            <v>Rovereto, Italy</v>
           </cell>
           <cell r="L26" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M26">
-            <v>433850</v>
+            <v>432020</v>
           </cell>
           <cell r="N26" t="str">
-            <v>Four Hundred Thirty Three Thousand Eight Hundred Fifty Dirhams Only</v>
+            <v>Four Hundred Thirty Two Thousand Twenty Euros Only</v>
           </cell>
           <cell r="O26" t="str">
-            <v>Transformer 3 Phase Dry Type Power Distribution Transformer</v>
+            <v>Q235 Rectangular Steel Tube</v>
           </cell>
           <cell r="P26">
-            <v>22</v>
+            <v>1</v>
           </cell>
           <cell r="Q26" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R26">
-            <v>19720.4545454545</v>
+            <v>730.34</v>
           </cell>
           <cell r="S26">
-            <v>433850</v>
+            <v>730.34</v>
+          </cell>
+          <cell r="T26" t="str">
+            <v>Aluminum Curtain Wall Panel</v>
+          </cell>
+          <cell r="U26">
+            <v>7188</v>
+          </cell>
+          <cell r="V26" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W26">
+            <v>60</v>
+          </cell>
+          <cell r="X26">
+            <v>431289.66</v>
           </cell>
           <cell r="AO26" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP26">
-            <v>43530</v>
+            <v>43472</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HLG,0702</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>OPAL INTERNATIONALTRADING FZE</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-170-CL</v>
           </cell>
           <cell r="D27" t="str">
-            <v>GUANGDONG ZHONGBAO KITCHENWARE CO. LTD</v>
+            <v>KAVALIERGLASS, INC.</v>
           </cell>
           <cell r="E27" t="str">
-            <v>Guandong China</v>
+            <v>Sazava, Czech Repulic</v>
           </cell>
           <cell r="F27" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G27" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H27" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I27" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J27" t="str">
-            <v>Origin: Guandong China</v>
+            <v xml:space="preserve"> Czech Repulic</v>
           </cell>
           <cell r="K27" t="str">
-            <v>Loading: Guandong China</v>
+            <v>Sazava, Czech Repulic</v>
           </cell>
           <cell r="L27" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M27">
-            <v>901204</v>
+            <v>75504.08</v>
           </cell>
           <cell r="N27" t="str">
-            <v>Nine Hundred One Thousand Two Hundred Four Dirhams Only</v>
+            <v>Seventy Five Thousand Five Hundred Four 8.0/100 Euros Only</v>
           </cell>
           <cell r="O27" t="str">
-            <v>Auto SMT Machine Special for Limitless LED Strip</v>
+            <v>316 Grade Stainless Steel Round Bar</v>
           </cell>
           <cell r="P27">
-            <v>10</v>
+            <v>19</v>
           </cell>
           <cell r="Q27" t="str">
-            <v>SETS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R27">
-            <v>90120.4</v>
+            <v>3973.9</v>
           </cell>
           <cell r="S27">
-            <v>901204</v>
+            <v>75504.08</v>
           </cell>
           <cell r="AO27" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP27">
-            <v>43537</v>
+            <v>43475</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HLG,0721</v>
+            <v>VT-126</v>
           </cell>
           <cell r="D28" t="str">
-            <v>P&amp;A CORPORATION</v>
+            <v>ADW METALLURGICAL CONSUMABLES CO LTD</v>
           </cell>
           <cell r="E28" t="str">
-            <v>Seoul, South Korea</v>
+            <v>Dalian, China</v>
           </cell>
           <cell r="F28" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G28" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H28" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I28" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J28" t="str">
-            <v>Origin:  South Korea</v>
+            <v xml:space="preserve"> China</v>
           </cell>
           <cell r="K28" t="str">
-            <v>Loading: Seoul, South Korea</v>
+            <v>Dalian, China</v>
           </cell>
           <cell r="L28" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M28">
-            <v>111676.7</v>
+            <v>100000</v>
           </cell>
           <cell r="N28" t="str">
-            <v>One Hundred Eleven Thousand Six Hundred Seventy Six 70.0/100 Euros Only</v>
+            <v>One Hundred Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O28" t="str">
-            <v>Rtk GPS Receiver Surveying Instrument G992</v>
+            <v>Light Steel Structure Prefabricated Carport  Warehouse  Workshop (Q345B/Q235B)</v>
           </cell>
           <cell r="P28">
-            <v>9</v>
+            <v>4000</v>
           </cell>
           <cell r="Q28" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R28">
-            <v>12408.5222222222</v>
+            <v>25</v>
           </cell>
           <cell r="S28">
-            <v>111676.7</v>
+            <v>100000</v>
           </cell>
           <cell r="AO28" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP28">
-            <v>43533</v>
+            <v>43490</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HLG,0731</v>
+            <v>VT-128</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>AXICOR DWC LLC</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="D29" t="str">
-            <v>POINT MOBILE CO.,LTD</v>
+            <v>AL JABOR TRADING COMPANY</v>
           </cell>
           <cell r="E29" t="str">
-            <v>Seoul, South Korea</v>
+            <v>Doha, Qatar</v>
           </cell>
           <cell r="F29" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G29" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H29" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I29" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J29" t="str">
-            <v>Origin:  South Korea</v>
+            <v xml:space="preserve"> Qatar</v>
           </cell>
           <cell r="K29" t="str">
-            <v>Loading: Seoul, South Korea</v>
+            <v>Doha, Qatar</v>
           </cell>
           <cell r="L29" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M29">
-            <v>65208.5</v>
+            <v>180000</v>
           </cell>
           <cell r="N29" t="str">
-            <v>Sixty Five Thousand Two Hundred Eight 50.0/100 Euros Only</v>
+            <v>One Hundred Eighty Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O29" t="str">
-            <v>GPS Tracker for Car and Motorcycle  Acc Monitor (TK115)</v>
+            <v>Steel Structure Warehouse/Workshop 005</v>
           </cell>
           <cell r="P29">
-            <v>2328</v>
+            <v>480</v>
           </cell>
           <cell r="Q29" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R29">
-            <v>28.010524054982799</v>
+            <v>150</v>
           </cell>
           <cell r="S29">
-            <v>65208.5</v>
+            <v>72000</v>
+          </cell>
+          <cell r="T29" t="str">
+            <v>Q195 Q235 Q345 Carbon Welded Steel Pipe</v>
+          </cell>
+          <cell r="U29">
+            <v>216</v>
+          </cell>
+          <cell r="V29" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W29">
+            <v>500</v>
+          </cell>
+          <cell r="X29">
+            <v>108000</v>
           </cell>
           <cell r="AO29" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP29">
-            <v>43538</v>
+            <v>43478</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HLG,0739</v>
+            <v>VT-118</v>
           </cell>
           <cell r="B30" t="str">
-            <v xml:space="preserve">RAMZ AL HAQEEGA GENERAL TRADING LLC </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D30" t="str">
-            <v>JIANGSU KELIDA DECORATION MATERIAL CO ., LTD</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E30" t="str">
-            <v>Jiangsu, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F30" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G30" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H30" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I30" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J30" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K30" t="str">
-            <v>Loading: Jiangsu, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L30" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M30">
-            <v>20592</v>
+            <v>10000</v>
           </cell>
           <cell r="N30" t="str">
-            <v>Twenty Thousand Five Hundred Ninety Two Euros Only</v>
+            <v>Ten Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O30" t="str">
-            <v>GPS Tracker for Car and Motorcycle  Acc Monitor (TK115)</v>
+            <v>Hollow Stone Pillar Granite Roman Column</v>
           </cell>
           <cell r="P30">
-            <v>735</v>
+            <v>13</v>
           </cell>
           <cell r="Q30" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R30">
-            <v>28.016326530612201</v>
+            <v>769.23</v>
           </cell>
           <cell r="S30">
-            <v>20592</v>
+            <v>10000</v>
+          </cell>
+          <cell r="AN30" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO30" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP30">
-            <v>43543</v>
+            <v>43492</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HLG,0701</v>
+            <v>VT-127</v>
           </cell>
           <cell r="B31" t="str">
-            <v xml:space="preserve">RECAZ STAR GENERAL TRADING LLC </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D31" t="str">
-            <v>ORLUX IMPORT,EXPORT GMBH</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E31" t="str">
-            <v>Frankfurt Am Main, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F31" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G31" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H31" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I31" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J31" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K31" t="str">
-            <v>Loading: Frankfurt Am Main, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L31" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M31">
-            <v>623186</v>
+            <v>117503</v>
           </cell>
           <cell r="N31" t="str">
-            <v>Six Hundred Twenty Three Thousand One Hundred Eighty Six Dirhams Only</v>
+            <v>One Hundred Seventeen Thousand Five Hundred Three U.S.Dollars Only</v>
           </cell>
           <cell r="O31" t="str">
-            <v>Digital Radar Oil Diesel Fuel Tank Level Sensor</v>
+            <v>Q235 Rectangular Steel Tube</v>
           </cell>
           <cell r="P31">
-            <v>733</v>
+            <v>180</v>
           </cell>
           <cell r="Q31" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R31">
-            <v>850.18553888130896</v>
+            <v>652.79</v>
           </cell>
           <cell r="S31">
-            <v>623186</v>
+            <v>117503</v>
+          </cell>
+          <cell r="AN31" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO31" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP31">
-            <v>43537</v>
+            <v>43493</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>HLG,0743</v>
+            <v>VT-130</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D32" t="str">
-            <v>RENNER ITALIA S.P.A</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E32" t="str">
-            <v>Minerbio, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F32" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G32" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H32" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I32" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J32" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K32" t="str">
-            <v>Loading: Minerbio, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L32" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M32">
-            <v>50000</v>
+            <v>300000</v>
           </cell>
           <cell r="N32" t="str">
-            <v>Fifty Thousand Euros Only</v>
+            <v>Three Hundred Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O32" t="str">
-            <v>Outdoor Full Color 7000 CD P6/P8/P10 LED Display</v>
+            <v>Mexico Rn100 Hydraulic Press Rolling Machine</v>
           </cell>
           <cell r="P32">
-            <v>111</v>
+            <v>3</v>
           </cell>
           <cell r="Q32" t="str">
-            <v>M2</v>
+            <v>SETS</v>
           </cell>
           <cell r="R32">
-            <v>450.45045045044998</v>
+            <v>8000</v>
           </cell>
           <cell r="S32">
-            <v>50000</v>
+            <v>24000</v>
+          </cell>
+          <cell r="T32" t="str">
+            <v>Acoustic Decorative Ceiling Tiles</v>
+          </cell>
+          <cell r="U32">
+            <v>5520</v>
+          </cell>
+          <cell r="V32" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W32">
+            <v>50</v>
+          </cell>
+          <cell r="X32">
+            <v>276000</v>
+          </cell>
+          <cell r="AN32" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO32" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP32">
-            <v>43544</v>
+            <v>43478</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>HLG,0722</v>
+            <v>VT-131</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D33" t="str">
-            <v>SAMSUNG POLYMER CO</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E33" t="str">
-            <v>Seoul, South Korea</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F33" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G33" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H33" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I33" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J33" t="str">
-            <v>Origin:  South Korea</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K33" t="str">
-            <v>Loading: Seoul, South Korea</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L33" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M33">
-            <v>241012.78</v>
+            <v>300000</v>
           </cell>
           <cell r="N33" t="str">
-            <v>Two Hundred Forty One Thousand Twelve 78.0/100 Euros Only</v>
+            <v>Three Hundred Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O33" t="str">
-            <v>Outdoor Full Color 7000 CD P6/P8/P10 LED Display</v>
+            <v>Thermal Insulation Building Construction Decorative Materials</v>
           </cell>
           <cell r="P33">
-            <v>537</v>
+            <v>2045</v>
           </cell>
           <cell r="Q33" t="str">
-            <v>M2</v>
+            <v>MS</v>
           </cell>
           <cell r="R33">
-            <v>448.81337057728098</v>
+            <v>100</v>
           </cell>
           <cell r="S33">
-            <v>241012.78</v>
+            <v>204500</v>
+          </cell>
+          <cell r="T33" t="str">
+            <v>Building Construction Material Steel Frabrication Structure</v>
+          </cell>
+          <cell r="U33">
+            <v>1061</v>
+          </cell>
+          <cell r="V33" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="W33">
+            <v>90.01</v>
+          </cell>
+          <cell r="X33">
+            <v>95500</v>
+          </cell>
+          <cell r="AN33" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO33" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP33">
-            <v>43533</v>
+            <v>43482</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>HLG,0744</v>
+            <v>VT-125-CL</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>AXICOR DWC LLC</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Dubai, Uae</v>
           </cell>
           <cell r="D34" t="str">
-            <v>SMURFIT KAPPA  UK LTD</v>
+            <v>ARAYMOND FLUID CONNECTION</v>
           </cell>
           <cell r="E34" t="str">
-            <v>Liverpool, England</v>
+            <v>Grenoble, France</v>
           </cell>
           <cell r="F34" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G34" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H34" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I34" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J34" t="str">
-            <v>Origin:  England</v>
+            <v xml:space="preserve"> France</v>
           </cell>
           <cell r="K34" t="str">
-            <v>Loading: Liverpool, England</v>
+            <v>Grenoble, France</v>
           </cell>
           <cell r="L34" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M34">
-            <v>160009.37</v>
+            <v>139932</v>
           </cell>
           <cell r="N34" t="str">
-            <v>One Hundred Sixty Thousand Nine 37.0/100 Euros Only</v>
+            <v>One Hundred Thirty Nine Thousand Nine Hundred Thirty Two U.S.Dollars Only</v>
           </cell>
           <cell r="O34" t="str">
-            <v>10/0.4kv Dry Type Transformer</v>
+            <v>Galvanized Round Steel Pipe</v>
           </cell>
           <cell r="P34">
-            <v>188</v>
+            <v>205</v>
           </cell>
           <cell r="Q34" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R34">
-            <v>851.11367021276499</v>
+            <v>682.6</v>
           </cell>
           <cell r="S34">
-            <v>160009.37</v>
+            <v>139932</v>
           </cell>
           <cell r="AO34" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP34">
-            <v>43545</v>
+            <v>43478</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>HLG,0691</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>STRONG VIEW TRADING FZE</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>Ras Al Khaimah, United Arab Emirates</v>
+            <v>VT-167</v>
           </cell>
           <cell r="D35" t="str">
-            <v>ZHONGSHAN LIQIN TRADE CO LTD</v>
+            <v>NANJING SISIB SILICONES CO LT</v>
           </cell>
           <cell r="E35" t="str">
-            <v>Guandong, China</v>
+            <v>Nanjing, China</v>
           </cell>
           <cell r="F35" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G35" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H35" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I35" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J35" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> China</v>
           </cell>
           <cell r="K35" t="str">
-            <v>Loading: Guandong, China</v>
+            <v>Nanjing, China</v>
           </cell>
           <cell r="L35" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M35">
-            <v>225200</v>
+            <v>18640</v>
           </cell>
           <cell r="N35" t="str">
-            <v>Two Hundred Twenty Five Thousand Two Hundred Dirhams Only</v>
+            <v>Eighteen Thousand Six Hundred Forty Euros Only</v>
           </cell>
           <cell r="O35" t="str">
-            <v>Outdoor LED Driver 250W 36V IP65</v>
+            <v>Big Size Ultra Thin Marble Look Porcelain Ceramic Floor Tile</v>
           </cell>
           <cell r="P35">
-            <v>5774</v>
+            <v>266</v>
           </cell>
           <cell r="Q35" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R35">
-            <v>39.002424662279097</v>
+            <v>70.08</v>
           </cell>
           <cell r="S35">
-            <v>225200</v>
-          </cell>
-          <cell r="AN35">
-            <v>3.5</v>
+            <v>18640</v>
           </cell>
           <cell r="AO35" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP35">
-            <v>43526</v>
+            <v>43448</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>HLG,0728</v>
+            <v>VT-186</v>
           </cell>
           <cell r="D36" t="str">
-            <v>UNITERRA  TRADING GMBH</v>
+            <v>ACAR KIMYA ANONIM SIRKETI</v>
           </cell>
           <cell r="E36" t="str">
-            <v>Stuttgart, Germany</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F36" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G36" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H36" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I36" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J36" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K36" t="str">
-            <v>Loading: Stuttgart, Germany</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L36" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M36">
-            <v>102804.86</v>
+            <v>270536</v>
           </cell>
           <cell r="N36" t="str">
-            <v>One Hundred Two Thousand Eight Hundred Four 86.0/100 Euros Only</v>
+            <v>Two Hundred Seventy Thousand Five Hundred Thirty Six Euros Only</v>
           </cell>
           <cell r="O36" t="str">
-            <v xml:space="preserve">2.8V~3.6 V  Ultra-Low Power Pressure Sensor </v>
+            <v>Dx51d Bright Hot DIP Galvanized Steel Coil /Gi</v>
           </cell>
           <cell r="P36">
-            <v>1209</v>
+            <v>29</v>
           </cell>
           <cell r="Q36" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R36">
-            <v>85.032969396195199</v>
+            <v>786.52</v>
           </cell>
           <cell r="S36">
-            <v>102804.86</v>
+            <v>22809.08</v>
+          </cell>
+          <cell r="T36" t="str">
+            <v>Single Story Warehouse Steel Structure</v>
+          </cell>
+          <cell r="U36">
+            <v>3096</v>
+          </cell>
+          <cell r="V36" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W36">
+            <v>80.02</v>
+          </cell>
+          <cell r="X36">
+            <v>247726.92</v>
           </cell>
           <cell r="AO36" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP36">
-            <v>43537</v>
+            <v>43448</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>HLG,0724</v>
+            <v>VT-168</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D37" t="str">
-            <v>VAN REES CEYLON LTD</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E37" t="str">
-            <v>Peliyagoda, Sri Lanka</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F37" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G37" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H37" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I37" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J37" t="str">
-            <v>Origin:  Sri Lanka</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K37" t="str">
-            <v>Loading: Peliyagoda, Sri Lanka</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L37" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M37">
-            <v>104805.59</v>
+            <v>29588</v>
           </cell>
           <cell r="N37" t="str">
-            <v>One Hundred Four Thousand Eight Hundred Five 59.0/100 Euros Only</v>
+            <v>Twenty Nine Thousand Five Hundred Eighty Eight Euros Only</v>
           </cell>
           <cell r="O37" t="str">
-            <v xml:space="preserve">2.8V~3.6 V  Ultra-Low Power Pressure Sensor </v>
+            <v>CNC Machining Parts Aluminum Profile Extrusion</v>
           </cell>
           <cell r="P37">
-            <v>1233</v>
+            <v>295</v>
           </cell>
           <cell r="Q37" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R37">
-            <v>85.000478507704699</v>
+            <v>100.3</v>
           </cell>
           <cell r="S37">
-            <v>104805.59</v>
+            <v>29588</v>
+          </cell>
+          <cell r="AN37" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO37" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP37">
-            <v>43536</v>
+            <v>43463</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>HLG,0674</v>
+            <v>VT-175</v>
           </cell>
           <cell r="B38" t="str">
-            <v>VIVOTEK MIDDLE EAST</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C38" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D38" t="str">
-            <v>KERAMOULD S.R.L</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E38" t="str">
-            <v>Castellarano, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F38" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G38" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H38" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I38" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J38" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K38" t="str">
-            <v>Loading: Castellarano, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L38" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M38">
-            <v>400000</v>
+            <v>96000</v>
           </cell>
           <cell r="N38" t="str">
-            <v>Four Hundred Thousand Dirhams Only</v>
+            <v>Ninety Six Thousand Euros Only</v>
           </cell>
           <cell r="O38" t="str">
-            <v>Foif A90 Gnss Rtk Receiver 555 Channels GPS (A90+)</v>
+            <v>Hollow Stone Pillar Granite Roman Column</v>
           </cell>
           <cell r="P38">
-            <v>75</v>
+            <v>128</v>
           </cell>
           <cell r="Q38" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R38">
-            <v>5333.3333333333303</v>
+            <v>750</v>
           </cell>
           <cell r="S38">
-            <v>400000</v>
+            <v>96000</v>
+          </cell>
+          <cell r="AN38" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO38" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP38">
-            <v>43530</v>
+            <v>43443</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>HLG,0720</v>
+            <v>VT-183</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D39" t="str">
-            <v>ZYTOMED SYSTEM GMBH</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E39" t="str">
-            <v>Berlin, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F39" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G39" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H39" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I39" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J39" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K39" t="str">
-            <v>Loading: Berlin, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L39" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M39">
-            <v>38377.85</v>
+            <v>179279</v>
           </cell>
           <cell r="N39" t="str">
-            <v>Thirty Eight Thousand Three Hundred Seventy Seven 85.0/100 Euros Only</v>
+            <v>One Hundred Seventy Nine Thousand Two Hundred Seventy Nine Euros Only</v>
           </cell>
           <cell r="O39" t="str">
-            <v>Outdoor LED Driver 250W 36V IP65</v>
+            <v>3003h24 Flat Aluminum Sheet MetalÂ BuildingÂ Construction Material</v>
           </cell>
           <cell r="P39">
-            <v>984</v>
+            <v>2636</v>
           </cell>
           <cell r="Q39" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R39">
-            <v>39.001880081300797</v>
+            <v>68.010000000000005</v>
           </cell>
           <cell r="S39">
-            <v>38377.85</v>
+            <v>179279</v>
+          </cell>
+          <cell r="AN39" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO39" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP39">
-            <v>43531</v>
+            <v>43458</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>HLG,0681,CL</v>
+            <v>VT-184</v>
           </cell>
           <cell r="B40" t="str">
-            <v>TUF COMMODITIES DMCC</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D40" t="str">
-            <v>HOWELL CLEAN APPLIANCES (HK) LIMITED</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E40" t="str">
-            <v>Hong Kong , China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F40" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G40" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H40" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I40" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J40" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K40" t="str">
-            <v>Loading: Hong Kong , China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L40" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M40">
-            <v>730880</v>
+            <v>182016.6</v>
           </cell>
           <cell r="N40" t="str">
-            <v>Seven Hundred Thirty Thousand Eight Hundred Eighty Dirhams Only</v>
+            <v>One Hundred Eighty Two Thousand Sixteen 60.0/100 Euros Only</v>
           </cell>
           <cell r="O40" t="str">
-            <v>Three Phase Dry Type Variable Transformer</v>
+            <v>Decorative Building Material Stone Aluminum Honeycomb Panel</v>
           </cell>
           <cell r="P40">
-            <v>3636</v>
+            <v>2022</v>
           </cell>
           <cell r="Q40" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R40">
-            <v>201.01210121012099</v>
+            <v>90.02</v>
           </cell>
           <cell r="S40">
-            <v>730880</v>
+            <v>182016.6</v>
+          </cell>
+          <cell r="AN40" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO40" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP40">
-            <v>43542</v>
+            <v>43451</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>HLG,0763,CL</v>
+            <v>VT-187</v>
           </cell>
           <cell r="B41" t="str">
-            <v>TOURANTO FLAVOURS AND FRAGRANCES FZE</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C41" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D41" t="str">
-            <v>SHANDONG FUPPON AGRICULTURAL MACHINERY EQUIPMENT CO., LTD.</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E41" t="str">
-            <v>Liaocheng, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F41" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G41" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H41" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I41" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J41" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K41" t="str">
-            <v>Loading: Liaocheng, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L41" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M41">
-            <v>1433602</v>
+            <v>302611.44</v>
           </cell>
           <cell r="N41" t="str">
-            <v>One Million Four Hundred Thirty Three Thousand Six Hundred Two Dirhams Only</v>
+            <v>Three Hundred Two Thousand Six Hundred Eleven 44.0/100 Euros Only</v>
           </cell>
           <cell r="O41" t="str">
-            <v>Digital Radar Oil Diesel Fuel Tank Level Sensor</v>
+            <v>Hot Dipped Galvanized Steel (Hot rolled/Cold rolled) Coil</v>
           </cell>
           <cell r="P41">
-            <v>1686</v>
+            <v>300</v>
           </cell>
           <cell r="Q41" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R41">
+            <v>505.62</v>
+          </cell>
+          <cell r="S41">
+            <v>151686</v>
+          </cell>
+          <cell r="T41" t="str">
+            <v>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</v>
+          </cell>
+          <cell r="U41">
+            <v>125</v>
+          </cell>
+          <cell r="V41" t="str">
             <v>PCS</v>
           </cell>
-          <cell r="R41">
-            <v>850.29774614472103</v>
-          </cell>
-          <cell r="S41">
-            <v>1433602</v>
+          <cell r="W41">
+            <v>1207.4000000000001</v>
+          </cell>
+          <cell r="X41">
+            <v>150925.44</v>
+          </cell>
+          <cell r="AN41" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO41" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP41">
-            <v>43543</v>
+            <v>43449</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>HLG,0750,CL</v>
+            <v>VT-189</v>
           </cell>
           <cell r="B42" t="str">
-            <v>TOURANTO FLAVOURS AND FRAGRANCES FZE</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C42" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D42" t="str">
-            <v>HAINING RIXIN PROTECTIVE MATERIAL INDUSTRIAL CO. LTD.</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E42" t="str">
-            <v>Zheijiang China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F42" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G42" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H42" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I42" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J42" t="str">
-            <v>Origin: Zheijiang China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K42" t="str">
-            <v>Loading: Zheijiang China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L42" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M42">
-            <v>1523268</v>
+            <v>470500</v>
           </cell>
           <cell r="N42" t="str">
-            <v>One Million Five Hundred Twenty Three Thousand Two Hundred Sixty Eight Dirhams Only</v>
+            <v>Four Hundred Seventy Thousand Five Hundred Euros Only</v>
           </cell>
           <cell r="O42" t="str">
-            <v>IP65 Waterproof P6 SMD Outdoor LED Display Screen</v>
+            <v>Heat Insulation Tube Building Material Pipe Glasswool</v>
           </cell>
           <cell r="P42">
-            <v>1523</v>
+            <v>688</v>
           </cell>
           <cell r="Q42" t="str">
-            <v>M2</v>
+            <v>SETS</v>
           </cell>
           <cell r="R42">
-            <v>1000.17596848325</v>
+            <v>337.08</v>
           </cell>
           <cell r="S42">
-            <v>1523268</v>
+            <v>231911.04000000001</v>
+          </cell>
+          <cell r="T42" t="str">
+            <v>Ideabond Building Material Pre-Painted Aluminium Strip</v>
+          </cell>
+          <cell r="U42">
+            <v>55</v>
+          </cell>
+          <cell r="V42" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W42">
+            <v>4337.9799999999996</v>
+          </cell>
+          <cell r="X42">
+            <v>238588.96</v>
+          </cell>
+          <cell r="AN42" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO42" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP42">
-            <v>43542</v>
+            <v>43448</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>HLG,0758,CL</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v xml:space="preserve">TAJ AL MULOOK GENERAL TRADING LLC </v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-172</v>
           </cell>
           <cell r="D43" t="str">
-            <v>New Hope Group</v>
+            <v>KAVALIERGLASS, INC.</v>
           </cell>
           <cell r="E43" t="str">
-            <v>Gansu Sheng, China</v>
+            <v>Sazava, Czech Repulic</v>
           </cell>
           <cell r="F43" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G43" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H43" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I43" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J43" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> Czech Repulic</v>
           </cell>
           <cell r="K43" t="str">
-            <v>Loading: Gansu Sheng, China</v>
+            <v>Sazava, Czech Repulic</v>
           </cell>
           <cell r="L43" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M43">
-            <v>578366</v>
+            <v>58184</v>
           </cell>
           <cell r="N43" t="str">
-            <v>Five Hundred Seventy Eight Thousand Three Hundred Sixty Six Dirhams Only</v>
+            <v>Fifty Eight Thousand One Hundred Eighty Four Euros Only</v>
           </cell>
           <cell r="O43" t="str">
-            <v xml:space="preserve">Three Phase Asynchronous AC Induction Electric Gear </v>
+            <v>12mm Building Material Artificial Stone Acrylic Solid Surface Corian</v>
           </cell>
           <cell r="P43">
-            <v>2065</v>
+            <v>484</v>
           </cell>
           <cell r="Q43" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R43">
-            <v>280.0803874092</v>
+            <v>120.21</v>
           </cell>
           <cell r="S43">
-            <v>578366</v>
+            <v>58184</v>
           </cell>
           <cell r="AO43" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP43">
-            <v>43529</v>
+            <v>43465</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>HLG,0692,CL</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v xml:space="preserve">SOREN SKY VIEW TRADING LLC </v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-182</v>
           </cell>
           <cell r="D44" t="str">
-            <v>BRF</v>
+            <v>TURK HENKEL KIMYA SAN. VE TIC. A.S.</v>
           </cell>
           <cell r="E44" t="str">
-            <v>Ponta Grossa , Pr, Brazil</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="F44" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G44" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H44" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I44" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J44" t="str">
-            <v>Origin:  Pr, Brazil</v>
+            <v xml:space="preserve"> Turkey</v>
           </cell>
           <cell r="K44" t="str">
-            <v>Loading: Ponta Grossa , Pr, Brazil</v>
+            <v>Istanbul, Turkey</v>
           </cell>
           <cell r="L44" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M44">
-            <v>1500000</v>
+            <v>177906.42</v>
           </cell>
           <cell r="N44" t="str">
-            <v>One Million Five Hundred Thousand Dirhams Only</v>
+            <v>One Hundred Seventy Seven Thousand Nine Hundred Six 42.0/100 Euros Only</v>
           </cell>
           <cell r="O44" t="str">
-            <v>Box Type Power Transformer Distribution Substation</v>
+            <v>EcoÂ BuildingÂ MaterialÂ 10-25mm Aluminum Honeycomb Panel</v>
           </cell>
           <cell r="P44">
-            <v>3000</v>
+            <v>3535</v>
           </cell>
           <cell r="Q44" t="str">
-            <v>SETS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R44">
-            <v>136.23978201634799</v>
+            <v>50.33</v>
           </cell>
           <cell r="S44">
-            <v>1500000</v>
+            <v>177906.42</v>
           </cell>
           <cell r="AO44" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP44">
-            <v>43528</v>
+            <v>43444</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>HLG,0696,CL</v>
+            <v>VT-120</v>
           </cell>
           <cell r="B45" t="str">
-            <v>POLY BRAND FZCO</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C45" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D45" t="str">
-            <v>MENGYANG GROUP</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E45" t="str">
-            <v>Jiangsu, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F45" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G45" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H45" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I45" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J45" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K45" t="str">
-            <v>Loading: Jiangsu, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L45" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M45">
-            <v>878647</v>
+            <v>16103.61</v>
           </cell>
           <cell r="N45" t="str">
-            <v>Eight Hundred Seventy Eight Thousand Six Hundred Forty Seven Dirhams Only</v>
+            <v>Sixteen Thousand One Hundred Three 61.0/100 U.S.Dollars Only</v>
           </cell>
           <cell r="O45" t="str">
-            <v>Super Light Portable LED Display (P4.81  P5.95  P6.25)</v>
+            <v>Thermal Insulation Building Construction Decorative Materials</v>
           </cell>
           <cell r="P45">
-            <v>1757</v>
+            <v>161</v>
           </cell>
           <cell r="Q45" t="str">
-            <v>M2</v>
+            <v>MS</v>
           </cell>
           <cell r="R45">
-            <v>500.08366533864501</v>
+            <v>100.02</v>
           </cell>
           <cell r="S45">
-            <v>878647</v>
+            <v>16103.61</v>
+          </cell>
+          <cell r="AN45" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO45" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP45">
-            <v>43530</v>
+            <v>43449</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>HLG,0717,CL</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>PETROCHEMICALS &amp; SOLVENTS MIDDLE EAST DMCC</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-124</v>
           </cell>
           <cell r="D46" t="str">
-            <v>GUANGDONG ZHONGBAO KITCHENWARE CO. LTD</v>
+            <v>ELITE CAPTAL ONE INVESTMENT LLC</v>
           </cell>
           <cell r="E46" t="str">
-            <v>Guandong China</v>
+            <v>California, United States</v>
           </cell>
           <cell r="F46" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G46" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H46" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I46" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J46" t="str">
-            <v>Origin: Guandong China</v>
+            <v xml:space="preserve"> United States</v>
           </cell>
           <cell r="K46" t="str">
-            <v>Loading: Guandong China</v>
+            <v>California, United States</v>
           </cell>
           <cell r="L46" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M46">
-            <v>138208</v>
+            <v>50000</v>
           </cell>
           <cell r="N46" t="str">
-            <v>One Hundred Thirty Eight Thousand Two Hundred Eight Euros Only</v>
+            <v>Fifty Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O46" t="str">
-            <v>Low Power Consumption Stage LED Display</v>
+            <v>Steel Structure Warehouse/Workshop 005</v>
           </cell>
           <cell r="P46">
-            <v>69</v>
+            <v>333</v>
           </cell>
           <cell r="Q46" t="str">
-            <v>M2</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R46">
-            <v>2003.0144927536201</v>
+            <v>150.15</v>
           </cell>
           <cell r="S46">
-            <v>138208</v>
+            <v>50000</v>
           </cell>
           <cell r="AO46" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP46">
-            <v>43531</v>
+            <v>43443</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>HLG,0727,CL</v>
+            <v>VT-129</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D47" t="str">
-            <v>PENTAX INDUSTRIES SPA</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E47" t="str">
-            <v>Verona, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F47" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G47" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H47" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I47" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J47" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K47" t="str">
-            <v>Loading: Verona, Italy</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L47" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M47">
-            <v>293495.46000000002</v>
+            <v>210000</v>
           </cell>
           <cell r="N47" t="str">
-            <v>Two Hundred Ninety Three Thousand Four Hundred Ninety Five 46.0/100 Euros Only</v>
+            <v>Two Hundred Ten Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O47" t="str">
-            <v>Super Light Portable LED Display (P4.81  P5.95  P6.25)</v>
+            <v>Aluminium Tilt &amp; Turn Window</v>
           </cell>
           <cell r="P47">
-            <v>586</v>
+            <v>2100</v>
           </cell>
           <cell r="Q47" t="str">
-            <v>M2</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R47">
-            <v>500.84549488054603</v>
+            <v>100</v>
           </cell>
           <cell r="S47">
-            <v>293495.46000000002</v>
+            <v>210000</v>
+          </cell>
+          <cell r="AN47" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO47" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP47">
-            <v>43531</v>
+            <v>43463</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>HLG,0748,CL</v>
+            <v>VT-174</v>
           </cell>
           <cell r="D48" t="str">
-            <v>EURO OTC PHARMA GMBH</v>
+            <v>EUROFLUID HYDRAULIK GMBH</v>
           </cell>
           <cell r="E48" t="str">
-            <v>BÃ¶nen, Germany</v>
+            <v>Asparn, Austria</v>
           </cell>
           <cell r="F48" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G48" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H48" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I48" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J48" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> Austria</v>
           </cell>
           <cell r="K48" t="str">
-            <v>Loading: BÃ¶nen, Germany</v>
+            <v>Asparn, Austria</v>
           </cell>
           <cell r="L48" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M48">
-            <v>741711.29</v>
+            <v>88000</v>
           </cell>
           <cell r="N48" t="str">
-            <v>Seven Hundred Forty One Thousand Seven Hundred Eleven 29.0/100 Euros Only</v>
+            <v>Eighty Eight Thousand Euros Only</v>
           </cell>
           <cell r="O48" t="str">
-            <v>Cast Iron Housing Three Phase Electric Motor</v>
+            <v>Q195 Q235 Q345 Carbon Welded Steel Pipe</v>
           </cell>
           <cell r="P48">
-            <v>1738</v>
+            <v>176</v>
           </cell>
           <cell r="Q48" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R48">
-            <v>112.35955056179699</v>
+            <v>500</v>
           </cell>
           <cell r="S48">
-            <v>195280.89887640401</v>
-          </cell>
-          <cell r="T48" t="str">
-            <v>Five Wires Stripping Cutting Machine (DNBX-40)</v>
-          </cell>
-          <cell r="U48">
-            <v>170</v>
-          </cell>
-          <cell r="V48" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W48">
-            <v>3214.2964183740901</v>
-          </cell>
-          <cell r="X48">
-            <v>546430.39112359495</v>
+            <v>88000</v>
           </cell>
           <cell r="AO48" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP48">
-            <v>43537</v>
+            <v>43498</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>HLG,0755,CL</v>
+            <v>VT-178</v>
           </cell>
           <cell r="B49" t="str">
-            <v>NORTH WEST TRADING LLC</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C49" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D49" t="str">
-            <v>HOWELL CLEAN APPLIANCES (HK) LIMITED</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E49" t="str">
-            <v>Hong Kong , China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F49" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G49" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H49" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I49" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J49" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K49" t="str">
-            <v>Loading: Hong Kong , China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L49" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M49">
-            <v>743980</v>
+            <v>116350</v>
           </cell>
           <cell r="N49" t="str">
-            <v>Seven Hundred Forty Three Thousand Nine Hundred Eighty Dirhams Only</v>
+            <v>One Hundred Sixteen Thousand Three Hundred Fifty Euros Only</v>
           </cell>
           <cell r="O49" t="str">
-            <v xml:space="preserve">3 Phase Asynchronous AC Induction Electrical Geared </v>
+            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
           </cell>
           <cell r="P49">
-            <v>3719</v>
+            <v>258</v>
           </cell>
           <cell r="Q49" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R49">
-            <v>200.04840010755501</v>
+            <v>450.97</v>
           </cell>
           <cell r="S49">
-            <v>743980</v>
+            <v>116350</v>
+          </cell>
+          <cell r="AN49" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO49" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP49">
-            <v>43537</v>
+            <v>43500</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>HLG,0654,CL</v>
+            <v>VT-180</v>
           </cell>
           <cell r="B50" t="str">
-            <v>MOON STONE HOME ELECTRICAL APPLIANCES TRADING LLC</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C50" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D50" t="str">
-            <v>INDIA CEMENT</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E50" t="str">
-            <v>Tamil Nadu, India</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F50" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G50" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H50" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I50" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J50" t="str">
-            <v>Origin:  India</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K50" t="str">
-            <v>Loading: Tamil Nadu, India</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L50" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M50">
-            <v>3000000</v>
+            <v>166056.6</v>
           </cell>
           <cell r="N50" t="str">
-            <v>Three Million Dirhams Only</v>
+            <v>One Hundred Sixty Six Thousand Fifty Six 60.0/100 Euros Only</v>
           </cell>
           <cell r="O50" t="str">
-            <v>P10 Full Color Outdoor LED Display</v>
+            <v>Pre Painted Galvanized Corrugated Steel Sheet</v>
           </cell>
           <cell r="P50">
-            <v>3156</v>
+            <v>88</v>
           </cell>
           <cell r="Q50" t="str">
-            <v>M2</v>
+            <v>TONS</v>
           </cell>
           <cell r="R50">
-            <v>163.48773841961801</v>
+            <v>1123.5999999999999</v>
           </cell>
           <cell r="S50">
-            <v>515967.30245231598</v>
+            <v>98876.800000000003</v>
           </cell>
           <cell r="T50" t="str">
-            <v>Three Phase Dry Type Variable Transformer</v>
+            <v>Building Glass Aluminium Curtain Wall Material</v>
           </cell>
           <cell r="U50">
-            <v>12358</v>
+            <v>23</v>
           </cell>
           <cell r="V50" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="W50">
-            <v>201.006044468982</v>
+            <v>2920.86</v>
           </cell>
           <cell r="X50">
-            <v>2484032.6975476802</v>
+            <v>67179.8</v>
+          </cell>
+          <cell r="AN50" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO50" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP50">
-            <v>43528</v>
+            <v>43516</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>HLG,0708,CL</v>
+            <v>VT-181</v>
           </cell>
           <cell r="B51" t="str">
-            <v xml:space="preserve">MDKT TRADING FZE                 </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C51" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D51" t="str">
-            <v>LAMBRECHT HOUT</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E51" t="str">
-            <v>Mortsel, Belgium</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F51" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G51" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H51" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I51" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J51" t="str">
-            <v>Origin:  Belgium</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K51" t="str">
-            <v>Loading: Mortsel, Belgium</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L51" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M51">
-            <v>4362955</v>
+            <v>166950</v>
           </cell>
           <cell r="N51" t="str">
-            <v>Four Million Three Hundred Sixty Two Thousand Nine Hundred Fifty Five Dirhams Only</v>
+            <v>One Hundred Sixty Six Thousand Nine Hundred Fifty Euros Only</v>
           </cell>
           <cell r="O51" t="str">
-            <v>Power Transformer/Voltage Regulating Transfomer</v>
+            <v>Q235 Rectangular Steel Tube</v>
           </cell>
           <cell r="P51">
-            <v>56</v>
+            <v>107</v>
           </cell>
           <cell r="Q51" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R51">
-            <v>7084.4686648501302</v>
+            <v>730.34</v>
           </cell>
           <cell r="S51">
-            <v>396730.245231607</v>
+            <v>78146.38</v>
           </cell>
           <cell r="T51" t="str">
-            <v>Rtk GPS Receiver Surveying Instrument G992</v>
+            <v>Sgch Colors Coated Steel RoofingÂ Material</v>
           </cell>
           <cell r="U51">
-            <v>175</v>
+            <v>118</v>
           </cell>
           <cell r="V51" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="W51">
-            <v>3133.5149863760198</v>
+            <v>752.57</v>
           </cell>
           <cell r="X51">
-            <v>548365.12261580303</v>
-          </cell>
-          <cell r="Y51" t="str">
-            <v>Transformer 3 Phase Dry Type Power Distribution Transformer</v>
-          </cell>
-          <cell r="Z51">
-            <v>179</v>
-          </cell>
-          <cell r="AA51" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="AB51">
-            <v>19094.1878891206</v>
-          </cell>
-          <cell r="AC51">
-            <v>3417859.6321525802</v>
+            <v>88803.62</v>
+          </cell>
+          <cell r="AN51" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO51" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP51">
-            <v>43529</v>
+            <v>43502</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>HLG,0663,CL</v>
+            <v>VT-192</v>
           </cell>
           <cell r="B52" t="str">
-            <v xml:space="preserve">MDKT TRADING FZE                 </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C52" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D52" t="str">
-            <v>Land O'Lakes</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E52" t="str">
-            <v>Florida, United States</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F52" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G52" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H52" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I52" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J52" t="str">
-            <v>Origin:  United States</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K52" t="str">
-            <v>Loading: Florida, United States</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L52" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M52">
-            <v>4204435</v>
+            <v>916150</v>
           </cell>
           <cell r="N52" t="str">
-            <v>Four Million Two Hundred Four Thousand Four Hundred Thirty Five Dirhams Only</v>
+            <v>Nine Hundred Sixteen Thousand One Hundred Fifty Euros Only</v>
           </cell>
           <cell r="O52" t="str">
-            <v>Stonex S9 Gnss Rtk GPS</v>
+            <v>T Lintel  Hot Dipped Galvanize  Z500G/M2</v>
           </cell>
           <cell r="P52">
-            <v>847</v>
+            <v>402</v>
           </cell>
           <cell r="Q52" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R52">
-            <v>871.93460490463201</v>
+            <v>1123.5999999999999</v>
           </cell>
           <cell r="S52">
-            <v>738528.61035422306</v>
+            <v>451687.2</v>
           </cell>
           <cell r="T52" t="str">
-            <v>7500CD LED Screen Advertising Display (P4 P5 P6 P8 P10)</v>
+            <v>PPGI Steel Coil/Color Coated Galvanized Steel Coil</v>
           </cell>
           <cell r="U52">
-            <v>4208</v>
+            <v>774</v>
           </cell>
           <cell r="V52" t="str">
-            <v>BOXES</v>
+            <v>TONS</v>
           </cell>
           <cell r="W52">
-            <v>135.96730245231601</v>
+            <v>600.08000000000004</v>
           </cell>
           <cell r="X52">
-            <v>572150.40871934604</v>
-          </cell>
-          <cell r="Y52" t="str">
-            <v>Recover Type Position Linear Sensor</v>
-          </cell>
-          <cell r="Z52">
-            <v>24114</v>
-          </cell>
-          <cell r="AA52" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="AB52">
-            <v>120.003150905135</v>
-          </cell>
-          <cell r="AC52">
-            <v>2893755.9809264299</v>
+            <v>464462.8</v>
+          </cell>
+          <cell r="AN52" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO52" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP52">
-            <v>43540</v>
+            <v>43514</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>HLG,0749,CL</v>
+            <v>VT-117</v>
           </cell>
           <cell r="B53" t="str">
-            <v xml:space="preserve">LAKE VIEW BUILDING MATERIALS TRADING LLC  </v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C53" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D53" t="str">
-            <v>KAITO ENTERPRISES COMPANY LIMITED</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E53" t="str">
-            <v>Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F53" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G53" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H53" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I53" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J53" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K53" t="str">
-            <v>Loading: Hong Kong, China</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L53" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M53">
-            <v>2827000</v>
+            <v>6845.99</v>
           </cell>
           <cell r="N53" t="str">
-            <v>Two Million Eight Hundred Twenty Seven Thousand Dirhams Only</v>
+            <v>Six Thousand Eight Hundred Forty Five 99.0/100 U.S.Dollars Only</v>
           </cell>
           <cell r="O53" t="str">
-            <v>Competitive Price Steel StructureÃ˜Â¢Ã‚Â ConstructionÃ˜Â¢Ã‚Â Hangar</v>
+            <v>Hot Prime Galvanized Steel Roofing Sheet</v>
           </cell>
           <cell r="P53">
-            <v>10709</v>
+            <v>9</v>
           </cell>
           <cell r="Q53" t="str">
-            <v>SQUARE METERS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R53">
-            <v>21.798365122615799</v>
+            <v>760.67</v>
           </cell>
           <cell r="S53">
-            <v>233438.692098092</v>
-          </cell>
-          <cell r="T53" t="str">
-            <v>White Marble Hollow Column Stone Column</v>
-          </cell>
-          <cell r="U53">
-            <v>3051</v>
-          </cell>
-          <cell r="V53" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W53">
-            <v>850.06925857158501</v>
-          </cell>
-          <cell r="X53">
-            <v>2593561.3079018998</v>
+            <v>6845.99</v>
+          </cell>
+          <cell r="AN53" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO53" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP53">
-            <v>43537</v>
+            <v>43500</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>HLG,0700,CL</v>
+            <v>VT-119</v>
           </cell>
           <cell r="B54" t="str">
-            <v xml:space="preserve">LAKE VIEW BUILDING MATERIALS LLC    </v>
+            <v>AXICOR DWC LLC</v>
           </cell>
           <cell r="C54" t="str">
             <v>Dubai, U.A.E</v>
           </cell>
           <cell r="D54" t="str">
-            <v>CONSTRUMAT</v>
+            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
           </cell>
           <cell r="E54" t="str">
-            <v>Saulnot, France</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="F54" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G54" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H54" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I54" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J54" t="str">
-            <v>Origin:  France</v>
+            <v xml:space="preserve"> China</v>
           </cell>
           <cell r="K54" t="str">
-            <v>Loading: Saulnot, France</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="L54" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M54">
-            <v>759440</v>
+            <v>13000</v>
           </cell>
           <cell r="N54" t="str">
-            <v>Seven Hundred Fifty Nine Thousand Four Hundred Forty Dirhams Only</v>
+            <v>Thirteen Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O54" t="str">
-            <v>Artificial Quartz STONSe forÃ˜Â¢Ã‚Â BuildingÃ˜Â¢Ã‚Â MaterialÃ˜Â¢Ã‚Â with SGS Report &amp; Ce Certificate (Calacatta)</v>
+            <v>New Paneling Veins Series Artificial Quartz Slab Stone</v>
           </cell>
           <cell r="P54">
-            <v>6328</v>
+            <v>276</v>
           </cell>
           <cell r="Q54" t="str">
-            <v>SQUARE METERS</v>
+            <v>PCS</v>
           </cell>
           <cell r="R54">
-            <v>120.012642225031</v>
+            <v>47.1</v>
           </cell>
           <cell r="S54">
-            <v>759440</v>
+            <v>13000</v>
           </cell>
           <cell r="AO54" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP54">
-            <v>43526</v>
+            <v>43499</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>HLG,0682,CL</v>
+            <v>VT-153</v>
           </cell>
           <cell r="B55" t="str">
-            <v>GREEN CITY GENERAL TRADING LLC</v>
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
           </cell>
           <cell r="C55" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D55" t="str">
-            <v>AUTOMATION CO. UNITED</v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E55" t="str">
-            <v>Liverpool, United Kingdom</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F55" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G55" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H55" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I55" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J55" t="str">
-            <v>Origin:  United Kingdom</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K55" t="str">
-            <v>Loading: Liverpool, United Kingdom</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L55" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M55">
-            <v>877000</v>
+            <v>25100</v>
           </cell>
           <cell r="N55" t="str">
-            <v>Eight Hundred Seventy Seven Thousand Dirhams Only</v>
+            <v>Twenty Five Thousand One Hundred Euros Only</v>
           </cell>
           <cell r="O55" t="str">
-            <v>Rtk GPS Receiver Surveying Instrument G992</v>
+            <v>Powder Coating Aluminium Alloy Extrusion Profile</v>
           </cell>
           <cell r="P55">
-            <v>76</v>
+            <v>8</v>
           </cell>
           <cell r="Q55" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R55">
-            <v>11539.473684210499</v>
+            <v>3137.5</v>
           </cell>
           <cell r="S55">
-            <v>877000</v>
+            <v>25100</v>
+          </cell>
+          <cell r="AN55" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO55" t="str">
-            <v>AED</v>
+            <v>EURO</v>
           </cell>
           <cell r="AP55">
-            <v>43542</v>
+            <v>43402</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>HLG,0759,CL</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>GREEN CITY GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-107</v>
           </cell>
           <cell r="D56" t="str">
-            <v>ECOLEX SDN BHD</v>
+            <v>THABA MANZI WILDLIFE SERVICES</v>
           </cell>
           <cell r="E56" t="str">
-            <v>Pulau Indah, Malaysia</v>
+            <v>South Africa</v>
           </cell>
           <cell r="F56" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G56" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H56" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I56" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J56" t="str">
-            <v>Origin:  Malaysia</v>
+            <v>South Africa</v>
           </cell>
           <cell r="K56" t="str">
-            <v>Loading: Pulau Indah, Malaysia</v>
+            <v>South Africa</v>
           </cell>
           <cell r="L56" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M56">
-            <v>1600000</v>
+            <v>13300</v>
           </cell>
           <cell r="N56" t="str">
-            <v>One Million Six Hundred Thousand Dirhams Only</v>
+            <v>Thirteen Thousand Three Hundred U.S.Dollars Only</v>
           </cell>
           <cell r="O56" t="str">
-            <v>GPS Rtk Receiver Base+Rover (V30)</v>
+            <v>SGS Prefab Building Material Steel Construction</v>
           </cell>
           <cell r="P56">
-            <v>536</v>
+            <v>241</v>
           </cell>
           <cell r="Q56" t="str">
-            <v>PCS</v>
+            <v>SQUARE METERS</v>
           </cell>
           <cell r="R56">
-            <v>2985.0746268656699</v>
+            <v>55.19</v>
           </cell>
           <cell r="S56">
-            <v>1600000</v>
+            <v>13300</v>
           </cell>
           <cell r="AO56" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP56">
-            <v>43531</v>
+            <v>43394</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>HLG,0745,CL</v>
+            <v>VT-108</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D57" t="str">
-            <v xml:space="preserve">EBC KOREA CO.,LTD </v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E57" t="str">
-            <v>Gyeonggi,Do, South Korea</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F57" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G57" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H57" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I57" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J57" t="str">
-            <v>Origin: Do, South Korea</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K57" t="str">
-            <v>Loading: Gyeonggi,Do, South Korea</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L57" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M57">
-            <v>491655.15</v>
+            <v>61000</v>
           </cell>
           <cell r="N57" t="str">
-            <v>Four Hundred Ninety One Thousand Six Hundred Fifty Five 15.0/100 Euros Only</v>
+            <v>Sixty One Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O57" t="str">
-            <v>P10mm 7500CD Advertising LED Display Screen</v>
+            <v>PVC Coating Galvanized Stainless Steel Welded Wire Mesh</v>
           </cell>
           <cell r="P57">
-            <v>158</v>
+            <v>2103</v>
           </cell>
           <cell r="Q57" t="str">
-            <v>M2</v>
+            <v>PCS</v>
           </cell>
           <cell r="R57">
-            <v>552.80898876404399</v>
+            <v>29.01</v>
           </cell>
           <cell r="S57">
-            <v>87343.820224719093</v>
-          </cell>
-          <cell r="T57" t="str">
-            <v>Plastic Recycling Packing Strip Making Machine</v>
-          </cell>
-          <cell r="U57">
-            <v>3</v>
-          </cell>
-          <cell r="V57" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="W57">
-            <v>134770.44325842601</v>
-          </cell>
-          <cell r="X57">
-            <v>404311.32977528003</v>
+            <v>61000</v>
+          </cell>
+          <cell r="AN57" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO57" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP57">
-            <v>43543</v>
+            <v>43395</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>HLG,0737,CL</v>
+            <v>VT-109</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Dubai, United Arab Emirates</v>
           </cell>
           <cell r="D58" t="str">
-            <v xml:space="preserve">DRALON GMBH   </v>
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
           </cell>
           <cell r="E58" t="str">
-            <v>Lingen, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="F58" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G58" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H58" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I58" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J58" t="str">
-            <v>Origin:  Germany</v>
+            <v xml:space="preserve"> India</v>
           </cell>
           <cell r="K58" t="str">
-            <v>Loading: Lingen, Germany</v>
+            <v>Kerala, India</v>
           </cell>
           <cell r="L58" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M58">
-            <v>145019.4</v>
+            <v>140500</v>
           </cell>
           <cell r="N58" t="str">
-            <v>One Hundred Forty Five Thousand Nineteen 40.0/100 Euros Only</v>
+            <v>One Hundred Forty Thousand Five Hundred U.S.Dollars Only</v>
           </cell>
           <cell r="O58" t="str">
-            <v>Rtk GPS Receiver Surveying Instrument G992</v>
+            <v>Cost Price Color Coated Aluminum Coil</v>
           </cell>
           <cell r="P58">
-            <v>12</v>
+            <v>40</v>
           </cell>
           <cell r="Q58" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R58">
-            <v>12084.949999999901</v>
+            <v>3512.5</v>
           </cell>
           <cell r="S58">
-            <v>145019.4</v>
+            <v>140500</v>
+          </cell>
+          <cell r="AN58" t="str">
+            <v xml:space="preserve">17.IBS </v>
           </cell>
           <cell r="AO58" t="str">
-            <v>EURO</v>
+            <v>USD</v>
           </cell>
           <cell r="AP58">
-            <v>43540</v>
+            <v>43387</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>HLG,0760,CL</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>DOX TECHNOLOGIES LLC</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-113-CL</v>
           </cell>
           <cell r="D59" t="str">
-            <v>GUANGDONG ZHONGBAO KITCHENWARE CO. LTD</v>
+            <v>TKPH PTY LTD TRADING AS OTR TYRES</v>
           </cell>
           <cell r="E59" t="str">
-            <v>Guandong China</v>
+            <v>Australia</v>
           </cell>
           <cell r="F59" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G59" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H59" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I59" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J59" t="str">
-            <v>Origin: Guandong China</v>
+            <v>Australia</v>
           </cell>
           <cell r="K59" t="str">
-            <v>Loading: Guandong China</v>
+            <v>Australia</v>
           </cell>
           <cell r="L59" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M59">
-            <v>1000000</v>
+            <v>1046500</v>
           </cell>
           <cell r="N59" t="str">
-            <v>One Million Dirhams Only</v>
+            <v>One Million Forty Six Thousand Five Hundred U.S.Dollars Only</v>
           </cell>
           <cell r="O59" t="str">
-            <v>P10 Full Color Outdoor LED Display</v>
+            <v>Weld Steel H Beam</v>
           </cell>
           <cell r="P59">
-            <v>1666</v>
+            <v>553</v>
           </cell>
           <cell r="Q59" t="str">
-            <v>M2</v>
+            <v>TONS</v>
           </cell>
           <cell r="R59">
-            <v>600.240096038415</v>
+            <v>850</v>
           </cell>
           <cell r="S59">
-            <v>1000000</v>
+            <v>470050</v>
+          </cell>
+          <cell r="T59" t="str">
+            <v>Powder Coating Aluminium Extrusion Profiles Sliding Window</v>
+          </cell>
+          <cell r="U59">
+            <v>192</v>
+          </cell>
+          <cell r="V59" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W59">
+            <v>3002.34</v>
+          </cell>
+          <cell r="X59">
+            <v>576450</v>
           </cell>
           <cell r="AO59" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP59">
-            <v>43533</v>
+            <v>43395</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>HLG,0676,CL</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v xml:space="preserve">DANO INTERNATIONAL TRADING LLC         </v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-112-CL</v>
           </cell>
           <cell r="D60" t="str">
-            <v>HONGKONG WILL INTERNATIONAL INVESTMENT LIMITED</v>
+            <v>FILTRATION SOLUTION PTE LTD</v>
           </cell>
           <cell r="E60" t="str">
-            <v>Changchung, China</v>
+            <v>Singapore, Singapore</v>
           </cell>
           <cell r="F60" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G60" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H60" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I60" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J60" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> Singapore</v>
           </cell>
           <cell r="K60" t="str">
-            <v>Loading: Changchung, China</v>
+            <v>Singapore, Singapore</v>
           </cell>
           <cell r="L60" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M60">
-            <v>4610000</v>
+            <v>800000</v>
           </cell>
           <cell r="N60" t="str">
-            <v>Four Million Six Hundred Ten Thousand Dirhams Only</v>
+            <v>Eight Hundred Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O60" t="str">
-            <v>Three-Phase Oil-Immersed Distributing Transformer</v>
+            <v>Construction Building Passenger Hoist</v>
           </cell>
           <cell r="P60">
-            <v>10</v>
+            <v>4</v>
           </cell>
           <cell r="Q60" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R60">
-            <v>4359.6730245231602</v>
+            <v>60000</v>
           </cell>
           <cell r="S60">
-            <v>43596.7302452316</v>
+            <v>240000</v>
           </cell>
           <cell r="T60" t="str">
-            <v>Stonex S9 Gnss Rtk GPS</v>
+            <v>12mm Building Material Big Slab Marble Like Veining Pattern Acrylic Artificial Stone Solid Surface</v>
           </cell>
           <cell r="U60">
-            <v>868</v>
+            <v>350</v>
           </cell>
           <cell r="V60" t="str">
             <v>PCS</v>
           </cell>
           <cell r="W60">
-            <v>871.93460490463201</v>
+            <v>129</v>
           </cell>
           <cell r="X60">
-            <v>756839.23705721996</v>
+            <v>45150</v>
           </cell>
           <cell r="Y60" t="str">
-            <v>Five Wires Stripping Cutting Machine (DNBX-40)</v>
+            <v>150kg/M3 Insulation Board Rockwool with 80% Basalt</v>
           </cell>
           <cell r="Z60">
-            <v>1190</v>
+            <v>556</v>
           </cell>
           <cell r="AA60" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="AB60">
-            <v>3201.3143131912102</v>
+            <v>925.99</v>
           </cell>
           <cell r="AC60">
-            <v>3809564.0326975398</v>
+            <v>514850</v>
           </cell>
           <cell r="AO60" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP60">
-            <v>43529</v>
+            <v>43392</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>HLG,0657,CL</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v xml:space="preserve">DANO INTERNATIONAL TRADING LLC         </v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>VT-224-CL</v>
           </cell>
           <cell r="D61" t="str">
-            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
+            <v>MWFG TRADING LTD</v>
           </cell>
           <cell r="E61" t="str">
-            <v>Shanghai, China</v>
+            <v>Vancouver, Canada</v>
           </cell>
           <cell r="F61" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G61" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H61" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I61" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J61" t="str">
-            <v>Origin:  China</v>
+            <v xml:space="preserve"> Canada</v>
           </cell>
           <cell r="K61" t="str">
-            <v>Loading: Shanghai, China</v>
+            <v>Vancouver, Canada</v>
           </cell>
           <cell r="L61" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M61">
-            <v>5684238</v>
+            <v>1258472</v>
           </cell>
           <cell r="N61" t="str">
-            <v>Five Million Six Hundred Eighty Four Thousand Two Hundred Thirty Eight Dirhams Only</v>
+            <v>One Million Two Hundred Fifty Eight Thousand Four Hundred Seventy Two canadian Dollars Only</v>
           </cell>
           <cell r="O61" t="str">
-            <v xml:space="preserve">2.8V~3.6 V  Ultra-Low Power Pressure Sensor </v>
+            <v>House Gate Interior Wooden Doors</v>
           </cell>
           <cell r="P61">
-            <v>1122</v>
+            <v>464</v>
           </cell>
           <cell r="Q61" t="str">
             <v>PCS</v>
           </cell>
           <cell r="R61">
-            <v>23.160762942779201</v>
+            <v>149.25</v>
           </cell>
           <cell r="S61">
-            <v>25986.3760217983</v>
+            <v>69252</v>
           </cell>
           <cell r="T61" t="str">
-            <v>35kv Find Power Distribution Transformer</v>
+            <v>Industrial PVC High Speed Shutter Door/Fast Shutter Door/High Speed PVC Roll up/Fold up Door</v>
           </cell>
           <cell r="U61">
-            <v>404</v>
+            <v>767</v>
           </cell>
           <cell r="V61" t="str">
-            <v>PCS</v>
+            <v>SETS</v>
           </cell>
           <cell r="W61">
-            <v>14005.573326678699</v>
+            <v>1550.48</v>
           </cell>
           <cell r="X61">
-            <v>5658251.6239782004</v>
+            <v>1189220</v>
           </cell>
           <cell r="AO61" t="str">
-            <v>AED</v>
+            <v>CAD</v>
           </cell>
           <cell r="AP61">
-            <v>43529</v>
+            <v>43368</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>HLG,0735,CL</v>
+            <v>VT-164</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>GOLDEN CORAL LLC</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Sharjah, United Arab Emirates</v>
           </cell>
           <cell r="D62" t="str">
-            <v>CY PRECISION INDUSTRY CO LTD</v>
+            <v xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </v>
           </cell>
           <cell r="E62" t="str">
-            <v>Taipei, Taiwan</v>
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
           </cell>
           <cell r="F62" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G62" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H62" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I62" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J62" t="str">
-            <v>Origin:  Taiwan</v>
+            <v xml:space="preserve"> Brunei </v>
           </cell>
           <cell r="K62" t="str">
-            <v>Loading: Taipei, Taiwan</v>
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
           </cell>
           <cell r="L62" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M62">
-            <v>205448.94</v>
+            <v>63000</v>
           </cell>
           <cell r="N62" t="str">
-            <v>Two Hundred Five Thousand Four Hundred Forty Eight 94.0/100 Euros Only</v>
+            <v>Sixty Three Thousand Euros Only</v>
           </cell>
           <cell r="O62" t="str">
-            <v>GPS Rtk Receiver Base+Rover (V30)</v>
+            <v>Senyu WPC Building Material Fencing</v>
           </cell>
           <cell r="P62">
-            <v>68</v>
+            <v>66</v>
           </cell>
           <cell r="Q62" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R62">
-            <v>3021.3079411764702</v>
+            <v>954.55</v>
           </cell>
           <cell r="S62">
-            <v>205448.94</v>
+            <v>63000</v>
+          </cell>
+          <cell r="AN62" t="str">
+            <v>17.GOLD</v>
           </cell>
           <cell r="AO62" t="str">
             <v>EURO</v>
           </cell>
           <cell r="AP62">
-            <v>43538</v>
+            <v>43372</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>HLG,0753,CL</v>
+            <v>VT-116</v>
           </cell>
           <cell r="B63" t="str">
-            <v xml:space="preserve">CENTURY LINK GENERAL TRADING LLC </v>
+            <v>GOLDEN CORAL LLC</v>
           </cell>
           <cell r="C63" t="str">
-            <v>Dubai, U.A.E</v>
+            <v>Sharjah, United Arab Emirates</v>
           </cell>
           <cell r="D63" t="str">
-            <v>GRAVINA TUFI</v>
+            <v xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </v>
           </cell>
           <cell r="E63" t="str">
-            <v>Puglia, Italy</v>
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
           </cell>
           <cell r="F63" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
           </cell>
           <cell r="G63" t="str">
-            <v>Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="H63" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
+            <v>VISION TRADING INTERNATIONAL FZE</v>
           </cell>
           <cell r="I63" t="str">
-            <v>Dubai, UAE</v>
+            <v>Dubai, U.A.E</v>
           </cell>
           <cell r="J63" t="str">
-            <v>Origin:  Italy</v>
+            <v xml:space="preserve"> Brunei </v>
           </cell>
           <cell r="K63" t="str">
-            <v>Loading: Puglia, Italy</v>
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
           </cell>
           <cell r="L63" t="str">
-            <v>Discharge: Tangshan City, China</v>
+            <v>Shanghai, China</v>
           </cell>
           <cell r="M63">
-            <v>1054691</v>
+            <v>860000</v>
           </cell>
           <cell r="N63" t="str">
-            <v>One Million Fifty Four Thousand Six Hundred Ninety One Dirhams Only</v>
+            <v>Eight Hundred Sixty Thousand U.S.Dollars Only</v>
           </cell>
           <cell r="O63" t="str">
-            <v xml:space="preserve">Thermostat Holder for Isuzu Truck 5-13716009-0 </v>
+            <v>Wrinkle PPGI</v>
           </cell>
           <cell r="P63">
-            <v>7031</v>
+            <v>212</v>
           </cell>
           <cell r="Q63" t="str">
-            <v>PCS</v>
+            <v>TONS</v>
           </cell>
           <cell r="R63">
-            <v>150.00583131844601</v>
+            <v>750</v>
           </cell>
           <cell r="S63">
-            <v>1054691</v>
+            <v>159000</v>
+          </cell>
+          <cell r="T63" t="str">
+            <v>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</v>
+          </cell>
+          <cell r="U63">
+            <v>935</v>
+          </cell>
+          <cell r="V63" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W63">
+            <v>70</v>
+          </cell>
+          <cell r="X63">
+            <v>65450</v>
+          </cell>
+          <cell r="Y63" t="str">
+            <v>Composite Reinforcement Floor Decking Sheet</v>
+          </cell>
+          <cell r="Z63">
+            <v>794</v>
+          </cell>
+          <cell r="AA63" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="AB63">
+            <v>800.44</v>
+          </cell>
+          <cell r="AC63">
+            <v>635550</v>
+          </cell>
+          <cell r="AN63" t="str">
+            <v>17.GOLD</v>
           </cell>
           <cell r="AO63" t="str">
-            <v>AED</v>
+            <v>USD</v>
           </cell>
           <cell r="AP63">
-            <v>43543</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>HLG,0677,CL</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>IAM GMBH</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>Kaarst, Germany</v>
-          </cell>
-          <cell r="F64" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
-          </cell>
-          <cell r="G64" t="str">
-            <v>Tangshan City, China</v>
-          </cell>
-          <cell r="H64" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="I64" t="str">
-            <v>Dubai, UAE</v>
-          </cell>
-          <cell r="J64" t="str">
-            <v>Origin:  Germany</v>
-          </cell>
-          <cell r="K64" t="str">
-            <v>Loading: Kaarst, Germany</v>
-          </cell>
-          <cell r="L64" t="str">
-            <v>Discharge: Tangshan City, China</v>
-          </cell>
-          <cell r="M64">
-            <v>5500000</v>
-          </cell>
-          <cell r="N64" t="str">
-            <v>Five Million Five Hundred Thousand Dirhams Only</v>
-          </cell>
-          <cell r="O64" t="str">
-            <v>SF6 Plus O2 Infrared Gas Sensor IR NDIR Leak Alarm</v>
-          </cell>
-          <cell r="P64">
-            <v>2819</v>
-          </cell>
-          <cell r="Q64" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R64">
-            <v>68.119891008174307</v>
-          </cell>
-          <cell r="S64">
-            <v>192029.97275204299</v>
-          </cell>
-          <cell r="T64" t="str">
-            <v>Rtk GPS Receiver Surveying Instrument G992</v>
-          </cell>
-          <cell r="U64">
-            <v>461</v>
-          </cell>
-          <cell r="V64" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W64">
-            <v>11514.0347662645</v>
-          </cell>
-          <cell r="X64">
-            <v>5307970.0272479504</v>
-          </cell>
-          <cell r="AO64" t="str">
-            <v>AED</v>
-          </cell>
-          <cell r="AP64">
-            <v>43528</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>HLG,0762,CL</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>BEHOVER INFORMATION TECHNOLOGY LLC</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>FIMAR SPA</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>Villa Verucchio, Italy</v>
-          </cell>
-          <cell r="F65" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
-          </cell>
-          <cell r="G65" t="str">
-            <v>Tangshan City, China</v>
-          </cell>
-          <cell r="H65" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="I65" t="str">
-            <v>Dubai, UAE</v>
-          </cell>
-          <cell r="J65" t="str">
-            <v>Origin:  Italy</v>
-          </cell>
-          <cell r="K65" t="str">
-            <v>Loading: Villa Verucchio, Italy</v>
-          </cell>
-          <cell r="L65" t="str">
-            <v>Discharge: Tangshan City, China</v>
-          </cell>
-          <cell r="M65">
-            <v>3736859</v>
-          </cell>
-          <cell r="N65" t="str">
-            <v>Three Million Seven Hundred Thirty Six Thousand Eight Hundred Fifty Nine Dirhams Only</v>
-          </cell>
-          <cell r="O65" t="str">
-            <v>Power Transformer/Voltage Regulating Transfomer</v>
-          </cell>
-          <cell r="P65">
-            <v>61</v>
-          </cell>
-          <cell r="Q65" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R65">
-            <v>7084.4686648501302</v>
-          </cell>
-          <cell r="S65">
-            <v>432152.588555858</v>
-          </cell>
-          <cell r="T65" t="str">
-            <v>Full Stripping Paper Die Cutting Machine</v>
-          </cell>
-          <cell r="U65">
-            <v>4</v>
-          </cell>
-          <cell r="V65" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W65">
-            <v>54495.912806539498</v>
-          </cell>
-          <cell r="X65">
-            <v>217983.65122615799</v>
-          </cell>
-          <cell r="Y65" t="str">
-            <v>Plastic Recycling Packing Strip Making Machine</v>
-          </cell>
-          <cell r="Z65">
-            <v>25</v>
-          </cell>
-          <cell r="AA65" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="AB65">
-            <v>123468.91040871901</v>
-          </cell>
-          <cell r="AC65">
-            <v>3086722.76021798</v>
-          </cell>
-          <cell r="AO65" t="str">
-            <v>AED</v>
-          </cell>
-          <cell r="AP65">
-            <v>43541</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>HLG,0685,CL</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>ADVANCE  BANKING SOLUTIONS TRADING DMCC</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>GOTAJ CERAMIC SDN BHD</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>Selangor, Malaysia</v>
-          </cell>
-          <cell r="F66" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
-          </cell>
-          <cell r="G66" t="str">
-            <v>Tangshan City, China</v>
-          </cell>
-          <cell r="H66" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="I66" t="str">
-            <v>Dubai, UAE</v>
-          </cell>
-          <cell r="J66" t="str">
-            <v>Origin:  Malaysia</v>
-          </cell>
-          <cell r="K66" t="str">
-            <v>Loading: Selangor, Malaysia</v>
-          </cell>
-          <cell r="L66" t="str">
-            <v>Discharge: Tangshan City, China</v>
-          </cell>
-          <cell r="M66">
-            <v>649842</v>
-          </cell>
-          <cell r="N66" t="str">
-            <v>Six Hundred Forty Nine Thousand Eight Hundred Forty Two Dirhams Only</v>
-          </cell>
-          <cell r="O66" t="str">
-            <v xml:space="preserve">3 Phase Asynchronous AC Induction Electrical Geared </v>
-          </cell>
-          <cell r="P66">
-            <v>3249</v>
-          </cell>
-          <cell r="Q66" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R66">
-            <v>200.01292705447801</v>
-          </cell>
-          <cell r="S66">
-            <v>649842</v>
-          </cell>
-          <cell r="AO66" t="str">
-            <v>AED</v>
-          </cell>
-          <cell r="AP66">
-            <v>43543</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>HLG,0699,CL</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v xml:space="preserve">ABU DHABI FERTILIZER INDUSTRIES CO WLL </v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>Abu Dhabi , United Arab Emirates</v>
-          </cell>
-          <cell r="F67" t="str">
-            <v>TANGSHAN YIFEI TRADING CO.</v>
-          </cell>
-          <cell r="G67" t="str">
-            <v>Tangshan City, China</v>
-          </cell>
-          <cell r="H67" t="str">
-            <v>HORIZONE LINE GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="I67" t="str">
-            <v>Dubai, UAE</v>
-          </cell>
-          <cell r="J67" t="str">
-            <v>Origin:  United Arab Emirates</v>
-          </cell>
-          <cell r="K67" t="str">
-            <v>Loading: Abu Dhabi , United Arab Emirates</v>
-          </cell>
-          <cell r="L67" t="str">
-            <v>Discharge: Tangshan City, China</v>
-          </cell>
-          <cell r="M67">
-            <v>635764</v>
-          </cell>
-          <cell r="N67" t="str">
-            <v>Six Hundred Thirty Five Thousand Seven Hundred Sixty Four Dirhams Only</v>
-          </cell>
-          <cell r="O67" t="str">
-            <v>Trimble R2 GPS Gnss Rtk Rover Trimble GPS w</v>
-          </cell>
-          <cell r="P67">
-            <v>96</v>
-          </cell>
-          <cell r="Q67" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R67">
-            <v>6622.5416666666597</v>
-          </cell>
-          <cell r="S67">
-            <v>635764</v>
-          </cell>
-          <cell r="AO67" t="str">
-            <v>AED</v>
-          </cell>
-          <cell r="AP67">
-            <v>43530</v>
+            <v>43358</v>
           </cell>
         </row>
       </sheetData>
@@ -5325,44 +5270,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -5390,14 +5335,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -5425,6 +5387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5436,777 +5415,945 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:M43"/>
+  <dimension ref="A3:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="80" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4" t="s">
+    <row r="3" spans="1:14">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="34.5">
+      <c r="A6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,42,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="40" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="21">
+      <c r="B14" s="41" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="4"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="44" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="44" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,6,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="42" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="42" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,7,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" customHeight="1">
+      <c r="B19" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="17" t="s">
         <v>3</v>
       </c>
+      <c r="G19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
+      <c r="N19" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J6" s="2"/>
+    <row r="20" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="55" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,15,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="35" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,16,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="35" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,17,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="36" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,18,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="37" t="e">
+        <f>H20*F20</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,42,0)</f>
+    <row r="21" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="55" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,20,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,21,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="36" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,23,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" s="37" t="e">
+        <f t="shared" ref="I21:I24" si="0">H21*F21</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="J8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="J9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="J10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="J11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="F14" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,4,0)</f>
+    <row r="22" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="55" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,25,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="F15" s="20" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,6,0)</f>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,26,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="51" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,5,0)</f>
+      <c r="G22" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,27,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="51" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,7,0)</f>
+      <c r="H22" s="36" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,28,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="22" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,17,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="48" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,15,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="9" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,16,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K23" s="18" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,18,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" s="27" t="e">
-        <f>K23*J23</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,B23+1,  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C24" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="48" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,20,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="9" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,21,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K24" s="18" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,23,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" s="27" t="e">
-        <f>K24*J24</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,B24+1,  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C25" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,27,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="48" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,25,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="9" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,26,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K25" s="18" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,28,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="27" t="e">
-        <f t="shared" ref="L25:L27" si="0">K25*J25</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,B25+1,  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C26" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,32,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="48" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,30,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="9" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,31,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K26" s="18" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,33,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" s="27" t="e">
+      <c r="I22" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,B26+1,  0 )</f>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1">
+      <c r="B23" s="55" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,30,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="8" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,37,0),  0 )</f>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,31,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="48" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,35,0),  0 )</f>
+      <c r="G23" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,32,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="9" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,36,0),  0 )</f>
+      <c r="H23" s="36" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,33,0),  0 )</f>
         <v>#N/A</v>
       </c>
-      <c r="K27" s="18" t="e">
-        <f>IF(VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,38,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="27" t="e">
+      <c r="I23" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="6"/>
+    <row r="24" spans="1:14">
+      <c r="B24" s="55" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,35,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,36,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="35" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,37,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="36" t="e">
+        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,38,0),  0 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="6"/>
+    <row r="25" spans="1:14">
+      <c r="H25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="47" t="e">
+        <f>SUM(I20:I24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="6"/>
+    <row r="26" spans="1:14">
+      <c r="B26" s="20"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="6"/>
+    <row r="27" spans="1:14">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="49" t="e">
+        <f>I25</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="6"/>
+    <row r="28" spans="1:14">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="6"/>
+    <row r="29" spans="1:14">
+      <c r="B29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J34" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="31" t="s">
+    <row r="30" spans="1:14">
+      <c r="B30" s="45" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,14,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="H32" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="H33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="H34" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" s="3" customFormat="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="38" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,10,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="38" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,11,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" s="3" customFormat="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="32" t="e">
-        <f>SUM(L23:L33)</f>
+      <c r="I39" s="39" t="e">
+        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,12,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="M34" s="6"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="4"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,14,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="K35" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="35">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6"/>
+    <row r="40" spans="1:14" s="3" customFormat="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="4"/>
     </row>
-    <row r="36" spans="2:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="K36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="15" t="e">
-        <f>SUM(L34)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" s="6"/>
+    <row r="41" spans="1:14" s="3" customFormat="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="4"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="M37" s="6"/>
+    <row r="42" spans="1:14" s="3" customFormat="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="4"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="16"/>
-      <c r="M38" s="6"/>
+    <row r="43" spans="1:14" s="3" customFormat="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="4"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="16"/>
-      <c r="M39" s="6"/>
+    <row r="44" spans="1:14" s="3" customFormat="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="M40" s="6"/>
+    <row r="45" spans="1:14" s="3" customFormat="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="4"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,10,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="M41" s="6"/>
+    <row r="46" spans="1:14" s="3" customFormat="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="4"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,11,0)</f>
-        <v>#N/A</v>
-      </c>
+    <row r="47" spans="1:14" s="3" customFormat="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="4"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="e">
-        <f>VLOOKUP(K8,'[1]Tracking Sheet output'!$A$1:$AP$67,12,0)</f>
-        <v>#N/A</v>
-      </c>
+    <row r="48" spans="1:14" s="3" customFormat="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" s="3" customFormat="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" s="3" customFormat="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" s="3" customFormat="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" s="3" customFormat="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" s="3" customFormat="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
+  <mergeCells count="7">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;C&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;G</oddFooter>

--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -5,34 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amin\PO_SQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amin\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
-    <sheet name="PO" sheetId="6" r:id="rId1"/>
+    <sheet name="Tracking Sheet output" sheetId="7" r:id="rId1"/>
+    <sheet name="PO" sheetId="6" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
-    <definedName name="aa" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="aa" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="BGJHNG" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="BGJHNG" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="BGJHNG" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="CC">[0]!CC</definedName>
-    <definedName name="Data.Dump" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="FHFGH" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="FHFGH" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="FHFGH" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="HFGHFG" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="HFGHFG" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="HFGHFG" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
-    <definedName name="HTML_Control" localSheetId="0" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Control" localSheetId="1" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -47,19 +48,19 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
     <definedName name="jujuy" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
-    <definedName name="Macro1" localSheetId="0">PO!Macro1</definedName>
+    <definedName name="Macro1" localSheetId="1">PO!Macro1</definedName>
     <definedName name="Macro1">[0]!Macro1</definedName>
-    <definedName name="Macro2" localSheetId="0">PO!Macro2</definedName>
+    <definedName name="Macro2" localSheetId="1">PO!Macro2</definedName>
     <definedName name="Macro2">[0]!Macro2</definedName>
-    <definedName name="Ownership" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="P">[0]!P</definedName>
-    <definedName name="PACK" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="PACK" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="PACK" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$A$1:$I$42</definedName>
-    <definedName name="qwdwqdqw" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PO!$A$1:$I$42</definedName>
+    <definedName name="qwdwqdqw" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="qwdwqdqw" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="SDGVDFGV" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="SDGVDFGV" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="SDGVDFGV" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="sq">[0]!sq</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="310">
   <si>
     <t>Date:</t>
   </si>
@@ -161,6 +162,849 @@
   </si>
   <si>
     <t>Container</t>
+  </si>
+  <si>
+    <t>VT-240</t>
+  </si>
+  <si>
+    <t>WATRIN TRADING DWC LLC</t>
+  </si>
+  <si>
+    <t>Dubai, U.A.E</t>
+  </si>
+  <si>
+    <t>GRAVINA TUFI</t>
+  </si>
+  <si>
+    <t>Puglia, Italy</t>
+  </si>
+  <si>
+    <t>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
+    <t>VISION TRADING INTERNATIONAL FZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy</t>
+  </si>
+  <si>
+    <t>Four Hundred Twenty Thousand Six Hundred Forty Six 24.0/100 canadian Dollars Only</t>
+  </si>
+  <si>
+    <t>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>Construction Building Passenger Hoist</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>VT-159</t>
+  </si>
+  <si>
+    <t>ACAR KIMYA ANONIM SIRKETI</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turkey</t>
+  </si>
+  <si>
+    <t>Eighty Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Aluminum Awing Windows with Timber Reveal Install</t>
+  </si>
+  <si>
+    <t>SQUARE METERS</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>VT-162</t>
+  </si>
+  <si>
+    <t>AKKIM YAPI KIMYASALLARI SAN VE TIC AS</t>
+  </si>
+  <si>
+    <t>One Hundred Thirteen Thousand Four Hundred Ninety Four 44.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>Solid Surface / Building Material Artificial Quartz Stone with SGS</t>
+  </si>
+  <si>
+    <t>VT-160</t>
+  </si>
+  <si>
+    <t>FI JOINT VENTURE PTY LTD</t>
+  </si>
+  <si>
+    <t>Leederville, Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia</t>
+  </si>
+  <si>
+    <t>One Hundred Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Modern Aluminum Sliding Door and Windows</t>
+  </si>
+  <si>
+    <t>VT-156</t>
+  </si>
+  <si>
+    <t>FRT METAL VE SANAYI DIS TICAR</t>
+  </si>
+  <si>
+    <t>Forty One Thousand Six Hundred One 60.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>Reliable Quality Motoer Lift 2 Ton Building Construction Materials Hoist Passenger Home Hydraulic Sightseeing Elevator</t>
+  </si>
+  <si>
+    <t>SETS</t>
+  </si>
+  <si>
+    <t>VT-158</t>
+  </si>
+  <si>
+    <t>IBS INTERNATIONAL GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>Dubai, United Arab Emirates</t>
+  </si>
+  <si>
+    <t>SAI INTERNATIONAL TRADING COMPANY</t>
+  </si>
+  <si>
+    <t>Kerala, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t>Seventy Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Q345 Large Span Steel Structure</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.IBS </t>
+  </si>
+  <si>
+    <t>VT-161</t>
+  </si>
+  <si>
+    <t>One Hundred Seven Thousand Three Hundred Seventeen 45.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>0.125-3.0mm Building Material Gi Galvanized Steel Coil</t>
+  </si>
+  <si>
+    <t>TONS</t>
+  </si>
+  <si>
+    <t>VT-163</t>
+  </si>
+  <si>
+    <t>Seven Hundred Ten Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Building Construction Material Steel Frabrication Structure</t>
+  </si>
+  <si>
+    <t>VT-151</t>
+  </si>
+  <si>
+    <t>IGP ENGINEERS PVT LTD</t>
+  </si>
+  <si>
+    <t>Chennai, India</t>
+  </si>
+  <si>
+    <t>Fifteen Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Fireproof Soundproof Spraying Cottonthermal Insulation</t>
+  </si>
+  <si>
+    <t>VT-154</t>
+  </si>
+  <si>
+    <t>KALE KIMYA</t>
+  </si>
+  <si>
+    <t>Thirty Five Thousand Five Hundred Thirty Two Euros Only</t>
+  </si>
+  <si>
+    <t>VT-155</t>
+  </si>
+  <si>
+    <t>KEMRON KIMYA SAN VE TIC A S</t>
+  </si>
+  <si>
+    <t>Thirty Eight Thousand Nine Hundred Seventy Euros Only</t>
+  </si>
+  <si>
+    <t>Wrought Iron Front Door</t>
+  </si>
+  <si>
+    <t>VT-157</t>
+  </si>
+  <si>
+    <t>RAMZ AL HAQEEQA GENERAL TRADING</t>
+  </si>
+  <si>
+    <t>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China</t>
+  </si>
+  <si>
+    <t>Forty Five Thousand Nine Hundred Eighty Euros Only</t>
+  </si>
+  <si>
+    <t>Brick Force Wire Mesh Welding Machine</t>
+  </si>
+  <si>
+    <t>VT-152</t>
+  </si>
+  <si>
+    <t>SYMRISE AG</t>
+  </si>
+  <si>
+    <t>Holzminden, Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+  </si>
+  <si>
+    <t>Twenty Thousand Three Hundred Sixty Seven 60.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>FacadeÂ BuildingÂ DecorativeÂ MaterialÂ ACP/Mcp/A2 Fr Aluminum Composite Panel</t>
+  </si>
+  <si>
+    <t>VT-106</t>
+  </si>
+  <si>
+    <t>Seven Thousand Five Hundred Thirteen 30.0/100 U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Galvanized Angle Bar</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>VT-165</t>
+  </si>
+  <si>
+    <t>Four Thousand Nine Hundred Fifty Euros Only</t>
+  </si>
+  <si>
+    <t>600X1200mmÂ Polished Porcelain Floor Tile &amp; Wall Tile</t>
+  </si>
+  <si>
+    <t>VT-166</t>
+  </si>
+  <si>
+    <t>Twelve Thousand One Hundred Euros Only</t>
+  </si>
+  <si>
+    <t>Thermal Insulation Building Construction Decorative Materials</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>VT-171</t>
+  </si>
+  <si>
+    <t>AFS TEKNIK DANISMANLIK SAN.VE TIC.LTD.STI</t>
+  </si>
+  <si>
+    <t>Sakarya, Turkey</t>
+  </si>
+  <si>
+    <t>Forty Nine Thousand Eight Hundred Fifty Five Euros Only</t>
+  </si>
+  <si>
+    <t>Competitive Price Steel StructureÂ ConstructionÂ Hangar</t>
+  </si>
+  <si>
+    <t>VT-173</t>
+  </si>
+  <si>
+    <t>AL HOLOL AL BADEELA GENERAL TRADING</t>
+  </si>
+  <si>
+    <t>KOLON GLOBAL CORPORATION</t>
+  </si>
+  <si>
+    <t>Incheon, South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Korea</t>
+  </si>
+  <si>
+    <t>Sixty Thousand Seven Hundred Seventeen Euros Only</t>
+  </si>
+  <si>
+    <t>Corrugated Prime Cold Rolled Hot Dipped Zinc Prepainted Color Coated PPGI PPGL Galvalume Galvanized Steel Sheet</t>
+  </si>
+  <si>
+    <t>VT-179</t>
+  </si>
+  <si>
+    <t>HEST AG</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>One Hundred Thirty Four Thousand Seven Hundred Seven Euros Only</t>
+  </si>
+  <si>
+    <t>Artificial Quartz Stone with SGS Standards (black Calacatta)</t>
+  </si>
+  <si>
+    <t>VT-185</t>
+  </si>
+  <si>
+    <t>Two Hundred Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>VT-190</t>
+  </si>
+  <si>
+    <t>Four Hundred Ninety Nine Thousand Three Hundred Thirty Two 60.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>Machinery Lightweight Wall Panel Machine</t>
+  </si>
+  <si>
+    <t>PPGI Steel Coil/Color Coated Galvanized Steel Coil</t>
+  </si>
+  <si>
+    <t>VT-191</t>
+  </si>
+  <si>
+    <t>Five Hundred Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Remote ControlÂ BuildingÂ MaterialÂ Security Fast Speed PVC Folding Aluminium Door (Hz-FC05623)</t>
+  </si>
+  <si>
+    <t>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</t>
+  </si>
+  <si>
+    <t>VT-177</t>
+  </si>
+  <si>
+    <t>NEW MULBERRY PTE LTD</t>
+  </si>
+  <si>
+    <t>Singapore, Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singapore</t>
+  </si>
+  <si>
+    <t>One Hundred Seven Thousand Ten Euros Only</t>
+  </si>
+  <si>
+    <t>Economic Embossed Coated Aluminum Coil</t>
+  </si>
+  <si>
+    <t>VT-176</t>
+  </si>
+  <si>
+    <t>PETROFER ENDUSTRIYEL YAGLAR SANAYI VE TICARET A.S.</t>
+  </si>
+  <si>
+    <t>Izmir, Turkey</t>
+  </si>
+  <si>
+    <t>One Hundred Thousand Ten Euros Only</t>
+  </si>
+  <si>
+    <t>2017Â BuildingÂ MaterialÂ Rapid Rolling High Speed Roller Shutter Doors (Hz-FC061)</t>
+  </si>
+  <si>
+    <t>VT-188</t>
+  </si>
+  <si>
+    <t>SICOR S P A</t>
+  </si>
+  <si>
+    <t>Rovereto, Italy</t>
+  </si>
+  <si>
+    <t>Four Hundred Thirty Two Thousand Twenty Euros Only</t>
+  </si>
+  <si>
+    <t>Q235 Rectangular Steel Tube</t>
+  </si>
+  <si>
+    <t>Aluminum Curtain Wall Panel</t>
+  </si>
+  <si>
+    <t>VT-170-CL</t>
+  </si>
+  <si>
+    <t>KAVALIERGLASS, INC.</t>
+  </si>
+  <si>
+    <t>Sazava, Czech Repulic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Czech Repulic</t>
+  </si>
+  <si>
+    <t>Seventy Five Thousand Five Hundred Four 8.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>316 Grade Stainless Steel Round Bar</t>
+  </si>
+  <si>
+    <t>VT-126</t>
+  </si>
+  <si>
+    <t>ADW METALLURGICAL CONSUMABLES CO LTD</t>
+  </si>
+  <si>
+    <t>Dalian, China</t>
+  </si>
+  <si>
+    <t>One Hundred Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Light Steel Structure Prefabricated Carport  Warehouse  Workshop (Q345B/Q235B)</t>
+  </si>
+  <si>
+    <t>VT-128</t>
+  </si>
+  <si>
+    <t>AXICOR DWC LLC</t>
+  </si>
+  <si>
+    <t>AL JABOR TRADING COMPANY</t>
+  </si>
+  <si>
+    <t>Doha, Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qatar</t>
+  </si>
+  <si>
+    <t>One Hundred Eighty Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Steel Structure Warehouse/Workshop 005</t>
+  </si>
+  <si>
+    <t>Q195 Q235 Q345 Carbon Welded Steel Pipe</t>
+  </si>
+  <si>
+    <t>VT-118</t>
+  </si>
+  <si>
+    <t>Ten Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Hollow Stone Pillar Granite Roman Column</t>
+  </si>
+  <si>
+    <t>VT-127</t>
+  </si>
+  <si>
+    <t>One Hundred Seventeen Thousand Five Hundred Three U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>VT-130</t>
+  </si>
+  <si>
+    <t>Three Hundred Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Mexico Rn100 Hydraulic Press Rolling Machine</t>
+  </si>
+  <si>
+    <t>Acoustic Decorative Ceiling Tiles</t>
+  </si>
+  <si>
+    <t>VT-131</t>
+  </si>
+  <si>
+    <t>VT-125-CL</t>
+  </si>
+  <si>
+    <t>Dubai, Uae</t>
+  </si>
+  <si>
+    <t>ARAYMOND FLUID CONNECTION</t>
+  </si>
+  <si>
+    <t>Grenoble, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+  </si>
+  <si>
+    <t>One Hundred Thirty Nine Thousand Nine Hundred Thirty Two U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Galvanized Round Steel Pipe</t>
+  </si>
+  <si>
+    <t>VT-167</t>
+  </si>
+  <si>
+    <t>NANJING SISIB SILICONES CO LT</t>
+  </si>
+  <si>
+    <t>Nanjing, China</t>
+  </si>
+  <si>
+    <t>Eighteen Thousand Six Hundred Forty Euros Only</t>
+  </si>
+  <si>
+    <t>Big Size Ultra Thin Marble Look Porcelain Ceramic Floor Tile</t>
+  </si>
+  <si>
+    <t>VT-186</t>
+  </si>
+  <si>
+    <t>Two Hundred Seventy Thousand Five Hundred Thirty Six Euros Only</t>
+  </si>
+  <si>
+    <t>Dx51d Bright Hot DIP Galvanized Steel Coil /Gi</t>
+  </si>
+  <si>
+    <t>Single Story Warehouse Steel Structure</t>
+  </si>
+  <si>
+    <t>VT-168</t>
+  </si>
+  <si>
+    <t>Twenty Nine Thousand Five Hundred Eighty Eight Euros Only</t>
+  </si>
+  <si>
+    <t>CNC Machining Parts Aluminum Profile Extrusion</t>
+  </si>
+  <si>
+    <t>VT-175</t>
+  </si>
+  <si>
+    <t>Ninety Six Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>VT-183</t>
+  </si>
+  <si>
+    <t>One Hundred Seventy Nine Thousand Two Hundred Seventy Nine Euros Only</t>
+  </si>
+  <si>
+    <t>3003h24 Flat Aluminum Sheet MetalÂ BuildingÂ Construction Material</t>
+  </si>
+  <si>
+    <t>VT-184</t>
+  </si>
+  <si>
+    <t>One Hundred Eighty Two Thousand Sixteen 60.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>Decorative Building Material Stone Aluminum Honeycomb Panel</t>
+  </si>
+  <si>
+    <t>VT-187</t>
+  </si>
+  <si>
+    <t>Three Hundred Two Thousand Six Hundred Eleven 44.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>Hot Dipped Galvanized Steel (Hot rolled/Cold rolled) Coil</t>
+  </si>
+  <si>
+    <t>VT-189</t>
+  </si>
+  <si>
+    <t>Four Hundred Seventy Thousand Five Hundred Euros Only</t>
+  </si>
+  <si>
+    <t>Heat Insulation Tube Building Material Pipe Glasswool</t>
+  </si>
+  <si>
+    <t>Ideabond Building Material Pre-Painted Aluminium Strip</t>
+  </si>
+  <si>
+    <t>VT-172</t>
+  </si>
+  <si>
+    <t>Fifty Eight Thousand One Hundred Eighty Four Euros Only</t>
+  </si>
+  <si>
+    <t>12mm Building Material Artificial Stone Acrylic Solid Surface Corian</t>
+  </si>
+  <si>
+    <t>VT-182</t>
+  </si>
+  <si>
+    <t>TURK HENKEL KIMYA SAN. VE TIC. A.S.</t>
+  </si>
+  <si>
+    <t>One Hundred Seventy Seven Thousand Nine Hundred Six 42.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>EcoÂ BuildingÂ MaterialÂ 10-25mm Aluminum Honeycomb Panel</t>
+  </si>
+  <si>
+    <t>VT-120</t>
+  </si>
+  <si>
+    <t>Sixteen Thousand One Hundred Three 61.0/100 U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>VT-124</t>
+  </si>
+  <si>
+    <t>ELITE CAPTAL ONE INVESTMENT LLC</t>
+  </si>
+  <si>
+    <t>California, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States</t>
+  </si>
+  <si>
+    <t>Fifty Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>VT-129</t>
+  </si>
+  <si>
+    <t>Two Hundred Ten Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Aluminium Tilt &amp; Turn Window</t>
+  </si>
+  <si>
+    <t>VT-174</t>
+  </si>
+  <si>
+    <t>EUROFLUID HYDRAULIK GMBH</t>
+  </si>
+  <si>
+    <t>Asparn, Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austria</t>
+  </si>
+  <si>
+    <t>Eighty Eight Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>VT-178</t>
+  </si>
+  <si>
+    <t>One Hundred Sixteen Thousand Three Hundred Fifty Euros Only</t>
+  </si>
+  <si>
+    <t>VT-180</t>
+  </si>
+  <si>
+    <t>One Hundred Sixty Six Thousand Fifty Six 60.0/100 Euros Only</t>
+  </si>
+  <si>
+    <t>Pre Painted Galvanized Corrugated Steel Sheet</t>
+  </si>
+  <si>
+    <t>Building Glass Aluminium Curtain Wall Material</t>
+  </si>
+  <si>
+    <t>VT-181</t>
+  </si>
+  <si>
+    <t>One Hundred Sixty Six Thousand Nine Hundred Fifty Euros Only</t>
+  </si>
+  <si>
+    <t>Sgch Colors Coated Steel RoofingÂ Material</t>
+  </si>
+  <si>
+    <t>VT-192</t>
+  </si>
+  <si>
+    <t>Nine Hundred Sixteen Thousand One Hundred Fifty Euros Only</t>
+  </si>
+  <si>
+    <t>T Lintel  Hot Dipped Galvanize  Z500G/M2</t>
+  </si>
+  <si>
+    <t>VT-117</t>
+  </si>
+  <si>
+    <t>Six Thousand Eight Hundred Forty Five 99.0/100 U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Hot Prime Galvanized Steel Roofing Sheet</t>
+  </si>
+  <si>
+    <t>VT-119</t>
+  </si>
+  <si>
+    <t>Thirteen Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>New Paneling Veins Series Artificial Quartz Slab Stone</t>
+  </si>
+  <si>
+    <t>VT-153</t>
+  </si>
+  <si>
+    <t>Twenty Five Thousand One Hundred Euros Only</t>
+  </si>
+  <si>
+    <t>Powder Coating Aluminium Alloy Extrusion Profile</t>
+  </si>
+  <si>
+    <t>VT-107</t>
+  </si>
+  <si>
+    <t>THABA MANZI WILDLIFE SERVICES</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Thirteen Thousand Three Hundred U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>SGS Prefab Building Material Steel Construction</t>
+  </si>
+  <si>
+    <t>VT-108</t>
+  </si>
+  <si>
+    <t>Sixty One Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>PVC Coating Galvanized Stainless Steel Welded Wire Mesh</t>
+  </si>
+  <si>
+    <t>VT-109</t>
+  </si>
+  <si>
+    <t>One Hundred Forty Thousand Five Hundred U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Cost Price Color Coated Aluminum Coil</t>
+  </si>
+  <si>
+    <t>VT-113-CL</t>
+  </si>
+  <si>
+    <t>TKPH PTY LTD TRADING AS OTR TYRES</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>One Million Forty Six Thousand Five Hundred U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Weld Steel H Beam</t>
+  </si>
+  <si>
+    <t>Powder Coating Aluminium Extrusion Profiles Sliding Window</t>
+  </si>
+  <si>
+    <t>VT-112-CL</t>
+  </si>
+  <si>
+    <t>FILTRATION SOLUTION PTE LTD</t>
+  </si>
+  <si>
+    <t>Eight Hundred Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>12mm Building Material Big Slab Marble Like Veining Pattern Acrylic Artificial Stone Solid Surface</t>
+  </si>
+  <si>
+    <t>150kg/M3 Insulation Board Rockwool with 80% Basalt</t>
+  </si>
+  <si>
+    <t>VT-224-CL</t>
+  </si>
+  <si>
+    <t>MWFG TRADING LTD</t>
+  </si>
+  <si>
+    <t>Vancouver, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada</t>
+  </si>
+  <si>
+    <t>One Million Two Hundred Fifty Eight Thousand Four Hundred Seventy Two canadian Dollars Only</t>
+  </si>
+  <si>
+    <t>House Gate Interior Wooden Doors</t>
+  </si>
+  <si>
+    <t>Industrial PVC High Speed Shutter Door/Fast Shutter Door/High Speed PVC Roll up/Fold up Door</t>
+  </si>
+  <si>
+    <t>VT-164</t>
+  </si>
+  <si>
+    <t>GOLDEN CORAL LLC</t>
+  </si>
+  <si>
+    <t>Sharjah, United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Jaya Negara, Brunei </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brunei </t>
+  </si>
+  <si>
+    <t>Sixty Three Thousand Euros Only</t>
+  </si>
+  <si>
+    <t>Senyu WPC Building Material Fencing</t>
+  </si>
+  <si>
+    <t>17.GOLD</t>
+  </si>
+  <si>
+    <t>VT-116</t>
+  </si>
+  <si>
+    <t>Eight Hundred Sixty Thousand U.S.Dollars Only</t>
+  </si>
+  <si>
+    <t>Wrinkle PPGI</t>
+  </si>
+  <si>
+    <t>Composite Reinforcement Floor Decking Sheet</t>
   </si>
 </sst>
 </file>
@@ -521,7 +1365,7 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -678,6 +1522,20 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,19 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5556,12 +6401,4300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1">
+        <v>420646.24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1">
+        <v>895.52</v>
+      </c>
+      <c r="S1">
+        <v>54626.720000000001</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1">
+        <v>61003.25</v>
+      </c>
+      <c r="X1">
+        <v>366019.52</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="54">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>80000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>800</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <v>80000</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>113494.44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3">
+        <v>2026</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>56.02</v>
+      </c>
+      <c r="S3">
+        <v>113494.44</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>100000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>1000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>100000</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP4" s="54">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>41601.599999999999</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5">
+        <v>2080.08</v>
+      </c>
+      <c r="S5">
+        <v>41601.599999999999</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP5" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>70000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6">
+        <v>1272</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6">
+        <v>55.03</v>
+      </c>
+      <c r="S6">
+        <v>70000</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP6" s="54">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>107317.45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7">
+        <v>178</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7">
+        <v>602.91</v>
+      </c>
+      <c r="S7">
+        <v>107317.45</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP7" s="54">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>710000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8">
+        <v>4333</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8">
+        <v>101.12</v>
+      </c>
+      <c r="S8">
+        <v>438152.96000000002</v>
+      </c>
+      <c r="T8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8">
+        <v>2718</v>
+      </c>
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8">
+        <v>100.02</v>
+      </c>
+      <c r="X8">
+        <v>271847.03999999998</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP8" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>15000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9">
+        <v>454.55</v>
+      </c>
+      <c r="S9">
+        <v>15000</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP9" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>35532</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10">
+        <v>78</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10">
+        <v>455.54</v>
+      </c>
+      <c r="S10">
+        <v>35532</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP10" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>38970</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11">
+        <v>2435.62</v>
+      </c>
+      <c r="S11">
+        <v>38970</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP11" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>45980</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12">
+        <v>15326.67</v>
+      </c>
+      <c r="S12">
+        <v>45980</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP12" s="54">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>20367.599999999999</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13">
+        <v>581</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <v>35.06</v>
+      </c>
+      <c r="S13">
+        <v>20367.599999999999</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP13" s="54">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>7513.3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14">
+        <v>939.16</v>
+      </c>
+      <c r="S14">
+        <v>7513.3</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP14" s="54">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15">
+        <v>4950</v>
+      </c>
+      <c r="N15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15">
+        <v>374</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15">
+        <v>13.24</v>
+      </c>
+      <c r="S15">
+        <v>4950</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP15" s="54">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>12100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16">
+        <v>121</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16">
+        <v>100</v>
+      </c>
+      <c r="S16">
+        <v>12100</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP16" s="54">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>49855</v>
+      </c>
+      <c r="N17" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17">
+        <v>623</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17">
+        <v>80.02</v>
+      </c>
+      <c r="S17">
+        <v>49855</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP17" s="54">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>60717</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18">
+        <v>67</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18">
+        <v>906.22</v>
+      </c>
+      <c r="S18">
+        <v>60717</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP18" s="54">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>134707</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19">
+        <v>2245</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19">
+        <v>60</v>
+      </c>
+      <c r="S19">
+        <v>134707</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP19" s="54">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>200000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20">
+        <v>333</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20">
+        <v>600.6</v>
+      </c>
+      <c r="S20">
+        <v>200000</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP20" s="54">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>499332.6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21">
+        <v>11235.96</v>
+      </c>
+      <c r="S21">
+        <v>44943.839999999997</v>
+      </c>
+      <c r="T21" t="s">
+        <v>140</v>
+      </c>
+      <c r="U21">
+        <v>757</v>
+      </c>
+      <c r="V21" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21">
+        <v>600.25</v>
+      </c>
+      <c r="X21">
+        <v>454388.76</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP21" s="54">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>500000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22">
+        <v>202</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22">
+        <v>1348.31</v>
+      </c>
+      <c r="S22">
+        <v>272358.62</v>
+      </c>
+      <c r="T22" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22">
+        <v>3252</v>
+      </c>
+      <c r="V22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22">
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <v>227641.38</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP22" s="54">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>107010</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23">
+        <v>2432.0500000000002</v>
+      </c>
+      <c r="S23">
+        <v>107010</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP23" s="54">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>100010</v>
+      </c>
+      <c r="N24" t="s">
+        <v>154</v>
+      </c>
+      <c r="O24" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24">
+        <v>83</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24">
+        <v>1204.94</v>
+      </c>
+      <c r="S24">
+        <v>100010</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP24" s="54">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>432020</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25">
+        <v>730.34</v>
+      </c>
+      <c r="S25">
+        <v>730.34</v>
+      </c>
+      <c r="T25" t="s">
+        <v>161</v>
+      </c>
+      <c r="U25">
+        <v>7188</v>
+      </c>
+      <c r="V25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25">
+        <v>60</v>
+      </c>
+      <c r="X25">
+        <v>431289.66</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP25" s="54">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26">
+        <v>75504.08</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26">
+        <v>3973.9</v>
+      </c>
+      <c r="S26">
+        <v>75504.08</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP26" s="54">
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>100000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>171</v>
+      </c>
+      <c r="O27" t="s">
+        <v>172</v>
+      </c>
+      <c r="P27">
+        <v>4000</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <v>100000</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP27" s="54">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28">
+        <v>180000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" t="s">
+        <v>179</v>
+      </c>
+      <c r="P28">
+        <v>480</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28">
+        <v>150</v>
+      </c>
+      <c r="S28">
+        <v>72000</v>
+      </c>
+      <c r="T28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U28">
+        <v>216</v>
+      </c>
+      <c r="V28" t="s">
+        <v>79</v>
+      </c>
+      <c r="W28">
+        <v>500</v>
+      </c>
+      <c r="X28">
+        <v>108000</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP28" s="54">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <v>10000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29">
+        <v>13</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29">
+        <v>769.23</v>
+      </c>
+      <c r="S29">
+        <v>10000</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP29" s="54">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>117503</v>
+      </c>
+      <c r="N30" t="s">
+        <v>185</v>
+      </c>
+      <c r="O30" t="s">
+        <v>160</v>
+      </c>
+      <c r="P30">
+        <v>180</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30">
+        <v>652.79</v>
+      </c>
+      <c r="S30">
+        <v>117503</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP30" s="54">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>300000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31">
+        <v>8000</v>
+      </c>
+      <c r="S31">
+        <v>24000</v>
+      </c>
+      <c r="T31" t="s">
+        <v>189</v>
+      </c>
+      <c r="U31">
+        <v>5520</v>
+      </c>
+      <c r="V31" t="s">
+        <v>49</v>
+      </c>
+      <c r="W31">
+        <v>50</v>
+      </c>
+      <c r="X31">
+        <v>276000</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP31" s="54">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>300000</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32">
+        <v>2045</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>117</v>
+      </c>
+      <c r="R32">
+        <v>100</v>
+      </c>
+      <c r="S32">
+        <v>204500</v>
+      </c>
+      <c r="T32" t="s">
+        <v>82</v>
+      </c>
+      <c r="U32">
+        <v>1061</v>
+      </c>
+      <c r="V32" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32">
+        <v>90.01</v>
+      </c>
+      <c r="X32">
+        <v>95500</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP32" s="54">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>195</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>139932</v>
+      </c>
+      <c r="N33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" t="s">
+        <v>197</v>
+      </c>
+      <c r="P33">
+        <v>205</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>79</v>
+      </c>
+      <c r="R33">
+        <v>682.6</v>
+      </c>
+      <c r="S33">
+        <v>139932</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP33" s="54">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34">
+        <v>18640</v>
+      </c>
+      <c r="N34" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34">
+        <v>266</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34">
+        <v>70.08</v>
+      </c>
+      <c r="S34">
+        <v>18640</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP34" s="54">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>270536</v>
+      </c>
+      <c r="N35" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>79</v>
+      </c>
+      <c r="R35">
+        <v>786.52</v>
+      </c>
+      <c r="S35">
+        <v>22809.08</v>
+      </c>
+      <c r="T35" t="s">
+        <v>206</v>
+      </c>
+      <c r="U35">
+        <v>3096</v>
+      </c>
+      <c r="V35" t="s">
+        <v>49</v>
+      </c>
+      <c r="W35">
+        <v>80.02</v>
+      </c>
+      <c r="X35">
+        <v>247726.92</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP35" s="54">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>29588</v>
+      </c>
+      <c r="N36" t="s">
+        <v>208</v>
+      </c>
+      <c r="O36" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36">
+        <v>295</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36">
+        <v>100.3</v>
+      </c>
+      <c r="S36">
+        <v>29588</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP36" s="54">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>96000</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37">
+        <v>128</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <v>750</v>
+      </c>
+      <c r="S37">
+        <v>96000</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP37" s="54">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
+      <c r="A38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>179279</v>
+      </c>
+      <c r="N38" t="s">
+        <v>213</v>
+      </c>
+      <c r="O38" t="s">
+        <v>214</v>
+      </c>
+      <c r="P38">
+        <v>2636</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>49</v>
+      </c>
+      <c r="R38">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="S38">
+        <v>179279</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP38" s="54">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>182016.6</v>
+      </c>
+      <c r="N39" t="s">
+        <v>216</v>
+      </c>
+      <c r="O39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P39">
+        <v>2022</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>49</v>
+      </c>
+      <c r="R39">
+        <v>90.02</v>
+      </c>
+      <c r="S39">
+        <v>182016.6</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP39" s="54">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>302611.44</v>
+      </c>
+      <c r="N40" t="s">
+        <v>219</v>
+      </c>
+      <c r="O40" t="s">
+        <v>220</v>
+      </c>
+      <c r="P40">
+        <v>300</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R40">
+        <v>505.62</v>
+      </c>
+      <c r="S40">
+        <v>151686</v>
+      </c>
+      <c r="T40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U40">
+        <v>125</v>
+      </c>
+      <c r="V40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40">
+        <v>1207.4000000000001</v>
+      </c>
+      <c r="X40">
+        <v>150925.44</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP40" s="54">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="A41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41">
+        <v>470500</v>
+      </c>
+      <c r="N41" t="s">
+        <v>222</v>
+      </c>
+      <c r="O41" t="s">
+        <v>223</v>
+      </c>
+      <c r="P41">
+        <v>688</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41">
+        <v>337.08</v>
+      </c>
+      <c r="S41">
+        <v>231911.04000000001</v>
+      </c>
+      <c r="T41" t="s">
+        <v>224</v>
+      </c>
+      <c r="U41">
+        <v>55</v>
+      </c>
+      <c r="V41" t="s">
+        <v>79</v>
+      </c>
+      <c r="W41">
+        <v>4337.9799999999996</v>
+      </c>
+      <c r="X41">
+        <v>238588.96</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP41" s="54">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" t="s">
+        <v>165</v>
+      </c>
+      <c r="K42" t="s">
+        <v>164</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>58184</v>
+      </c>
+      <c r="N42" t="s">
+        <v>226</v>
+      </c>
+      <c r="O42" t="s">
+        <v>227</v>
+      </c>
+      <c r="P42">
+        <v>484</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42">
+        <v>120.21</v>
+      </c>
+      <c r="S42">
+        <v>58184</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP42" s="54">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42">
+      <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>177906.42</v>
+      </c>
+      <c r="N43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O43" t="s">
+        <v>231</v>
+      </c>
+      <c r="P43">
+        <v>3535</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43">
+        <v>50.33</v>
+      </c>
+      <c r="S43">
+        <v>177906.42</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP43" s="54">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>16103.61</v>
+      </c>
+      <c r="N44" t="s">
+        <v>233</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44">
+        <v>161</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>117</v>
+      </c>
+      <c r="R44">
+        <v>100.02</v>
+      </c>
+      <c r="S44">
+        <v>16103.61</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP44" s="54">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" t="s">
+        <v>237</v>
+      </c>
+      <c r="K45" t="s">
+        <v>236</v>
+      </c>
+      <c r="L45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45">
+        <v>50000</v>
+      </c>
+      <c r="N45" t="s">
+        <v>238</v>
+      </c>
+      <c r="O45" t="s">
+        <v>179</v>
+      </c>
+      <c r="P45">
+        <v>333</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45">
+        <v>150.15</v>
+      </c>
+      <c r="S45">
+        <v>50000</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP45" s="54">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42">
+      <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46">
+        <v>210000</v>
+      </c>
+      <c r="N46" t="s">
+        <v>240</v>
+      </c>
+      <c r="O46" t="s">
+        <v>241</v>
+      </c>
+      <c r="P46">
+        <v>2100</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46">
+        <v>100</v>
+      </c>
+      <c r="S46">
+        <v>210000</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP46" s="54">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42">
+      <c r="A47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" t="s">
+        <v>245</v>
+      </c>
+      <c r="K47" t="s">
+        <v>244</v>
+      </c>
+      <c r="L47" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>88000</v>
+      </c>
+      <c r="N47" t="s">
+        <v>246</v>
+      </c>
+      <c r="O47" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47">
+        <v>176</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>79</v>
+      </c>
+      <c r="R47">
+        <v>500</v>
+      </c>
+      <c r="S47">
+        <v>88000</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP47" s="54">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48">
+        <v>116350</v>
+      </c>
+      <c r="N48" t="s">
+        <v>248</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48">
+        <v>258</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>79</v>
+      </c>
+      <c r="R48">
+        <v>450.97</v>
+      </c>
+      <c r="S48">
+        <v>116350</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP48" s="54">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>166056.6</v>
+      </c>
+      <c r="N49" t="s">
+        <v>250</v>
+      </c>
+      <c r="O49" t="s">
+        <v>251</v>
+      </c>
+      <c r="P49">
+        <v>88</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>79</v>
+      </c>
+      <c r="R49">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="S49">
+        <v>98876.800000000003</v>
+      </c>
+      <c r="T49" t="s">
+        <v>252</v>
+      </c>
+      <c r="U49">
+        <v>23</v>
+      </c>
+      <c r="V49" t="s">
+        <v>79</v>
+      </c>
+      <c r="W49">
+        <v>2920.86</v>
+      </c>
+      <c r="X49">
+        <v>67179.8</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP49" s="54">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
+      <c r="A50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50">
+        <v>166950</v>
+      </c>
+      <c r="N50" t="s">
+        <v>254</v>
+      </c>
+      <c r="O50" t="s">
+        <v>160</v>
+      </c>
+      <c r="P50">
+        <v>107</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50">
+        <v>730.34</v>
+      </c>
+      <c r="S50">
+        <v>78146.38</v>
+      </c>
+      <c r="T50" t="s">
+        <v>255</v>
+      </c>
+      <c r="U50">
+        <v>118</v>
+      </c>
+      <c r="V50" t="s">
+        <v>79</v>
+      </c>
+      <c r="W50">
+        <v>752.57</v>
+      </c>
+      <c r="X50">
+        <v>88803.62</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP50" s="54">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
+      <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51">
+        <v>916150</v>
+      </c>
+      <c r="N51" t="s">
+        <v>257</v>
+      </c>
+      <c r="O51" t="s">
+        <v>258</v>
+      </c>
+      <c r="P51">
+        <v>402</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>79</v>
+      </c>
+      <c r="R51">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="S51">
+        <v>451687.2</v>
+      </c>
+      <c r="T51" t="s">
+        <v>140</v>
+      </c>
+      <c r="U51">
+        <v>774</v>
+      </c>
+      <c r="V51" t="s">
+        <v>79</v>
+      </c>
+      <c r="W51">
+        <v>600.08000000000004</v>
+      </c>
+      <c r="X51">
+        <v>464462.8</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP51" s="54">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
+      <c r="A52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52">
+        <v>6845.99</v>
+      </c>
+      <c r="N52" t="s">
+        <v>260</v>
+      </c>
+      <c r="O52" t="s">
+        <v>261</v>
+      </c>
+      <c r="P52">
+        <v>9</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>79</v>
+      </c>
+      <c r="R52">
+        <v>760.67</v>
+      </c>
+      <c r="S52">
+        <v>6845.99</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP52" s="54">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53">
+        <v>13000</v>
+      </c>
+      <c r="N53" t="s">
+        <v>263</v>
+      </c>
+      <c r="O53" t="s">
+        <v>264</v>
+      </c>
+      <c r="P53">
+        <v>276</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53">
+        <v>47.1</v>
+      </c>
+      <c r="S53">
+        <v>13000</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP53" s="54">
+        <v>43499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42">
+      <c r="A54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" t="s">
+        <v>70</v>
+      </c>
+      <c r="L54" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54">
+        <v>25100</v>
+      </c>
+      <c r="N54" t="s">
+        <v>266</v>
+      </c>
+      <c r="O54" t="s">
+        <v>267</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>79</v>
+      </c>
+      <c r="R54">
+        <v>3137.5</v>
+      </c>
+      <c r="S54">
+        <v>25100</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP54" s="54">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
+        <v>270</v>
+      </c>
+      <c r="K55" t="s">
+        <v>270</v>
+      </c>
+      <c r="L55" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55">
+        <v>13300</v>
+      </c>
+      <c r="N55" t="s">
+        <v>271</v>
+      </c>
+      <c r="O55" t="s">
+        <v>272</v>
+      </c>
+      <c r="P55">
+        <v>241</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55">
+        <v>55.19</v>
+      </c>
+      <c r="S55">
+        <v>13300</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP55" s="54">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" t="s">
+        <v>70</v>
+      </c>
+      <c r="L56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56">
+        <v>61000</v>
+      </c>
+      <c r="N56" t="s">
+        <v>274</v>
+      </c>
+      <c r="O56" t="s">
+        <v>275</v>
+      </c>
+      <c r="P56">
+        <v>2103</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56">
+        <v>29.01</v>
+      </c>
+      <c r="S56">
+        <v>61000</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP56" s="54">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42">
+      <c r="A57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57">
+        <v>140500</v>
+      </c>
+      <c r="N57" t="s">
+        <v>277</v>
+      </c>
+      <c r="O57" t="s">
+        <v>278</v>
+      </c>
+      <c r="P57">
+        <v>40</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>79</v>
+      </c>
+      <c r="R57">
+        <v>3512.5</v>
+      </c>
+      <c r="S57">
+        <v>140500</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP57" s="54">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42">
+      <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" t="s">
+        <v>281</v>
+      </c>
+      <c r="K58" t="s">
+        <v>281</v>
+      </c>
+      <c r="L58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>1046500</v>
+      </c>
+      <c r="N58" t="s">
+        <v>282</v>
+      </c>
+      <c r="O58" t="s">
+        <v>283</v>
+      </c>
+      <c r="P58">
+        <v>553</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>79</v>
+      </c>
+      <c r="R58">
+        <v>850</v>
+      </c>
+      <c r="S58">
+        <v>470050</v>
+      </c>
+      <c r="T58" t="s">
+        <v>284</v>
+      </c>
+      <c r="U58">
+        <v>192</v>
+      </c>
+      <c r="V58" t="s">
+        <v>79</v>
+      </c>
+      <c r="W58">
+        <v>3002.34</v>
+      </c>
+      <c r="X58">
+        <v>576450</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP58" s="54">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42">
+      <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" t="s">
+        <v>147</v>
+      </c>
+      <c r="L59" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59">
+        <v>800000</v>
+      </c>
+      <c r="N59" t="s">
+        <v>287</v>
+      </c>
+      <c r="O59" t="s">
+        <v>41</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59">
+        <v>60000</v>
+      </c>
+      <c r="S59">
+        <v>240000</v>
+      </c>
+      <c r="T59" t="s">
+        <v>288</v>
+      </c>
+      <c r="U59">
+        <v>350</v>
+      </c>
+      <c r="V59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W59">
+        <v>129</v>
+      </c>
+      <c r="X59">
+        <v>45150</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z59">
+        <v>556</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB59">
+        <v>925.99</v>
+      </c>
+      <c r="AC59">
+        <v>514850</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP59" s="54">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42">
+      <c r="A60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" t="s">
+        <v>293</v>
+      </c>
+      <c r="K60" t="s">
+        <v>292</v>
+      </c>
+      <c r="L60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60">
+        <v>1258472</v>
+      </c>
+      <c r="N60" t="s">
+        <v>294</v>
+      </c>
+      <c r="O60" t="s">
+        <v>295</v>
+      </c>
+      <c r="P60">
+        <v>464</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60">
+        <v>149.25</v>
+      </c>
+      <c r="S60">
+        <v>69252</v>
+      </c>
+      <c r="T60" t="s">
+        <v>296</v>
+      </c>
+      <c r="U60">
+        <v>767</v>
+      </c>
+      <c r="V60" t="s">
+        <v>65</v>
+      </c>
+      <c r="W60">
+        <v>1550.48</v>
+      </c>
+      <c r="X60">
+        <v>1189220</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP60" s="54">
+        <v>43368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42">
+      <c r="A61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" t="s">
+        <v>301</v>
+      </c>
+      <c r="L61" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61">
+        <v>63000</v>
+      </c>
+      <c r="N61" t="s">
+        <v>303</v>
+      </c>
+      <c r="O61" t="s">
+        <v>304</v>
+      </c>
+      <c r="P61">
+        <v>66</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>79</v>
+      </c>
+      <c r="R61">
+        <v>954.55</v>
+      </c>
+      <c r="S61">
+        <v>63000</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP61" s="54">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42">
+      <c r="A62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" t="s">
+        <v>302</v>
+      </c>
+      <c r="K62" t="s">
+        <v>301</v>
+      </c>
+      <c r="L62" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62">
+        <v>860000</v>
+      </c>
+      <c r="N62" t="s">
+        <v>307</v>
+      </c>
+      <c r="O62" t="s">
+        <v>308</v>
+      </c>
+      <c r="P62">
+        <v>212</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>79</v>
+      </c>
+      <c r="R62">
+        <v>750</v>
+      </c>
+      <c r="S62">
+        <v>159000</v>
+      </c>
+      <c r="T62" t="s">
+        <v>144</v>
+      </c>
+      <c r="U62">
+        <v>935</v>
+      </c>
+      <c r="V62" t="s">
+        <v>49</v>
+      </c>
+      <c r="W62">
+        <v>70</v>
+      </c>
+      <c r="X62">
+        <v>65450</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z62">
+        <v>794</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB62">
+        <v>800.44</v>
+      </c>
+      <c r="AC62">
+        <v>635550</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP62" s="54">
+        <v>43358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -5588,17 +10721,17 @@
       <c r="E3" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="34.5">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="8" spans="1:14">
       <c r="F8" s="5"/>
@@ -5745,12 +10878,12 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="17" t="s">
         <v>3</v>
       </c>
@@ -5996,7 +11129,7 @@
       <c r="H32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6006,7 +11139,7 @@
       <c r="H33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="52" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6016,7 +11149,7 @@
       <c r="H34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6046,7 +11179,7 @@
       <c r="H36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="51" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="1"/>

--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking Sheet output" sheetId="7" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="322">
   <si>
     <t>Date:</t>
   </si>
@@ -1005,6 +1005,42 @@
   </si>
   <si>
     <t>Composite Reinforcement Floor Decking Sheet</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>expcity</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>impcity</t>
+  </si>
+  <si>
+    <t>repexp</t>
+  </si>
+  <si>
+    <t>repexpCity</t>
+  </si>
+  <si>
+    <t>pname1</t>
+  </si>
+  <si>
+    <t>qty1</t>
+  </si>
+  <si>
+    <t>unit1</t>
+  </si>
+  <si>
+    <t>unitp1</t>
+  </si>
+  <si>
+    <t>amount1</t>
+  </si>
+  <si>
+    <t>datee</t>
   </si>
 </sst>
 </file>
@@ -6403,7 +6439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -10694,8 +10730,8 @@
   </sheetPr>
   <dimension ref="A3:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10764,9 +10800,8 @@
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="50" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,42,0)</f>
-        <v>#N/A</v>
+      <c r="I12" s="50" t="s">
+        <v>321</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="2"/>
@@ -10774,9 +10809,8 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="40" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,4,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B13" s="40" t="s">
+        <v>310</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -10795,9 +10829,8 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="21">
-      <c r="B14" s="41" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B14" s="41" t="s">
+        <v>311</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -10830,36 +10863,32 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="44" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,2,0)</f>
-        <v>#N/A</v>
+      <c r="B16" s="44" t="s">
+        <v>314</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="44" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,6,0)</f>
-        <v>#N/A</v>
+      <c r="H16" s="44" t="s">
+        <v>312</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="B17" s="42" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,3,0)</f>
-        <v>#N/A</v>
+      <c r="B17" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="42" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,7,0)</f>
-        <v>#N/A</v>
+      <c r="H17" s="42" t="s">
+        <v>313</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
@@ -10903,35 +10932,29 @@
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="55" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,15,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B20" s="55" t="s">
+        <v>316</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
-      <c r="F20" s="35" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,16,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="35" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,17,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="36" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,18,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="37" t="e">
-        <f>H20*F20</f>
-        <v>#N/A</v>
+      <c r="F20" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="55" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,20,0),  0 )</f>
-        <v>#N/A</v>
+      <c r="B21" s="55" t="s">
+        <v>316</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>

--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -15,9 +15,6 @@
     <sheet name="Tracking Sheet output" sheetId="7" r:id="rId1"/>
     <sheet name="PO" sheetId="6" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
@@ -75,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="346">
   <si>
     <t>Date:</t>
   </si>
@@ -1022,9 +1019,6 @@
     <t>repexp</t>
   </si>
   <si>
-    <t>repexpCity</t>
-  </si>
-  <si>
     <t>pname1</t>
   </si>
   <si>
@@ -1041,6 +1035,81 @@
   </si>
   <si>
     <t>datee</t>
+  </si>
+  <si>
+    <t>pname2</t>
+  </si>
+  <si>
+    <t>qty2</t>
+  </si>
+  <si>
+    <t>unit2</t>
+  </si>
+  <si>
+    <t>unitp2</t>
+  </si>
+  <si>
+    <t>amount2</t>
+  </si>
+  <si>
+    <t>pname3</t>
+  </si>
+  <si>
+    <t>qty3</t>
+  </si>
+  <si>
+    <t>unit3</t>
+  </si>
+  <si>
+    <t>amount3</t>
+  </si>
+  <si>
+    <t>pname4</t>
+  </si>
+  <si>
+    <t>qty4</t>
+  </si>
+  <si>
+    <t>unit4</t>
+  </si>
+  <si>
+    <t>unitp3</t>
+  </si>
+  <si>
+    <t>unitp4</t>
+  </si>
+  <si>
+    <t>amount4</t>
+  </si>
+  <si>
+    <t>pname5</t>
+  </si>
+  <si>
+    <t>qty5</t>
+  </si>
+  <si>
+    <t>unit5</t>
+  </si>
+  <si>
+    <t>unitp5</t>
+  </si>
+  <si>
+    <t>amount5</t>
+  </si>
+  <si>
+    <t>amtoword</t>
+  </si>
+  <si>
+    <t>origin1</t>
+  </si>
+  <si>
+    <t>loading1</t>
+  </si>
+  <si>
+    <t>discharge1</t>
+  </si>
+  <si>
+    <t>repexpcity</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1470,7 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1510,18 +1579,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1583,6 +1642,23 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1723,4421 +1799,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tracking Sheet output"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REF</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>repExporter</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>cityOfRepExporter</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>exporter</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>cityOfExporter</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>importer</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>cityOfImporter</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>repImporter</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>cityOfrepImporter</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Origin</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>laoding</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Discharge</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>totalAmount</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>amountToWord</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>p1name</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>p1qty</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>p1unit</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>p1unitp</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>p1total</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>p2name</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>p2qty</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>p2unit</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>p2unitp</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>p2total</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>p3name</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>p3qty</v>
-          </cell>
-          <cell r="AA1" t="str">
-            <v>p3unit</v>
-          </cell>
-          <cell r="AB1" t="str">
-            <v>p3unitp</v>
-          </cell>
-          <cell r="AC1" t="str">
-            <v>p3total</v>
-          </cell>
-          <cell r="AD1" t="str">
-            <v>p4name</v>
-          </cell>
-          <cell r="AE1" t="str">
-            <v>p4qty</v>
-          </cell>
-          <cell r="AF1" t="str">
-            <v>p4unit</v>
-          </cell>
-          <cell r="AG1" t="str">
-            <v>p4unitp</v>
-          </cell>
-          <cell r="AH1" t="str">
-            <v>p4total</v>
-          </cell>
-          <cell r="AI1" t="str">
-            <v>p5name</v>
-          </cell>
-          <cell r="AJ1" t="str">
-            <v>p5qty</v>
-          </cell>
-          <cell r="AK1" t="str">
-            <v>p5unit</v>
-          </cell>
-          <cell r="AL1" t="str">
-            <v>p5unitp</v>
-          </cell>
-          <cell r="AM1" t="str">
-            <v>p5total</v>
-          </cell>
-          <cell r="AN1" t="str">
-            <v>numOfClient</v>
-          </cell>
-          <cell r="AO1" t="str">
-            <v>currency</v>
-          </cell>
-          <cell r="AP1" t="str">
-            <v>date</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VT-240</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>WATRIN TRADING DWC LLC</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>GRAVINA TUFI</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Puglia, Italy</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v xml:space="preserve"> Italy</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>Puglia, Italy</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M2">
-            <v>420646.24</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>Four Hundred Twenty Thousand Six Hundred Forty Six 24.0/100 canadian Dollars Only</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</v>
-          </cell>
-          <cell r="P2">
-            <v>61</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R2">
-            <v>895.52</v>
-          </cell>
-          <cell r="S2">
-            <v>54626.720000000001</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>Construction Building Passenger Hoist</v>
-          </cell>
-          <cell r="U2">
-            <v>6</v>
-          </cell>
-          <cell r="V2" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W2">
-            <v>61003.25</v>
-          </cell>
-          <cell r="X2">
-            <v>366019.52</v>
-          </cell>
-          <cell r="AO2" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="AP2">
-            <v>43433</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VT-159</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>ACAR KIMYA ANONIM SIRKETI</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M3">
-            <v>80000</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>Eighty Thousand Euros Only</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>Aluminum Awing Windows with Timber Reveal Install</v>
-          </cell>
-          <cell r="P3">
-            <v>800</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R3">
-            <v>100</v>
-          </cell>
-          <cell r="S3">
-            <v>80000</v>
-          </cell>
-          <cell r="AO3" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP3">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VT-162</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>AKKIM YAPI KIMYASALLARI SAN VE TIC AS</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M4">
-            <v>113494.44</v>
-          </cell>
-          <cell r="N4" t="str">
-            <v>One Hundred Thirteen Thousand Four Hundred Ninety Four 44.0/100 Euros Only</v>
-          </cell>
-          <cell r="O4" t="str">
-            <v>Solid Surface / Building Material Artificial Quartz Stone with SGS</v>
-          </cell>
-          <cell r="P4">
-            <v>2026</v>
-          </cell>
-          <cell r="Q4" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R4">
-            <v>56.02</v>
-          </cell>
-          <cell r="S4">
-            <v>113494.44</v>
-          </cell>
-          <cell r="AO4" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP4">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VT-160</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>FI JOINT VENTURE PTY LTD</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Leederville, Australia</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v xml:space="preserve"> Australia</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>Leederville, Australia</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M5">
-            <v>100000</v>
-          </cell>
-          <cell r="N5" t="str">
-            <v>One Hundred Thousand Euros Only</v>
-          </cell>
-          <cell r="O5" t="str">
-            <v>Modern Aluminum Sliding Door and Windows</v>
-          </cell>
-          <cell r="P5">
-            <v>1000</v>
-          </cell>
-          <cell r="Q5" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R5">
-            <v>100</v>
-          </cell>
-          <cell r="S5">
-            <v>100000</v>
-          </cell>
-          <cell r="AO5" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP5">
-            <v>43430</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VT-156</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>FRT METAL VE SANAYI DIS TICAR</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M6">
-            <v>41601.599999999999</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>Forty One Thousand Six Hundred One 60.0/100 Euros Only</v>
-          </cell>
-          <cell r="O6" t="str">
-            <v>Reliable Quality Motoer Lift 2 Ton Building Construction Materials Hoist Passenger Home Hydraulic Sightseeing Elevator</v>
-          </cell>
-          <cell r="P6">
-            <v>20</v>
-          </cell>
-          <cell r="Q6" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="R6">
-            <v>2080.08</v>
-          </cell>
-          <cell r="S6">
-            <v>41601.599999999999</v>
-          </cell>
-          <cell r="AO6" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP6">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VT-158</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L7" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M7">
-            <v>70000</v>
-          </cell>
-          <cell r="N7" t="str">
-            <v>Seventy Thousand Euros Only</v>
-          </cell>
-          <cell r="O7" t="str">
-            <v>Q345 Large Span Steel Structure</v>
-          </cell>
-          <cell r="P7">
-            <v>1272</v>
-          </cell>
-          <cell r="Q7" t="str">
-            <v>M3</v>
-          </cell>
-          <cell r="R7">
-            <v>55.03</v>
-          </cell>
-          <cell r="S7">
-            <v>70000</v>
-          </cell>
-          <cell r="AN7" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO7" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP7">
-            <v>43414</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>VT-161</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M8">
-            <v>107317.45</v>
-          </cell>
-          <cell r="N8" t="str">
-            <v>One Hundred Seven Thousand Three Hundred Seventeen 45.0/100 Euros Only</v>
-          </cell>
-          <cell r="O8" t="str">
-            <v>0.125-3.0mm Building Material Gi Galvanized Steel Coil</v>
-          </cell>
-          <cell r="P8">
-            <v>178</v>
-          </cell>
-          <cell r="Q8" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R8">
-            <v>602.91</v>
-          </cell>
-          <cell r="S8">
-            <v>107317.45</v>
-          </cell>
-          <cell r="AN8" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO8" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP8">
-            <v>43434</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>VT-163</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M9">
-            <v>710000</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>Seven Hundred Ten Thousand Euros Only</v>
-          </cell>
-          <cell r="O9" t="str">
-            <v>Building Construction Material Steel Frabrication Structure</v>
-          </cell>
-          <cell r="P9">
-            <v>4333</v>
-          </cell>
-          <cell r="Q9" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="R9">
-            <v>101.12</v>
-          </cell>
-          <cell r="S9">
-            <v>438152.96000000002</v>
-          </cell>
-          <cell r="T9" t="str">
-            <v>Modern Aluminum Sliding Door and Windows</v>
-          </cell>
-          <cell r="U9">
-            <v>2718</v>
-          </cell>
-          <cell r="V9" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="W9">
-            <v>100.02</v>
-          </cell>
-          <cell r="X9">
-            <v>271847.03999999998</v>
-          </cell>
-          <cell r="AN9" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO9" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP9">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>VT-151</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>IGP ENGINEERS PVT LTD</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Chennai, India</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K10" t="str">
-            <v>Chennai, India</v>
-          </cell>
-          <cell r="L10" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M10">
-            <v>15000</v>
-          </cell>
-          <cell r="N10" t="str">
-            <v>Fifteen Thousand Euros Only</v>
-          </cell>
-          <cell r="O10" t="str">
-            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
-          </cell>
-          <cell r="P10">
-            <v>33</v>
-          </cell>
-          <cell r="Q10" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R10">
-            <v>454.55</v>
-          </cell>
-          <cell r="S10">
-            <v>15000</v>
-          </cell>
-          <cell r="AO10" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP10">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>VT-154</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>KALE KIMYA</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M11">
-            <v>35532</v>
-          </cell>
-          <cell r="N11" t="str">
-            <v>Thirty Five Thousand Five Hundred Thirty Two Euros Only</v>
-          </cell>
-          <cell r="O11" t="str">
-            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
-          </cell>
-          <cell r="P11">
-            <v>78</v>
-          </cell>
-          <cell r="Q11" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R11">
-            <v>455.54</v>
-          </cell>
-          <cell r="S11">
-            <v>35532</v>
-          </cell>
-          <cell r="AO11" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP11">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>VT-155</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>KEMRON KIMYA SAN VE TIC A S</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M12">
-            <v>38970</v>
-          </cell>
-          <cell r="N12" t="str">
-            <v>Thirty Eight Thousand Nine Hundred Seventy Euros Only</v>
-          </cell>
-          <cell r="O12" t="str">
-            <v>Wrought Iron Front Door</v>
-          </cell>
-          <cell r="P12">
-            <v>16</v>
-          </cell>
-          <cell r="Q12" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="R12">
-            <v>2435.62</v>
-          </cell>
-          <cell r="S12">
-            <v>38970</v>
-          </cell>
-          <cell r="AO12" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP12">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>VT-157</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>RAMZ AL HAQEEQA GENERAL TRADING</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v xml:space="preserve"> China</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M13">
-            <v>45980</v>
-          </cell>
-          <cell r="N13" t="str">
-            <v>Forty Five Thousand Nine Hundred Eighty Euros Only</v>
-          </cell>
-          <cell r="O13" t="str">
-            <v>Brick Force Wire Mesh Welding Machine</v>
-          </cell>
-          <cell r="P13">
-            <v>3</v>
-          </cell>
-          <cell r="Q13" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="R13">
-            <v>15326.67</v>
-          </cell>
-          <cell r="S13">
-            <v>45980</v>
-          </cell>
-          <cell r="AO13" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP13">
-            <v>43423</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>VT-152</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>SYMRISE AG</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>Holzminden, Germany</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v xml:space="preserve"> Germany</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>Holzminden, Germany</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M14">
-            <v>20367.599999999999</v>
-          </cell>
-          <cell r="N14" t="str">
-            <v>Twenty Thousand Three Hundred Sixty Seven 60.0/100 Euros Only</v>
-          </cell>
-          <cell r="O14" t="str">
-            <v>FacadeÂ BuildingÂ DecorativeÂ MaterialÂ ACP/Mcp/A2 Fr Aluminum Composite Panel</v>
-          </cell>
-          <cell r="P14">
-            <v>581</v>
-          </cell>
-          <cell r="Q14" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R14">
-            <v>35.06</v>
-          </cell>
-          <cell r="S14">
-            <v>20367.599999999999</v>
-          </cell>
-          <cell r="AO14" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP14">
-            <v>43424</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>VT-106</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M15">
-            <v>7513.3</v>
-          </cell>
-          <cell r="N15" t="str">
-            <v>Seven Thousand Five Hundred Thirteen 30.0/100 U.S.Dollars Only</v>
-          </cell>
-          <cell r="O15" t="str">
-            <v>Galvanized Angle Bar</v>
-          </cell>
-          <cell r="P15">
-            <v>8</v>
-          </cell>
-          <cell r="Q15" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R15">
-            <v>939.16</v>
-          </cell>
-          <cell r="S15">
-            <v>7513.3</v>
-          </cell>
-          <cell r="AN15" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO15" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP15">
-            <v>43434</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>VT-165</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M16">
-            <v>4950</v>
-          </cell>
-          <cell r="N16" t="str">
-            <v>Four Thousand Nine Hundred Fifty Euros Only</v>
-          </cell>
-          <cell r="O16" t="str">
-            <v>600X1200mmÂ Polished Porcelain Floor Tile &amp; Wall Tile</v>
-          </cell>
-          <cell r="P16">
-            <v>374</v>
-          </cell>
-          <cell r="Q16" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R16">
-            <v>13.24</v>
-          </cell>
-          <cell r="S16">
-            <v>4950</v>
-          </cell>
-          <cell r="AN16" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO16" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP16">
-            <v>43490</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>VT-166</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I17" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M17">
-            <v>12100</v>
-          </cell>
-          <cell r="N17" t="str">
-            <v>Twelve Thousand One Hundred Euros Only</v>
-          </cell>
-          <cell r="O17" t="str">
-            <v>Thermal Insulation Building Construction Decorative Materials</v>
-          </cell>
-          <cell r="P17">
-            <v>121</v>
-          </cell>
-          <cell r="Q17" t="str">
-            <v>MS</v>
-          </cell>
-          <cell r="R17">
-            <v>100</v>
-          </cell>
-          <cell r="S17">
-            <v>12100</v>
-          </cell>
-          <cell r="AN17" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO17" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP17">
-            <v>43483</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>VT-171</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>AFS TEKNIK DANISMANLIK SAN.VE TIC.LTD.STI</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>Sakarya, Turkey</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I18" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>Sakarya, Turkey</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M18">
-            <v>49855</v>
-          </cell>
-          <cell r="N18" t="str">
-            <v>Forty Nine Thousand Eight Hundred Fifty Five Euros Only</v>
-          </cell>
-          <cell r="O18" t="str">
-            <v>Competitive Price Steel StructureÂ ConstructionÂ Hangar</v>
-          </cell>
-          <cell r="P18">
-            <v>623</v>
-          </cell>
-          <cell r="Q18" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R18">
-            <v>80.02</v>
-          </cell>
-          <cell r="S18">
-            <v>49855</v>
-          </cell>
-          <cell r="AO18" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP18">
-            <v>43479</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>VT-173</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>AL HOLOL AL BADEELA GENERAL TRADING</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>KOLON GLOBAL CORPORATION</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>Incheon, South Korea</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G19" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H19" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I19" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J19" t="str">
-            <v xml:space="preserve"> South Korea</v>
-          </cell>
-          <cell r="K19" t="str">
-            <v>Incheon, South Korea</v>
-          </cell>
-          <cell r="L19" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M19">
-            <v>60717</v>
-          </cell>
-          <cell r="N19" t="str">
-            <v>Sixty Thousand Seven Hundred Seventeen Euros Only</v>
-          </cell>
-          <cell r="O19" t="str">
-            <v>Corrugated Prime Cold Rolled Hot Dipped Zinc Prepainted Color Coated PPGI PPGL Galvalume Galvanized Steel Sheet</v>
-          </cell>
-          <cell r="P19">
-            <v>67</v>
-          </cell>
-          <cell r="Q19" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R19">
-            <v>906.22</v>
-          </cell>
-          <cell r="S19">
-            <v>60717</v>
-          </cell>
-          <cell r="AO19" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP19">
-            <v>43486</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>VT-179</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>HEST AG</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>Berlin, Germany</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I20" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J20" t="str">
-            <v xml:space="preserve"> Germany</v>
-          </cell>
-          <cell r="K20" t="str">
-            <v>Berlin, Germany</v>
-          </cell>
-          <cell r="L20" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M20">
-            <v>134707</v>
-          </cell>
-          <cell r="N20" t="str">
-            <v>One Hundred Thirty Four Thousand Seven Hundred Seven Euros Only</v>
-          </cell>
-          <cell r="O20" t="str">
-            <v>Artificial Quartz Stone with SGS Standards (black Calacatta)</v>
-          </cell>
-          <cell r="P20">
-            <v>2245</v>
-          </cell>
-          <cell r="Q20" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R20">
-            <v>60</v>
-          </cell>
-          <cell r="S20">
-            <v>134707</v>
-          </cell>
-          <cell r="AO20" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP20">
-            <v>43479</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>VT-185</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I21" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J21" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K21" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L21" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M21">
-            <v>200000</v>
-          </cell>
-          <cell r="N21" t="str">
-            <v>Two Hundred Thousand Euros Only</v>
-          </cell>
-          <cell r="O21" t="str">
-            <v>0.125-3.0mm Building Material Gi Galvanized Steel Coil</v>
-          </cell>
-          <cell r="P21">
-            <v>333</v>
-          </cell>
-          <cell r="Q21" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R21">
-            <v>600.6</v>
-          </cell>
-          <cell r="S21">
-            <v>200000</v>
-          </cell>
-          <cell r="AN21" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO21" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP21">
-            <v>43472</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>VT-190</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I22" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J22" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K22" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M22">
-            <v>499332.6</v>
-          </cell>
-          <cell r="N22" t="str">
-            <v>Four Hundred Ninety Nine Thousand Three Hundred Thirty Two 60.0/100 Euros Only</v>
-          </cell>
-          <cell r="O22" t="str">
-            <v>Machinery Lightweight Wall Panel Machine</v>
-          </cell>
-          <cell r="P22">
-            <v>4</v>
-          </cell>
-          <cell r="Q22" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R22">
-            <v>11235.96</v>
-          </cell>
-          <cell r="S22">
-            <v>44943.839999999997</v>
-          </cell>
-          <cell r="T22" t="str">
-            <v>PPGI Steel Coil/Color Coated Galvanized Steel Coil</v>
-          </cell>
-          <cell r="U22">
-            <v>757</v>
-          </cell>
-          <cell r="V22" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W22">
-            <v>600.25</v>
-          </cell>
-          <cell r="X22">
-            <v>454388.76</v>
-          </cell>
-          <cell r="AN22" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO22" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP22">
-            <v>43490</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>VT-191</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I23" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K23" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M23">
-            <v>500000</v>
-          </cell>
-          <cell r="N23" t="str">
-            <v>Five Hundred Thousand Euros Only</v>
-          </cell>
-          <cell r="O23" t="str">
-            <v>Remote ControlÂ BuildingÂ MaterialÂ Security Fast Speed PVC Folding Aluminium Door (Hz-FC05623)</v>
-          </cell>
-          <cell r="P23">
-            <v>202</v>
-          </cell>
-          <cell r="Q23" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R23">
-            <v>1348.31</v>
-          </cell>
-          <cell r="S23">
-            <v>272358.62</v>
-          </cell>
-          <cell r="T23" t="str">
-            <v>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</v>
-          </cell>
-          <cell r="U23">
-            <v>3252</v>
-          </cell>
-          <cell r="V23" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="W23">
-            <v>70</v>
-          </cell>
-          <cell r="X23">
-            <v>227641.38</v>
-          </cell>
-          <cell r="AN23" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO23" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP23">
-            <v>43479</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>VT-177</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>NEW MULBERRY PTE LTD</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>Singapore, Singapore</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I24" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J24" t="str">
-            <v xml:space="preserve"> Singapore</v>
-          </cell>
-          <cell r="K24" t="str">
-            <v>Singapore, Singapore</v>
-          </cell>
-          <cell r="L24" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M24">
-            <v>107010</v>
-          </cell>
-          <cell r="N24" t="str">
-            <v>One Hundred Seven Thousand Ten Euros Only</v>
-          </cell>
-          <cell r="O24" t="str">
-            <v>Economic Embossed Coated Aluminum Coil</v>
-          </cell>
-          <cell r="P24">
-            <v>44</v>
-          </cell>
-          <cell r="Q24" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R24">
-            <v>2432.0500000000002</v>
-          </cell>
-          <cell r="S24">
-            <v>107010</v>
-          </cell>
-          <cell r="AO24" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP24">
-            <v>43484</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>VT-176</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>PETROFER ENDUSTRIYEL YAGLAR SANAYI VE TICARET A.S.</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>Izmir, Turkey</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I25" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K25" t="str">
-            <v>Izmir, Turkey</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M25">
-            <v>100010</v>
-          </cell>
-          <cell r="N25" t="str">
-            <v>One Hundred Thousand Ten Euros Only</v>
-          </cell>
-          <cell r="O25" t="str">
-            <v>2017Â BuildingÂ MaterialÂ Rapid Rolling High Speed Roller Shutter Doors (Hz-FC061)</v>
-          </cell>
-          <cell r="P25">
-            <v>83</v>
-          </cell>
-          <cell r="Q25" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R25">
-            <v>1204.94</v>
-          </cell>
-          <cell r="S25">
-            <v>100010</v>
-          </cell>
-          <cell r="AO25" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP25">
-            <v>43486</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>VT-188</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>SICOR S P A</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>Rovereto, Italy</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G26" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H26" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I26" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v xml:space="preserve"> Italy</v>
-          </cell>
-          <cell r="K26" t="str">
-            <v>Rovereto, Italy</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M26">
-            <v>432020</v>
-          </cell>
-          <cell r="N26" t="str">
-            <v>Four Hundred Thirty Two Thousand Twenty Euros Only</v>
-          </cell>
-          <cell r="O26" t="str">
-            <v>Q235 Rectangular Steel Tube</v>
-          </cell>
-          <cell r="P26">
-            <v>1</v>
-          </cell>
-          <cell r="Q26" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R26">
-            <v>730.34</v>
-          </cell>
-          <cell r="S26">
-            <v>730.34</v>
-          </cell>
-          <cell r="T26" t="str">
-            <v>Aluminum Curtain Wall Panel</v>
-          </cell>
-          <cell r="U26">
-            <v>7188</v>
-          </cell>
-          <cell r="V26" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="W26">
-            <v>60</v>
-          </cell>
-          <cell r="X26">
-            <v>431289.66</v>
-          </cell>
-          <cell r="AO26" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP26">
-            <v>43472</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>VT-170-CL</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>KAVALIERGLASS, INC.</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>Sazava, Czech Repulic</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H27" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I27" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J27" t="str">
-            <v xml:space="preserve"> Czech Repulic</v>
-          </cell>
-          <cell r="K27" t="str">
-            <v>Sazava, Czech Repulic</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M27">
-            <v>75504.08</v>
-          </cell>
-          <cell r="N27" t="str">
-            <v>Seventy Five Thousand Five Hundred Four 8.0/100 Euros Only</v>
-          </cell>
-          <cell r="O27" t="str">
-            <v>316 Grade Stainless Steel Round Bar</v>
-          </cell>
-          <cell r="P27">
-            <v>19</v>
-          </cell>
-          <cell r="Q27" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R27">
-            <v>3973.9</v>
-          </cell>
-          <cell r="S27">
-            <v>75504.08</v>
-          </cell>
-          <cell r="AO27" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP27">
-            <v>43475</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>VT-126</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>ADW METALLURGICAL CONSUMABLES CO LTD</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>Dalian, China</v>
-          </cell>
-          <cell r="F28" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G28" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I28" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J28" t="str">
-            <v xml:space="preserve"> China</v>
-          </cell>
-          <cell r="K28" t="str">
-            <v>Dalian, China</v>
-          </cell>
-          <cell r="L28" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M28">
-            <v>100000</v>
-          </cell>
-          <cell r="N28" t="str">
-            <v>One Hundred Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O28" t="str">
-            <v>Light Steel Structure Prefabricated Carport  Warehouse  Workshop (Q345B/Q235B)</v>
-          </cell>
-          <cell r="P28">
-            <v>4000</v>
-          </cell>
-          <cell r="Q28" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R28">
-            <v>25</v>
-          </cell>
-          <cell r="S28">
-            <v>100000</v>
-          </cell>
-          <cell r="AO28" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP28">
-            <v>43490</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>VT-128</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>AXICOR DWC LLC</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>AL JABOR TRADING COMPANY</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>Doha, Qatar</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G29" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H29" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I29" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v xml:space="preserve"> Qatar</v>
-          </cell>
-          <cell r="K29" t="str">
-            <v>Doha, Qatar</v>
-          </cell>
-          <cell r="L29" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M29">
-            <v>180000</v>
-          </cell>
-          <cell r="N29" t="str">
-            <v>One Hundred Eighty Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O29" t="str">
-            <v>Steel Structure Warehouse/Workshop 005</v>
-          </cell>
-          <cell r="P29">
-            <v>480</v>
-          </cell>
-          <cell r="Q29" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R29">
-            <v>150</v>
-          </cell>
-          <cell r="S29">
-            <v>72000</v>
-          </cell>
-          <cell r="T29" t="str">
-            <v>Q195 Q235 Q345 Carbon Welded Steel Pipe</v>
-          </cell>
-          <cell r="U29">
-            <v>216</v>
-          </cell>
-          <cell r="V29" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W29">
-            <v>500</v>
-          </cell>
-          <cell r="X29">
-            <v>108000</v>
-          </cell>
-          <cell r="AO29" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP29">
-            <v>43478</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>VT-118</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G30" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I30" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K30" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M30">
-            <v>10000</v>
-          </cell>
-          <cell r="N30" t="str">
-            <v>Ten Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O30" t="str">
-            <v>Hollow Stone Pillar Granite Roman Column</v>
-          </cell>
-          <cell r="P30">
-            <v>13</v>
-          </cell>
-          <cell r="Q30" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R30">
-            <v>769.23</v>
-          </cell>
-          <cell r="S30">
-            <v>10000</v>
-          </cell>
-          <cell r="AN30" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO30" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP30">
-            <v>43492</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>VT-127</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I31" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K31" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L31" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M31">
-            <v>117503</v>
-          </cell>
-          <cell r="N31" t="str">
-            <v>One Hundred Seventeen Thousand Five Hundred Three U.S.Dollars Only</v>
-          </cell>
-          <cell r="O31" t="str">
-            <v>Q235 Rectangular Steel Tube</v>
-          </cell>
-          <cell r="P31">
-            <v>180</v>
-          </cell>
-          <cell r="Q31" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R31">
-            <v>652.79</v>
-          </cell>
-          <cell r="S31">
-            <v>117503</v>
-          </cell>
-          <cell r="AN31" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO31" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP31">
-            <v>43493</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>VT-130</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F32" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G32" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H32" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I32" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K32" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M32">
-            <v>300000</v>
-          </cell>
-          <cell r="N32" t="str">
-            <v>Three Hundred Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O32" t="str">
-            <v>Mexico Rn100 Hydraulic Press Rolling Machine</v>
-          </cell>
-          <cell r="P32">
-            <v>3</v>
-          </cell>
-          <cell r="Q32" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="R32">
-            <v>8000</v>
-          </cell>
-          <cell r="S32">
-            <v>24000</v>
-          </cell>
-          <cell r="T32" t="str">
-            <v>Acoustic Decorative Ceiling Tiles</v>
-          </cell>
-          <cell r="U32">
-            <v>5520</v>
-          </cell>
-          <cell r="V32" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="W32">
-            <v>50</v>
-          </cell>
-          <cell r="X32">
-            <v>276000</v>
-          </cell>
-          <cell r="AN32" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO32" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP32">
-            <v>43478</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>VT-131</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G33" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I33" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K33" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L33" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M33">
-            <v>300000</v>
-          </cell>
-          <cell r="N33" t="str">
-            <v>Three Hundred Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O33" t="str">
-            <v>Thermal Insulation Building Construction Decorative Materials</v>
-          </cell>
-          <cell r="P33">
-            <v>2045</v>
-          </cell>
-          <cell r="Q33" t="str">
-            <v>MS</v>
-          </cell>
-          <cell r="R33">
-            <v>100</v>
-          </cell>
-          <cell r="S33">
-            <v>204500</v>
-          </cell>
-          <cell r="T33" t="str">
-            <v>Building Construction Material Steel Frabrication Structure</v>
-          </cell>
-          <cell r="U33">
-            <v>1061</v>
-          </cell>
-          <cell r="V33" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="W33">
-            <v>90.01</v>
-          </cell>
-          <cell r="X33">
-            <v>95500</v>
-          </cell>
-          <cell r="AN33" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO33" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP33">
-            <v>43482</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>VT-125-CL</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>AXICOR DWC LLC</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>Dubai, Uae</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>ARAYMOND FLUID CONNECTION</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>Grenoble, France</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G34" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H34" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I34" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J34" t="str">
-            <v xml:space="preserve"> France</v>
-          </cell>
-          <cell r="K34" t="str">
-            <v>Grenoble, France</v>
-          </cell>
-          <cell r="L34" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M34">
-            <v>139932</v>
-          </cell>
-          <cell r="N34" t="str">
-            <v>One Hundred Thirty Nine Thousand Nine Hundred Thirty Two U.S.Dollars Only</v>
-          </cell>
-          <cell r="O34" t="str">
-            <v>Galvanized Round Steel Pipe</v>
-          </cell>
-          <cell r="P34">
-            <v>205</v>
-          </cell>
-          <cell r="Q34" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R34">
-            <v>682.6</v>
-          </cell>
-          <cell r="S34">
-            <v>139932</v>
-          </cell>
-          <cell r="AO34" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP34">
-            <v>43478</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>VT-167</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>NANJING SISIB SILICONES CO LT</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>Nanjing, China</v>
-          </cell>
-          <cell r="F35" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G35" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H35" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I35" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v xml:space="preserve"> China</v>
-          </cell>
-          <cell r="K35" t="str">
-            <v>Nanjing, China</v>
-          </cell>
-          <cell r="L35" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M35">
-            <v>18640</v>
-          </cell>
-          <cell r="N35" t="str">
-            <v>Eighteen Thousand Six Hundred Forty Euros Only</v>
-          </cell>
-          <cell r="O35" t="str">
-            <v>Big Size Ultra Thin Marble Look Porcelain Ceramic Floor Tile</v>
-          </cell>
-          <cell r="P35">
-            <v>266</v>
-          </cell>
-          <cell r="Q35" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R35">
-            <v>70.08</v>
-          </cell>
-          <cell r="S35">
-            <v>18640</v>
-          </cell>
-          <cell r="AO35" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP35">
-            <v>43448</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>VT-186</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>ACAR KIMYA ANONIM SIRKETI</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I36" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K36" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L36" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M36">
-            <v>270536</v>
-          </cell>
-          <cell r="N36" t="str">
-            <v>Two Hundred Seventy Thousand Five Hundred Thirty Six Euros Only</v>
-          </cell>
-          <cell r="O36" t="str">
-            <v>Dx51d Bright Hot DIP Galvanized Steel Coil /Gi</v>
-          </cell>
-          <cell r="P36">
-            <v>29</v>
-          </cell>
-          <cell r="Q36" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R36">
-            <v>786.52</v>
-          </cell>
-          <cell r="S36">
-            <v>22809.08</v>
-          </cell>
-          <cell r="T36" t="str">
-            <v>Single Story Warehouse Steel Structure</v>
-          </cell>
-          <cell r="U36">
-            <v>3096</v>
-          </cell>
-          <cell r="V36" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="W36">
-            <v>80.02</v>
-          </cell>
-          <cell r="X36">
-            <v>247726.92</v>
-          </cell>
-          <cell r="AO36" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP36">
-            <v>43448</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>VT-168</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G37" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I37" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J37" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K37" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L37" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M37">
-            <v>29588</v>
-          </cell>
-          <cell r="N37" t="str">
-            <v>Twenty Nine Thousand Five Hundred Eighty Eight Euros Only</v>
-          </cell>
-          <cell r="O37" t="str">
-            <v>CNC Machining Parts Aluminum Profile Extrusion</v>
-          </cell>
-          <cell r="P37">
-            <v>295</v>
-          </cell>
-          <cell r="Q37" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R37">
-            <v>100.3</v>
-          </cell>
-          <cell r="S37">
-            <v>29588</v>
-          </cell>
-          <cell r="AN37" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO37" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP37">
-            <v>43463</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>VT-175</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I38" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J38" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K38" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L38" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M38">
-            <v>96000</v>
-          </cell>
-          <cell r="N38" t="str">
-            <v>Ninety Six Thousand Euros Only</v>
-          </cell>
-          <cell r="O38" t="str">
-            <v>Hollow Stone Pillar Granite Roman Column</v>
-          </cell>
-          <cell r="P38">
-            <v>128</v>
-          </cell>
-          <cell r="Q38" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R38">
-            <v>750</v>
-          </cell>
-          <cell r="S38">
-            <v>96000</v>
-          </cell>
-          <cell r="AN38" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO38" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP38">
-            <v>43443</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>VT-183</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F39" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G39" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H39" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I39" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J39" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K39" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L39" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M39">
-            <v>179279</v>
-          </cell>
-          <cell r="N39" t="str">
-            <v>One Hundred Seventy Nine Thousand Two Hundred Seventy Nine Euros Only</v>
-          </cell>
-          <cell r="O39" t="str">
-            <v>3003h24 Flat Aluminum Sheet MetalÂ BuildingÂ Construction Material</v>
-          </cell>
-          <cell r="P39">
-            <v>2636</v>
-          </cell>
-          <cell r="Q39" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R39">
-            <v>68.010000000000005</v>
-          </cell>
-          <cell r="S39">
-            <v>179279</v>
-          </cell>
-          <cell r="AN39" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO39" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP39">
-            <v>43458</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>VT-184</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G40" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H40" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I40" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J40" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K40" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L40" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M40">
-            <v>182016.6</v>
-          </cell>
-          <cell r="N40" t="str">
-            <v>One Hundred Eighty Two Thousand Sixteen 60.0/100 Euros Only</v>
-          </cell>
-          <cell r="O40" t="str">
-            <v>Decorative Building Material Stone Aluminum Honeycomb Panel</v>
-          </cell>
-          <cell r="P40">
-            <v>2022</v>
-          </cell>
-          <cell r="Q40" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R40">
-            <v>90.02</v>
-          </cell>
-          <cell r="S40">
-            <v>182016.6</v>
-          </cell>
-          <cell r="AN40" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO40" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP40">
-            <v>43451</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>VT-187</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G41" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I41" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K41" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L41" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M41">
-            <v>302611.44</v>
-          </cell>
-          <cell r="N41" t="str">
-            <v>Three Hundred Two Thousand Six Hundred Eleven 44.0/100 Euros Only</v>
-          </cell>
-          <cell r="O41" t="str">
-            <v>Hot Dipped Galvanized Steel (Hot rolled/Cold rolled) Coil</v>
-          </cell>
-          <cell r="P41">
-            <v>300</v>
-          </cell>
-          <cell r="Q41" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R41">
-            <v>505.62</v>
-          </cell>
-          <cell r="S41">
-            <v>151686</v>
-          </cell>
-          <cell r="T41" t="str">
-            <v>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</v>
-          </cell>
-          <cell r="U41">
-            <v>125</v>
-          </cell>
-          <cell r="V41" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W41">
-            <v>1207.4000000000001</v>
-          </cell>
-          <cell r="X41">
-            <v>150925.44</v>
-          </cell>
-          <cell r="AN41" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO41" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP41">
-            <v>43449</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>VT-189</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G42" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H42" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I42" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K42" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L42" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M42">
-            <v>470500</v>
-          </cell>
-          <cell r="N42" t="str">
-            <v>Four Hundred Seventy Thousand Five Hundred Euros Only</v>
-          </cell>
-          <cell r="O42" t="str">
-            <v>Heat Insulation Tube Building Material Pipe Glasswool</v>
-          </cell>
-          <cell r="P42">
-            <v>688</v>
-          </cell>
-          <cell r="Q42" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="R42">
-            <v>337.08</v>
-          </cell>
-          <cell r="S42">
-            <v>231911.04000000001</v>
-          </cell>
-          <cell r="T42" t="str">
-            <v>Ideabond Building Material Pre-Painted Aluminium Strip</v>
-          </cell>
-          <cell r="U42">
-            <v>55</v>
-          </cell>
-          <cell r="V42" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W42">
-            <v>4337.9799999999996</v>
-          </cell>
-          <cell r="X42">
-            <v>238588.96</v>
-          </cell>
-          <cell r="AN42" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO42" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP42">
-            <v>43448</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>VT-172</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>KAVALIERGLASS, INC.</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>Sazava, Czech Repulic</v>
-          </cell>
-          <cell r="F43" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G43" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H43" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I43" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J43" t="str">
-            <v xml:space="preserve"> Czech Repulic</v>
-          </cell>
-          <cell r="K43" t="str">
-            <v>Sazava, Czech Repulic</v>
-          </cell>
-          <cell r="L43" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M43">
-            <v>58184</v>
-          </cell>
-          <cell r="N43" t="str">
-            <v>Fifty Eight Thousand One Hundred Eighty Four Euros Only</v>
-          </cell>
-          <cell r="O43" t="str">
-            <v>12mm Building Material Artificial Stone Acrylic Solid Surface Corian</v>
-          </cell>
-          <cell r="P43">
-            <v>484</v>
-          </cell>
-          <cell r="Q43" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R43">
-            <v>120.21</v>
-          </cell>
-          <cell r="S43">
-            <v>58184</v>
-          </cell>
-          <cell r="AO43" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP43">
-            <v>43465</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>VT-182</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>TURK HENKEL KIMYA SAN. VE TIC. A.S.</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="F44" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G44" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H44" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I44" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J44" t="str">
-            <v xml:space="preserve"> Turkey</v>
-          </cell>
-          <cell r="K44" t="str">
-            <v>Istanbul, Turkey</v>
-          </cell>
-          <cell r="L44" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M44">
-            <v>177906.42</v>
-          </cell>
-          <cell r="N44" t="str">
-            <v>One Hundred Seventy Seven Thousand Nine Hundred Six 42.0/100 Euros Only</v>
-          </cell>
-          <cell r="O44" t="str">
-            <v>EcoÂ BuildingÂ MaterialÂ 10-25mm Aluminum Honeycomb Panel</v>
-          </cell>
-          <cell r="P44">
-            <v>3535</v>
-          </cell>
-          <cell r="Q44" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R44">
-            <v>50.33</v>
-          </cell>
-          <cell r="S44">
-            <v>177906.42</v>
-          </cell>
-          <cell r="AO44" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP44">
-            <v>43444</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>VT-120</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G45" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H45" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I45" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J45" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K45" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L45" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M45">
-            <v>16103.61</v>
-          </cell>
-          <cell r="N45" t="str">
-            <v>Sixteen Thousand One Hundred Three 61.0/100 U.S.Dollars Only</v>
-          </cell>
-          <cell r="O45" t="str">
-            <v>Thermal Insulation Building Construction Decorative Materials</v>
-          </cell>
-          <cell r="P45">
-            <v>161</v>
-          </cell>
-          <cell r="Q45" t="str">
-            <v>MS</v>
-          </cell>
-          <cell r="R45">
-            <v>100.02</v>
-          </cell>
-          <cell r="S45">
-            <v>16103.61</v>
-          </cell>
-          <cell r="AN45" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO45" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP45">
-            <v>43449</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>VT-124</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>ELITE CAPTAL ONE INVESTMENT LLC</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>California, United States</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G46" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H46" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I46" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J46" t="str">
-            <v xml:space="preserve"> United States</v>
-          </cell>
-          <cell r="K46" t="str">
-            <v>California, United States</v>
-          </cell>
-          <cell r="L46" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M46">
-            <v>50000</v>
-          </cell>
-          <cell r="N46" t="str">
-            <v>Fifty Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O46" t="str">
-            <v>Steel Structure Warehouse/Workshop 005</v>
-          </cell>
-          <cell r="P46">
-            <v>333</v>
-          </cell>
-          <cell r="Q46" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R46">
-            <v>150.15</v>
-          </cell>
-          <cell r="S46">
-            <v>50000</v>
-          </cell>
-          <cell r="AO46" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP46">
-            <v>43443</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>VT-129</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G47" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H47" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I47" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J47" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K47" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L47" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M47">
-            <v>210000</v>
-          </cell>
-          <cell r="N47" t="str">
-            <v>Two Hundred Ten Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O47" t="str">
-            <v>Aluminium Tilt &amp; Turn Window</v>
-          </cell>
-          <cell r="P47">
-            <v>2100</v>
-          </cell>
-          <cell r="Q47" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R47">
-            <v>100</v>
-          </cell>
-          <cell r="S47">
-            <v>210000</v>
-          </cell>
-          <cell r="AN47" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO47" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP47">
-            <v>43463</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>VT-174</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>EUROFLUID HYDRAULIK GMBH</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>Asparn, Austria</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G48" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H48" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I48" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J48" t="str">
-            <v xml:space="preserve"> Austria</v>
-          </cell>
-          <cell r="K48" t="str">
-            <v>Asparn, Austria</v>
-          </cell>
-          <cell r="L48" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M48">
-            <v>88000</v>
-          </cell>
-          <cell r="N48" t="str">
-            <v>Eighty Eight Thousand Euros Only</v>
-          </cell>
-          <cell r="O48" t="str">
-            <v>Q195 Q235 Q345 Carbon Welded Steel Pipe</v>
-          </cell>
-          <cell r="P48">
-            <v>176</v>
-          </cell>
-          <cell r="Q48" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R48">
-            <v>500</v>
-          </cell>
-          <cell r="S48">
-            <v>88000</v>
-          </cell>
-          <cell r="AO48" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP48">
-            <v>43498</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>VT-178</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G49" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H49" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I49" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J49" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K49" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L49" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M49">
-            <v>116350</v>
-          </cell>
-          <cell r="N49" t="str">
-            <v>One Hundred Sixteen Thousand Three Hundred Fifty Euros Only</v>
-          </cell>
-          <cell r="O49" t="str">
-            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
-          </cell>
-          <cell r="P49">
-            <v>258</v>
-          </cell>
-          <cell r="Q49" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R49">
-            <v>450.97</v>
-          </cell>
-          <cell r="S49">
-            <v>116350</v>
-          </cell>
-          <cell r="AN49" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO49" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP49">
-            <v>43500</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>VT-180</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F50" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G50" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H50" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I50" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J50" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K50" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L50" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M50">
-            <v>166056.6</v>
-          </cell>
-          <cell r="N50" t="str">
-            <v>One Hundred Sixty Six Thousand Fifty Six 60.0/100 Euros Only</v>
-          </cell>
-          <cell r="O50" t="str">
-            <v>Pre Painted Galvanized Corrugated Steel Sheet</v>
-          </cell>
-          <cell r="P50">
-            <v>88</v>
-          </cell>
-          <cell r="Q50" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R50">
-            <v>1123.5999999999999</v>
-          </cell>
-          <cell r="S50">
-            <v>98876.800000000003</v>
-          </cell>
-          <cell r="T50" t="str">
-            <v>Building Glass Aluminium Curtain Wall Material</v>
-          </cell>
-          <cell r="U50">
-            <v>23</v>
-          </cell>
-          <cell r="V50" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W50">
-            <v>2920.86</v>
-          </cell>
-          <cell r="X50">
-            <v>67179.8</v>
-          </cell>
-          <cell r="AN50" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO50" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP50">
-            <v>43516</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>VT-181</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G51" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H51" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I51" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J51" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K51" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L51" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M51">
-            <v>166950</v>
-          </cell>
-          <cell r="N51" t="str">
-            <v>One Hundred Sixty Six Thousand Nine Hundred Fifty Euros Only</v>
-          </cell>
-          <cell r="O51" t="str">
-            <v>Q235 Rectangular Steel Tube</v>
-          </cell>
-          <cell r="P51">
-            <v>107</v>
-          </cell>
-          <cell r="Q51" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R51">
-            <v>730.34</v>
-          </cell>
-          <cell r="S51">
-            <v>78146.38</v>
-          </cell>
-          <cell r="T51" t="str">
-            <v>Sgch Colors Coated Steel RoofingÂ Material</v>
-          </cell>
-          <cell r="U51">
-            <v>118</v>
-          </cell>
-          <cell r="V51" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W51">
-            <v>752.57</v>
-          </cell>
-          <cell r="X51">
-            <v>88803.62</v>
-          </cell>
-          <cell r="AN51" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO51" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP51">
-            <v>43502</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>VT-192</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F52" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G52" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H52" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I52" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J52" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K52" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L52" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M52">
-            <v>916150</v>
-          </cell>
-          <cell r="N52" t="str">
-            <v>Nine Hundred Sixteen Thousand One Hundred Fifty Euros Only</v>
-          </cell>
-          <cell r="O52" t="str">
-            <v>T Lintel  Hot Dipped Galvanize  Z500G/M2</v>
-          </cell>
-          <cell r="P52">
-            <v>402</v>
-          </cell>
-          <cell r="Q52" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R52">
-            <v>1123.5999999999999</v>
-          </cell>
-          <cell r="S52">
-            <v>451687.2</v>
-          </cell>
-          <cell r="T52" t="str">
-            <v>PPGI Steel Coil/Color Coated Galvanized Steel Coil</v>
-          </cell>
-          <cell r="U52">
-            <v>774</v>
-          </cell>
-          <cell r="V52" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W52">
-            <v>600.08000000000004</v>
-          </cell>
-          <cell r="X52">
-            <v>464462.8</v>
-          </cell>
-          <cell r="AN52" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO52" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP52">
-            <v>43514</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>VT-117</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F53" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G53" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H53" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I53" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J53" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K53" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L53" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M53">
-            <v>6845.99</v>
-          </cell>
-          <cell r="N53" t="str">
-            <v>Six Thousand Eight Hundred Forty Five 99.0/100 U.S.Dollars Only</v>
-          </cell>
-          <cell r="O53" t="str">
-            <v>Hot Prime Galvanized Steel Roofing Sheet</v>
-          </cell>
-          <cell r="P53">
-            <v>9</v>
-          </cell>
-          <cell r="Q53" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R53">
-            <v>760.67</v>
-          </cell>
-          <cell r="S53">
-            <v>6845.99</v>
-          </cell>
-          <cell r="AN53" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO53" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP53">
-            <v>43500</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>VT-119</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>AXICOR DWC LLC</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="F54" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G54" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H54" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I54" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J54" t="str">
-            <v xml:space="preserve"> China</v>
-          </cell>
-          <cell r="K54" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="L54" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M54">
-            <v>13000</v>
-          </cell>
-          <cell r="N54" t="str">
-            <v>Thirteen Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O54" t="str">
-            <v>New Paneling Veins Series Artificial Quartz Slab Stone</v>
-          </cell>
-          <cell r="P54">
-            <v>276</v>
-          </cell>
-          <cell r="Q54" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R54">
-            <v>47.1</v>
-          </cell>
-          <cell r="S54">
-            <v>13000</v>
-          </cell>
-          <cell r="AO54" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP54">
-            <v>43499</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>VT-153</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F55" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G55" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H55" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I55" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J55" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K55" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L55" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M55">
-            <v>25100</v>
-          </cell>
-          <cell r="N55" t="str">
-            <v>Twenty Five Thousand One Hundred Euros Only</v>
-          </cell>
-          <cell r="O55" t="str">
-            <v>Powder Coating Aluminium Alloy Extrusion Profile</v>
-          </cell>
-          <cell r="P55">
-            <v>8</v>
-          </cell>
-          <cell r="Q55" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R55">
-            <v>3137.5</v>
-          </cell>
-          <cell r="S55">
-            <v>25100</v>
-          </cell>
-          <cell r="AN55" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO55" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP55">
-            <v>43402</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>VT-107</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>THABA MANZI WILDLIFE SERVICES</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>South Africa</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H56" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I56" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J56" t="str">
-            <v>South Africa</v>
-          </cell>
-          <cell r="K56" t="str">
-            <v>South Africa</v>
-          </cell>
-          <cell r="L56" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M56">
-            <v>13300</v>
-          </cell>
-          <cell r="N56" t="str">
-            <v>Thirteen Thousand Three Hundred U.S.Dollars Only</v>
-          </cell>
-          <cell r="O56" t="str">
-            <v>SGS Prefab Building Material Steel Construction</v>
-          </cell>
-          <cell r="P56">
-            <v>241</v>
-          </cell>
-          <cell r="Q56" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="R56">
-            <v>55.19</v>
-          </cell>
-          <cell r="S56">
-            <v>13300</v>
-          </cell>
-          <cell r="AO56" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP56">
-            <v>43394</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>VT-108</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F57" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G57" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H57" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I57" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J57" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K57" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L57" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M57">
-            <v>61000</v>
-          </cell>
-          <cell r="N57" t="str">
-            <v>Sixty One Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O57" t="str">
-            <v>PVC Coating Galvanized Stainless Steel Welded Wire Mesh</v>
-          </cell>
-          <cell r="P57">
-            <v>2103</v>
-          </cell>
-          <cell r="Q57" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R57">
-            <v>29.01</v>
-          </cell>
-          <cell r="S57">
-            <v>61000</v>
-          </cell>
-          <cell r="AN57" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO57" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP57">
-            <v>43395</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>VT-109</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Dubai, United Arab Emirates</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>SAI INTERNATIONAL TRADING COMPANY</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="F58" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G58" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H58" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I58" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J58" t="str">
-            <v xml:space="preserve"> India</v>
-          </cell>
-          <cell r="K58" t="str">
-            <v>Kerala, India</v>
-          </cell>
-          <cell r="L58" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M58">
-            <v>140500</v>
-          </cell>
-          <cell r="N58" t="str">
-            <v>One Hundred Forty Thousand Five Hundred U.S.Dollars Only</v>
-          </cell>
-          <cell r="O58" t="str">
-            <v>Cost Price Color Coated Aluminum Coil</v>
-          </cell>
-          <cell r="P58">
-            <v>40</v>
-          </cell>
-          <cell r="Q58" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R58">
-            <v>3512.5</v>
-          </cell>
-          <cell r="S58">
-            <v>140500</v>
-          </cell>
-          <cell r="AN58" t="str">
-            <v xml:space="preserve">17.IBS </v>
-          </cell>
-          <cell r="AO58" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP58">
-            <v>43387</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>VT-113-CL</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>TKPH PTY LTD TRADING AS OTR TYRES</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>Australia</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H59" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I59" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J59" t="str">
-            <v>Australia</v>
-          </cell>
-          <cell r="K59" t="str">
-            <v>Australia</v>
-          </cell>
-          <cell r="L59" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M59">
-            <v>1046500</v>
-          </cell>
-          <cell r="N59" t="str">
-            <v>One Million Forty Six Thousand Five Hundred U.S.Dollars Only</v>
-          </cell>
-          <cell r="O59" t="str">
-            <v>Weld Steel H Beam</v>
-          </cell>
-          <cell r="P59">
-            <v>553</v>
-          </cell>
-          <cell r="Q59" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R59">
-            <v>850</v>
-          </cell>
-          <cell r="S59">
-            <v>470050</v>
-          </cell>
-          <cell r="T59" t="str">
-            <v>Powder Coating Aluminium Extrusion Profiles Sliding Window</v>
-          </cell>
-          <cell r="U59">
-            <v>192</v>
-          </cell>
-          <cell r="V59" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="W59">
-            <v>3002.34</v>
-          </cell>
-          <cell r="X59">
-            <v>576450</v>
-          </cell>
-          <cell r="AO59" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP59">
-            <v>43395</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>VT-112-CL</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>FILTRATION SOLUTION PTE LTD</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>Singapore, Singapore</v>
-          </cell>
-          <cell r="F60" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G60" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H60" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I60" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J60" t="str">
-            <v xml:space="preserve"> Singapore</v>
-          </cell>
-          <cell r="K60" t="str">
-            <v>Singapore, Singapore</v>
-          </cell>
-          <cell r="L60" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M60">
-            <v>800000</v>
-          </cell>
-          <cell r="N60" t="str">
-            <v>Eight Hundred Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O60" t="str">
-            <v>Construction Building Passenger Hoist</v>
-          </cell>
-          <cell r="P60">
-            <v>4</v>
-          </cell>
-          <cell r="Q60" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R60">
-            <v>60000</v>
-          </cell>
-          <cell r="S60">
-            <v>240000</v>
-          </cell>
-          <cell r="T60" t="str">
-            <v>12mm Building Material Big Slab Marble Like Veining Pattern Acrylic Artificial Stone Solid Surface</v>
-          </cell>
-          <cell r="U60">
-            <v>350</v>
-          </cell>
-          <cell r="V60" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="W60">
-            <v>129</v>
-          </cell>
-          <cell r="X60">
-            <v>45150</v>
-          </cell>
-          <cell r="Y60" t="str">
-            <v>150kg/M3 Insulation Board Rockwool with 80% Basalt</v>
-          </cell>
-          <cell r="Z60">
-            <v>556</v>
-          </cell>
-          <cell r="AA60" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="AB60">
-            <v>925.99</v>
-          </cell>
-          <cell r="AC60">
-            <v>514850</v>
-          </cell>
-          <cell r="AO60" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP60">
-            <v>43392</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>VT-224-CL</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>MWFG TRADING LTD</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>Vancouver, Canada</v>
-          </cell>
-          <cell r="F61" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G61" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H61" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I61" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J61" t="str">
-            <v xml:space="preserve"> Canada</v>
-          </cell>
-          <cell r="K61" t="str">
-            <v>Vancouver, Canada</v>
-          </cell>
-          <cell r="L61" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M61">
-            <v>1258472</v>
-          </cell>
-          <cell r="N61" t="str">
-            <v>One Million Two Hundred Fifty Eight Thousand Four Hundred Seventy Two canadian Dollars Only</v>
-          </cell>
-          <cell r="O61" t="str">
-            <v>House Gate Interior Wooden Doors</v>
-          </cell>
-          <cell r="P61">
-            <v>464</v>
-          </cell>
-          <cell r="Q61" t="str">
-            <v>PCS</v>
-          </cell>
-          <cell r="R61">
-            <v>149.25</v>
-          </cell>
-          <cell r="S61">
-            <v>69252</v>
-          </cell>
-          <cell r="T61" t="str">
-            <v>Industrial PVC High Speed Shutter Door/Fast Shutter Door/High Speed PVC Roll up/Fold up Door</v>
-          </cell>
-          <cell r="U61">
-            <v>767</v>
-          </cell>
-          <cell r="V61" t="str">
-            <v>SETS</v>
-          </cell>
-          <cell r="W61">
-            <v>1550.48</v>
-          </cell>
-          <cell r="X61">
-            <v>1189220</v>
-          </cell>
-          <cell r="AO61" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="AP61">
-            <v>43368</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>VT-164</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>GOLDEN CORAL LLC</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>Sharjah, United Arab Emirates</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </v>
-          </cell>
-          <cell r="E62" t="str">
-            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
-          </cell>
-          <cell r="F62" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G62" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H62" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I62" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J62" t="str">
-            <v xml:space="preserve"> Brunei </v>
-          </cell>
-          <cell r="K62" t="str">
-            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
-          </cell>
-          <cell r="L62" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M62">
-            <v>63000</v>
-          </cell>
-          <cell r="N62" t="str">
-            <v>Sixty Three Thousand Euros Only</v>
-          </cell>
-          <cell r="O62" t="str">
-            <v>Senyu WPC Building Material Fencing</v>
-          </cell>
-          <cell r="P62">
-            <v>66</v>
-          </cell>
-          <cell r="Q62" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R62">
-            <v>954.55</v>
-          </cell>
-          <cell r="S62">
-            <v>63000</v>
-          </cell>
-          <cell r="AN62" t="str">
-            <v>17.GOLD</v>
-          </cell>
-          <cell r="AO62" t="str">
-            <v>EURO</v>
-          </cell>
-          <cell r="AP62">
-            <v>43372</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>VT-116</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>GOLDEN CORAL LLC</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>Sharjah, United Arab Emirates</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </v>
-          </cell>
-          <cell r="E63" t="str">
-            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
-          </cell>
-          <cell r="F63" t="str">
-            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
-          </cell>
-          <cell r="G63" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="H63" t="str">
-            <v>VISION TRADING INTERNATIONAL FZE</v>
-          </cell>
-          <cell r="I63" t="str">
-            <v>Dubai, U.A.E</v>
-          </cell>
-          <cell r="J63" t="str">
-            <v xml:space="preserve"> Brunei </v>
-          </cell>
-          <cell r="K63" t="str">
-            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
-          </cell>
-          <cell r="L63" t="str">
-            <v>Shanghai, China</v>
-          </cell>
-          <cell r="M63">
-            <v>860000</v>
-          </cell>
-          <cell r="N63" t="str">
-            <v>Eight Hundred Sixty Thousand U.S.Dollars Only</v>
-          </cell>
-          <cell r="O63" t="str">
-            <v>Wrinkle PPGI</v>
-          </cell>
-          <cell r="P63">
-            <v>212</v>
-          </cell>
-          <cell r="Q63" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="R63">
-            <v>750</v>
-          </cell>
-          <cell r="S63">
-            <v>159000</v>
-          </cell>
-          <cell r="T63" t="str">
-            <v>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</v>
-          </cell>
-          <cell r="U63">
-            <v>935</v>
-          </cell>
-          <cell r="V63" t="str">
-            <v>SQUARE METERS</v>
-          </cell>
-          <cell r="W63">
-            <v>70</v>
-          </cell>
-          <cell r="X63">
-            <v>65450</v>
-          </cell>
-          <cell r="Y63" t="str">
-            <v>Composite Reinforcement Floor Decking Sheet</v>
-          </cell>
-          <cell r="Z63">
-            <v>794</v>
-          </cell>
-          <cell r="AA63" t="str">
-            <v>TONS</v>
-          </cell>
-          <cell r="AB63">
-            <v>800.44</v>
-          </cell>
-          <cell r="AC63">
-            <v>635550</v>
-          </cell>
-          <cell r="AN63" t="str">
-            <v>17.GOLD</v>
-          </cell>
-          <cell r="AO63" t="str">
-            <v>USD</v>
-          </cell>
-          <cell r="AP63">
-            <v>43358</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6521,7 +2182,7 @@
       <c r="AO1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="54">
+      <c r="AP1" s="51">
         <v>43433</v>
       </c>
     </row>
@@ -6580,7 +2241,7 @@
       <c r="AO2" t="s">
         <v>50</v>
       </c>
-      <c r="AP2" s="54">
+      <c r="AP2" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -6639,7 +2300,7 @@
       <c r="AO3" t="s">
         <v>50</v>
       </c>
-      <c r="AP3" s="54">
+      <c r="AP3" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -6698,7 +2359,7 @@
       <c r="AO4" t="s">
         <v>50</v>
       </c>
-      <c r="AP4" s="54">
+      <c r="AP4" s="51">
         <v>43430</v>
       </c>
     </row>
@@ -6757,7 +2418,7 @@
       <c r="AO5" t="s">
         <v>50</v>
       </c>
-      <c r="AP5" s="54">
+      <c r="AP5" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -6825,7 +2486,7 @@
       <c r="AO6" t="s">
         <v>50</v>
       </c>
-      <c r="AP6" s="54">
+      <c r="AP6" s="51">
         <v>43414</v>
       </c>
     </row>
@@ -6893,7 +2554,7 @@
       <c r="AO7" t="s">
         <v>50</v>
       </c>
-      <c r="AP7" s="54">
+      <c r="AP7" s="51">
         <v>43434</v>
       </c>
     </row>
@@ -6976,7 +2637,7 @@
       <c r="AO8" t="s">
         <v>50</v>
       </c>
-      <c r="AP8" s="54">
+      <c r="AP8" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -7035,7 +2696,7 @@
       <c r="AO9" t="s">
         <v>50</v>
       </c>
-      <c r="AP9" s="54">
+      <c r="AP9" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -7094,7 +2755,7 @@
       <c r="AO10" t="s">
         <v>50</v>
       </c>
-      <c r="AP10" s="54">
+      <c r="AP10" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -7153,7 +2814,7 @@
       <c r="AO11" t="s">
         <v>50</v>
       </c>
-      <c r="AP11" s="54">
+      <c r="AP11" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -7218,7 +2879,7 @@
       <c r="AO12" t="s">
         <v>50</v>
       </c>
-      <c r="AP12" s="54">
+      <c r="AP12" s="51">
         <v>43423</v>
       </c>
     </row>
@@ -7277,7 +2938,7 @@
       <c r="AO13" t="s">
         <v>50</v>
       </c>
-      <c r="AP13" s="54">
+      <c r="AP13" s="51">
         <v>43424</v>
       </c>
     </row>
@@ -7345,7 +3006,7 @@
       <c r="AO14" t="s">
         <v>110</v>
       </c>
-      <c r="AP14" s="54">
+      <c r="AP14" s="51">
         <v>43434</v>
       </c>
     </row>
@@ -7413,7 +3074,7 @@
       <c r="AO15" t="s">
         <v>50</v>
       </c>
-      <c r="AP15" s="54">
+      <c r="AP15" s="51">
         <v>43490</v>
       </c>
     </row>
@@ -7481,7 +3142,7 @@
       <c r="AO16" t="s">
         <v>50</v>
       </c>
-      <c r="AP16" s="54">
+      <c r="AP16" s="51">
         <v>43483</v>
       </c>
     </row>
@@ -7540,7 +3201,7 @@
       <c r="AO17" t="s">
         <v>50</v>
       </c>
-      <c r="AP17" s="54">
+      <c r="AP17" s="51">
         <v>43479</v>
       </c>
     </row>
@@ -7605,7 +3266,7 @@
       <c r="AO18" t="s">
         <v>50</v>
       </c>
-      <c r="AP18" s="54">
+      <c r="AP18" s="51">
         <v>43486</v>
       </c>
     </row>
@@ -7664,7 +3325,7 @@
       <c r="AO19" t="s">
         <v>50</v>
       </c>
-      <c r="AP19" s="54">
+      <c r="AP19" s="51">
         <v>43479</v>
       </c>
     </row>
@@ -7732,7 +3393,7 @@
       <c r="AO20" t="s">
         <v>50</v>
       </c>
-      <c r="AP20" s="54">
+      <c r="AP20" s="51">
         <v>43472</v>
       </c>
     </row>
@@ -7815,7 +3476,7 @@
       <c r="AO21" t="s">
         <v>50</v>
       </c>
-      <c r="AP21" s="54">
+      <c r="AP21" s="51">
         <v>43490</v>
       </c>
     </row>
@@ -7898,7 +3559,7 @@
       <c r="AO22" t="s">
         <v>50</v>
       </c>
-      <c r="AP22" s="54">
+      <c r="AP22" s="51">
         <v>43479</v>
       </c>
     </row>
@@ -7957,7 +3618,7 @@
       <c r="AO23" t="s">
         <v>50</v>
       </c>
-      <c r="AP23" s="54">
+      <c r="AP23" s="51">
         <v>43484</v>
       </c>
     </row>
@@ -8016,7 +3677,7 @@
       <c r="AO24" t="s">
         <v>50</v>
       </c>
-      <c r="AP24" s="54">
+      <c r="AP24" s="51">
         <v>43486</v>
       </c>
     </row>
@@ -8090,7 +3751,7 @@
       <c r="AO25" t="s">
         <v>50</v>
       </c>
-      <c r="AP25" s="54">
+      <c r="AP25" s="51">
         <v>43472</v>
       </c>
     </row>
@@ -8149,7 +3810,7 @@
       <c r="AO26" t="s">
         <v>50</v>
       </c>
-      <c r="AP26" s="54">
+      <c r="AP26" s="51">
         <v>43475</v>
       </c>
     </row>
@@ -8208,7 +3869,7 @@
       <c r="AO27" t="s">
         <v>110</v>
       </c>
-      <c r="AP27" s="54">
+      <c r="AP27" s="51">
         <v>43490</v>
       </c>
     </row>
@@ -8288,7 +3949,7 @@
       <c r="AO28" t="s">
         <v>110</v>
       </c>
-      <c r="AP28" s="54">
+      <c r="AP28" s="51">
         <v>43478</v>
       </c>
     </row>
@@ -8356,7 +4017,7 @@
       <c r="AO29" t="s">
         <v>110</v>
       </c>
-      <c r="AP29" s="54">
+      <c r="AP29" s="51">
         <v>43492</v>
       </c>
     </row>
@@ -8424,7 +4085,7 @@
       <c r="AO30" t="s">
         <v>110</v>
       </c>
-      <c r="AP30" s="54">
+      <c r="AP30" s="51">
         <v>43493</v>
       </c>
     </row>
@@ -8507,7 +4168,7 @@
       <c r="AO31" t="s">
         <v>110</v>
       </c>
-      <c r="AP31" s="54">
+      <c r="AP31" s="51">
         <v>43478</v>
       </c>
     </row>
@@ -8590,7 +4251,7 @@
       <c r="AO32" t="s">
         <v>110</v>
       </c>
-      <c r="AP32" s="54">
+      <c r="AP32" s="51">
         <v>43482</v>
       </c>
     </row>
@@ -8655,7 +4316,7 @@
       <c r="AO33" t="s">
         <v>110</v>
       </c>
-      <c r="AP33" s="54">
+      <c r="AP33" s="51">
         <v>43478</v>
       </c>
     </row>
@@ -8714,7 +4375,7 @@
       <c r="AO34" t="s">
         <v>50</v>
       </c>
-      <c r="AP34" s="54">
+      <c r="AP34" s="51">
         <v>43448</v>
       </c>
     </row>
@@ -8788,7 +4449,7 @@
       <c r="AO35" t="s">
         <v>50</v>
       </c>
-      <c r="AP35" s="54">
+      <c r="AP35" s="51">
         <v>43448</v>
       </c>
     </row>
@@ -8856,7 +4517,7 @@
       <c r="AO36" t="s">
         <v>50</v>
       </c>
-      <c r="AP36" s="54">
+      <c r="AP36" s="51">
         <v>43463</v>
       </c>
     </row>
@@ -8924,7 +4585,7 @@
       <c r="AO37" t="s">
         <v>50</v>
       </c>
-      <c r="AP37" s="54">
+      <c r="AP37" s="51">
         <v>43443</v>
       </c>
     </row>
@@ -8992,7 +4653,7 @@
       <c r="AO38" t="s">
         <v>50</v>
       </c>
-      <c r="AP38" s="54">
+      <c r="AP38" s="51">
         <v>43458</v>
       </c>
     </row>
@@ -9060,7 +4721,7 @@
       <c r="AO39" t="s">
         <v>50</v>
       </c>
-      <c r="AP39" s="54">
+      <c r="AP39" s="51">
         <v>43451</v>
       </c>
     </row>
@@ -9143,7 +4804,7 @@
       <c r="AO40" t="s">
         <v>50</v>
       </c>
-      <c r="AP40" s="54">
+      <c r="AP40" s="51">
         <v>43449</v>
       </c>
     </row>
@@ -9226,7 +4887,7 @@
       <c r="AO41" t="s">
         <v>50</v>
       </c>
-      <c r="AP41" s="54">
+      <c r="AP41" s="51">
         <v>43448</v>
       </c>
     </row>
@@ -9285,7 +4946,7 @@
       <c r="AO42" t="s">
         <v>50</v>
       </c>
-      <c r="AP42" s="54">
+      <c r="AP42" s="51">
         <v>43465</v>
       </c>
     </row>
@@ -9344,7 +5005,7 @@
       <c r="AO43" t="s">
         <v>50</v>
       </c>
-      <c r="AP43" s="54">
+      <c r="AP43" s="51">
         <v>43444</v>
       </c>
     </row>
@@ -9412,7 +5073,7 @@
       <c r="AO44" t="s">
         <v>110</v>
       </c>
-      <c r="AP44" s="54">
+      <c r="AP44" s="51">
         <v>43449</v>
       </c>
     </row>
@@ -9471,7 +5132,7 @@
       <c r="AO45" t="s">
         <v>110</v>
       </c>
-      <c r="AP45" s="54">
+      <c r="AP45" s="51">
         <v>43443</v>
       </c>
     </row>
@@ -9539,7 +5200,7 @@
       <c r="AO46" t="s">
         <v>110</v>
       </c>
-      <c r="AP46" s="54">
+      <c r="AP46" s="51">
         <v>43463</v>
       </c>
     </row>
@@ -9598,7 +5259,7 @@
       <c r="AO47" t="s">
         <v>50</v>
       </c>
-      <c r="AP47" s="54">
+      <c r="AP47" s="51">
         <v>43498</v>
       </c>
     </row>
@@ -9666,7 +5327,7 @@
       <c r="AO48" t="s">
         <v>50</v>
       </c>
-      <c r="AP48" s="54">
+      <c r="AP48" s="51">
         <v>43500</v>
       </c>
     </row>
@@ -9749,7 +5410,7 @@
       <c r="AO49" t="s">
         <v>50</v>
       </c>
-      <c r="AP49" s="54">
+      <c r="AP49" s="51">
         <v>43516</v>
       </c>
     </row>
@@ -9832,7 +5493,7 @@
       <c r="AO50" t="s">
         <v>50</v>
       </c>
-      <c r="AP50" s="54">
+      <c r="AP50" s="51">
         <v>43502</v>
       </c>
     </row>
@@ -9915,7 +5576,7 @@
       <c r="AO51" t="s">
         <v>50</v>
       </c>
-      <c r="AP51" s="54">
+      <c r="AP51" s="51">
         <v>43514</v>
       </c>
     </row>
@@ -9983,7 +5644,7 @@
       <c r="AO52" t="s">
         <v>110</v>
       </c>
-      <c r="AP52" s="54">
+      <c r="AP52" s="51">
         <v>43500</v>
       </c>
     </row>
@@ -10048,7 +5709,7 @@
       <c r="AO53" t="s">
         <v>110</v>
       </c>
-      <c r="AP53" s="54">
+      <c r="AP53" s="51">
         <v>43499</v>
       </c>
     </row>
@@ -10116,7 +5777,7 @@
       <c r="AO54" t="s">
         <v>50</v>
       </c>
-      <c r="AP54" s="54">
+      <c r="AP54" s="51">
         <v>43402</v>
       </c>
     </row>
@@ -10175,7 +5836,7 @@
       <c r="AO55" t="s">
         <v>110</v>
       </c>
-      <c r="AP55" s="54">
+      <c r="AP55" s="51">
         <v>43394</v>
       </c>
     </row>
@@ -10243,7 +5904,7 @@
       <c r="AO56" t="s">
         <v>110</v>
       </c>
-      <c r="AP56" s="54">
+      <c r="AP56" s="51">
         <v>43395</v>
       </c>
     </row>
@@ -10311,7 +5972,7 @@
       <c r="AO57" t="s">
         <v>110</v>
       </c>
-      <c r="AP57" s="54">
+      <c r="AP57" s="51">
         <v>43387</v>
       </c>
     </row>
@@ -10385,7 +6046,7 @@
       <c r="AO58" t="s">
         <v>110</v>
       </c>
-      <c r="AP58" s="54">
+      <c r="AP58" s="51">
         <v>43395</v>
       </c>
     </row>
@@ -10474,7 +6135,7 @@
       <c r="AO59" t="s">
         <v>110</v>
       </c>
-      <c r="AP59" s="54">
+      <c r="AP59" s="51">
         <v>43392</v>
       </c>
     </row>
@@ -10548,7 +6209,7 @@
       <c r="AO60" t="s">
         <v>42</v>
       </c>
-      <c r="AP60" s="54">
+      <c r="AP60" s="51">
         <v>43368</v>
       </c>
     </row>
@@ -10616,7 +6277,7 @@
       <c r="AO61" t="s">
         <v>50</v>
       </c>
-      <c r="AP61" s="54">
+      <c r="AP61" s="51">
         <v>43372</v>
       </c>
     </row>
@@ -10714,7 +6375,7 @@
       <c r="AO62" t="s">
         <v>110</v>
       </c>
-      <c r="AP62" s="54">
+      <c r="AP62" s="51">
         <v>43358</v>
       </c>
     </row>
@@ -10730,8 +6391,8 @@
   </sheetPr>
   <dimension ref="A3:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10757,17 +6418,17 @@
       <c r="E3" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="34.5">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="8" spans="1:14">
       <c r="F8" s="5"/>
@@ -10800,8 +6461,8 @@
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>321</v>
+      <c r="I12" s="47" t="s">
+        <v>320</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="2"/>
@@ -10809,7 +6470,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="37" t="s">
         <v>310</v>
       </c>
       <c r="C13" s="5"/>
@@ -10829,7 +6490,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="21">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>311</v>
       </c>
       <c r="C14" s="11"/>
@@ -10845,7 +6506,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="11"/>
@@ -10863,7 +6524,7 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="41" t="s">
         <v>314</v>
       </c>
       <c r="C16" s="34"/>
@@ -10871,7 +6532,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="41" t="s">
         <v>312</v>
       </c>
       <c r="I16" s="11"/>
@@ -10879,15 +6540,15 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="B17" s="42" t="s">
-        <v>315</v>
+      <c r="B17" s="39" t="s">
+        <v>345</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="39" t="s">
         <v>313</v>
       </c>
       <c r="I17" s="34"/>
@@ -10907,13 +6568,13 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="17" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -10922,7 +6583,7 @@
       <c r="H19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="3"/>
@@ -10932,99 +6593,85 @@
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="H20" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="I20" s="36" t="s">
         <v>319</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,21,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" s="36" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,23,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" s="37" t="e">
-        <f t="shared" ref="I21:I24" si="0">H21*F21</f>
-        <v>#N/A</v>
+      <c r="B21" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="55" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,25,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,26,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,27,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="36" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,28,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="B22" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
-      <c r="B23" s="55" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,30,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,31,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,32,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="36" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,33,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I23" s="37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="B23" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>335</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -11032,28 +6679,23 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="B24" s="55" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,35,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,36,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="35" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,37,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="36" t="e">
-        <f>IF(VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,22,0)&lt;&gt;0,VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,38,0),  0 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I24" s="37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="B24" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -11064,9 +6706,9 @@
       <c r="H25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="47" t="e">
+      <c r="I25" s="44">
         <f>SUM(I20:I24)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
@@ -11083,7 +6725,7 @@
       <c r="H26" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="45" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="3"/>
@@ -11100,9 +6742,9 @@
       <c r="H27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="49" t="e">
+      <c r="I27" s="46">
         <f>I25</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -11130,9 +6772,8 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="45" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,14,0)</f>
-        <v>#N/A</v>
+      <c r="B30" s="42" t="s">
+        <v>341</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="26"/>
@@ -11152,7 +6793,7 @@
       <c r="H32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="48" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11162,7 +6803,7 @@
       <c r="H33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="49" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11172,7 +6813,7 @@
       <c r="H34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11202,7 +6843,7 @@
       <c r="H36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="48" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="1"/>
@@ -11221,9 +6862,8 @@
       <c r="H37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="38" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,10,0)</f>
-        <v>#N/A</v>
+      <c r="I37" s="57" t="s">
+        <v>342</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -11241,9 +6881,8 @@
       <c r="H38" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="38" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,11,0)</f>
-        <v>#N/A</v>
+      <c r="I38" s="57" t="s">
+        <v>343</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -11261,9 +6900,8 @@
       <c r="H39" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="39" t="e">
-        <f>VLOOKUP(I13,'[1]Tracking Sheet output'!$A$1:$AP$67,12,0)</f>
-        <v>#N/A</v>
+      <c r="I39" s="58" t="s">
+        <v>344</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>

--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="388">
   <si>
     <t>Date:</t>
   </si>
@@ -1110,17 +1110,142 @@
   </si>
   <si>
     <t>repexpcity</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>repExporter</t>
+  </si>
+  <si>
+    <t>cityOfRepExporter</t>
+  </si>
+  <si>
+    <t>exporter</t>
+  </si>
+  <si>
+    <t>cityOfExporter</t>
+  </si>
+  <si>
+    <t>importer</t>
+  </si>
+  <si>
+    <t>cityOfImporter</t>
+  </si>
+  <si>
+    <t>repImporter</t>
+  </si>
+  <si>
+    <t>cityOfrepImporter</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>laoding</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>amountToWord</t>
+  </si>
+  <si>
+    <t>p1name</t>
+  </si>
+  <si>
+    <t>p1qty</t>
+  </si>
+  <si>
+    <t>p1unit</t>
+  </si>
+  <si>
+    <t>p1unitp</t>
+  </si>
+  <si>
+    <t>p1total</t>
+  </si>
+  <si>
+    <t>p2name</t>
+  </si>
+  <si>
+    <t>p2qty</t>
+  </si>
+  <si>
+    <t>p2unit</t>
+  </si>
+  <si>
+    <t>p2unitp</t>
+  </si>
+  <si>
+    <t>p2total</t>
+  </si>
+  <si>
+    <t>p3name</t>
+  </si>
+  <si>
+    <t>p3qty</t>
+  </si>
+  <si>
+    <t>p3unit</t>
+  </si>
+  <si>
+    <t>p3unitp</t>
+  </si>
+  <si>
+    <t>p3total</t>
+  </si>
+  <si>
+    <t>p4name</t>
+  </si>
+  <si>
+    <t>p4qty</t>
+  </si>
+  <si>
+    <t>p4unit</t>
+  </si>
+  <si>
+    <t>p4unitp</t>
+  </si>
+  <si>
+    <t>p4total</t>
+  </si>
+  <si>
+    <t>p5name</t>
+  </si>
+  <si>
+    <t>p5qty</t>
+  </si>
+  <si>
+    <t>p5unit</t>
+  </si>
+  <si>
+    <t>p5unitp</t>
+  </si>
+  <si>
+    <t>p5total</t>
+  </si>
+  <si>
+    <t>numOfClient</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$AED]\ * #,##0.00_);_([$AED]\ * \(#,##0.00\);_([$AED]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-[$AED]\ * #,##0.00_-;\-[$AED]\ * #,##0.00_-;_-[$AED]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1532,9 +1657,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1579,9 +1701,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1602,18 +1721,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1627,6 +1734,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1643,22 +1763,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2098,103 +2223,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP62"/>
+  <dimension ref="A1:AP63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1">
-        <v>420646.24</v>
+        <v>357</v>
+      </c>
+      <c r="M1" t="s">
+        <v>358</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1">
-        <v>61</v>
+        <v>360</v>
+      </c>
+      <c r="P1" t="s">
+        <v>361</v>
       </c>
       <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1">
-        <v>895.52</v>
-      </c>
-      <c r="S1">
-        <v>54626.720000000001</v>
+        <v>362</v>
+      </c>
+      <c r="R1" t="s">
+        <v>363</v>
+      </c>
+      <c r="S1" t="s">
+        <v>364</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1">
-        <v>6</v>
+        <v>365</v>
+      </c>
+      <c r="U1" t="s">
+        <v>366</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1">
-        <v>61003.25</v>
-      </c>
-      <c r="X1">
-        <v>366019.52</v>
+        <v>367</v>
+      </c>
+      <c r="W1" t="s">
+        <v>368</v>
+      </c>
+      <c r="X1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>385</v>
       </c>
       <c r="AO1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="51">
-        <v>43433</v>
+        <v>386</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -2209,48 +2388,63 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
       </c>
       <c r="M2">
-        <v>80000</v>
+        <v>420646.24</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>800</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>895.52</v>
       </c>
       <c r="S2">
-        <v>80000</v>
+        <v>54626.720000000001</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2">
+        <v>61003.25</v>
+      </c>
+      <c r="X2">
+        <v>366019.52</v>
       </c>
       <c r="AO2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" s="51">
-        <v>43424</v>
+        <v>42</v>
+      </c>
+      <c r="AP2" s="45">
+        <v>43433</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -2277,42 +2471,42 @@
         <v>35</v>
       </c>
       <c r="M3">
-        <v>113494.44</v>
+        <v>80000</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P3">
-        <v>2026</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>56.02</v>
+        <v>100</v>
       </c>
       <c r="S3">
-        <v>113494.44</v>
+        <v>80000</v>
       </c>
       <c r="AO3" t="s">
         <v>50</v>
       </c>
-      <c r="AP3" s="51">
+      <c r="AP3" s="45">
         <v>43424</v>
       </c>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -2327,51 +2521,51 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
       </c>
       <c r="M4">
-        <v>100000</v>
+        <v>113494.44</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P4">
-        <v>1000</v>
+        <v>2026</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>56.02</v>
       </c>
       <c r="S4">
-        <v>100000</v>
+        <v>113494.44</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
-      <c r="AP4" s="51">
-        <v>43430</v>
+      <c r="AP4" s="45">
+        <v>43424</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -2386,57 +2580,51 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
       <c r="M5">
-        <v>41601.599999999999</v>
+        <v>100000</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P5">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="R5">
-        <v>2080.08</v>
+        <v>100</v>
       </c>
       <c r="S5">
-        <v>41601.599999999999</v>
+        <v>100000</v>
       </c>
       <c r="AO5" t="s">
         <v>50</v>
       </c>
-      <c r="AP5" s="51">
-        <v>43424</v>
+      <c r="AP5" s="45">
+        <v>43430</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -2451,48 +2639,45 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
       </c>
       <c r="M6">
-        <v>70000</v>
+        <v>41601.599999999999</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P6">
-        <v>1272</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R6">
-        <v>55.03</v>
+        <v>2080.08</v>
       </c>
       <c r="S6">
-        <v>70000</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>75</v>
+        <v>41601.599999999999</v>
       </c>
       <c r="AO6" t="s">
         <v>50</v>
       </c>
-      <c r="AP6" s="51">
-        <v>43414</v>
+      <c r="AP6" s="45">
+        <v>43424</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -2528,25 +2713,25 @@
         <v>35</v>
       </c>
       <c r="M7">
-        <v>107317.45</v>
+        <v>70000</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P7">
-        <v>178</v>
+        <v>1272</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R7">
-        <v>602.91</v>
+        <v>55.03</v>
       </c>
       <c r="S7">
-        <v>107317.45</v>
+        <v>70000</v>
       </c>
       <c r="AN7" t="s">
         <v>75</v>
@@ -2554,13 +2739,13 @@
       <c r="AO7" t="s">
         <v>50</v>
       </c>
-      <c r="AP7" s="51">
-        <v>43434</v>
+      <c r="AP7" s="45">
+        <v>43414</v>
       </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -2596,40 +2781,25 @@
         <v>35</v>
       </c>
       <c r="M8">
-        <v>710000</v>
+        <v>107317.45</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P8">
-        <v>4333</v>
+        <v>178</v>
       </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R8">
-        <v>101.12</v>
+        <v>602.91</v>
       </c>
       <c r="S8">
-        <v>438152.96000000002</v>
-      </c>
-      <c r="T8" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8">
-        <v>2718</v>
-      </c>
-      <c r="V8" t="s">
-        <v>49</v>
-      </c>
-      <c r="W8">
-        <v>100.02</v>
-      </c>
-      <c r="X8">
-        <v>271847.03999999998</v>
+        <v>107317.45</v>
       </c>
       <c r="AN8" t="s">
         <v>75</v>
@@ -2637,19 +2807,25 @@
       <c r="AO8" t="s">
         <v>50</v>
       </c>
-      <c r="AP8" s="51">
-        <v>43424</v>
+      <c r="AP8" s="45">
+        <v>43434</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -2667,48 +2843,66 @@
         <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
       </c>
       <c r="M9">
-        <v>15000</v>
+        <v>710000</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>4333</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R9">
-        <v>454.55</v>
+        <v>101.12</v>
       </c>
       <c r="S9">
-        <v>15000</v>
+        <v>438152.96000000002</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9">
+        <v>2718</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9">
+        <v>100.02</v>
+      </c>
+      <c r="X9">
+        <v>271847.03999999998</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
       </c>
       <c r="AO9" t="s">
         <v>50</v>
       </c>
-      <c r="AP9" s="51">
+      <c r="AP9" s="45">
         <v>43424</v>
       </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2723,48 +2917,48 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
       </c>
       <c r="M10">
-        <v>35532</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
         <v>87</v>
       </c>
       <c r="P10">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="s">
         <v>79</v>
       </c>
       <c r="R10">
-        <v>455.54</v>
+        <v>454.55</v>
       </c>
       <c r="S10">
-        <v>35532</v>
+        <v>15000</v>
       </c>
       <c r="AO10" t="s">
         <v>50</v>
       </c>
-      <c r="AP10" s="51">
+      <c r="AP10" s="45">
         <v>43424</v>
       </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -2791,48 +2985,42 @@
         <v>35</v>
       </c>
       <c r="M11">
-        <v>38970</v>
+        <v>35532</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R11">
-        <v>2435.62</v>
+        <v>455.54</v>
       </c>
       <c r="S11">
-        <v>38970</v>
+        <v>35532</v>
       </c>
       <c r="AO11" t="s">
         <v>50</v>
       </c>
-      <c r="AP11" s="51">
+      <c r="AP11" s="45">
         <v>43424</v>
       </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -2847,51 +3035,57 @@
         <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
       </c>
       <c r="M12">
-        <v>45980</v>
+        <v>38970</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q12" t="s">
         <v>65</v>
       </c>
       <c r="R12">
-        <v>15326.67</v>
+        <v>2435.62</v>
       </c>
       <c r="S12">
-        <v>45980</v>
+        <v>38970</v>
       </c>
       <c r="AO12" t="s">
         <v>50</v>
       </c>
-      <c r="AP12" s="51">
-        <v>43423</v>
+      <c r="AP12" s="45">
+        <v>43424</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -2906,57 +3100,51 @@
         <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
       </c>
       <c r="M13">
-        <v>20367.599999999999</v>
+        <v>45980</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P13">
-        <v>581</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="R13">
-        <v>35.06</v>
+        <v>15326.67</v>
       </c>
       <c r="S13">
-        <v>20367.599999999999</v>
+        <v>45980</v>
       </c>
       <c r="AO13" t="s">
         <v>50</v>
       </c>
-      <c r="AP13" s="51">
-        <v>43424</v>
+      <c r="AP13" s="45">
+        <v>43423</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -2971,48 +3159,45 @@
         <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
         <v>35</v>
       </c>
       <c r="M14">
-        <v>7513.3</v>
+        <v>20367.599999999999</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P14">
-        <v>8</v>
+        <v>581</v>
       </c>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="R14">
-        <v>939.16</v>
+        <v>35.06</v>
       </c>
       <c r="S14">
-        <v>7513.3</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>75</v>
+        <v>20367.599999999999</v>
       </c>
       <c r="AO14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP14" s="51">
-        <v>43434</v>
+        <v>50</v>
+      </c>
+      <c r="AP14" s="45">
+        <v>43424</v>
       </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -3048,39 +3233,39 @@
         <v>35</v>
       </c>
       <c r="M15">
-        <v>4950</v>
+        <v>7513.3</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P15">
-        <v>374</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="R15">
-        <v>13.24</v>
+        <v>939.16</v>
       </c>
       <c r="S15">
-        <v>4950</v>
+        <v>7513.3</v>
       </c>
       <c r="AN15" t="s">
         <v>75</v>
       </c>
       <c r="AO15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP15" s="51">
-        <v>43490</v>
+        <v>110</v>
+      </c>
+      <c r="AP15" s="45">
+        <v>43434</v>
       </c>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -3116,25 +3301,25 @@
         <v>35</v>
       </c>
       <c r="M16">
-        <v>12100</v>
+        <v>4950</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P16">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="R16">
-        <v>100</v>
+        <v>13.24</v>
       </c>
       <c r="S16">
-        <v>12100</v>
+        <v>4950</v>
       </c>
       <c r="AN16" t="s">
         <v>75</v>
@@ -3142,19 +3327,25 @@
       <c r="AO16" t="s">
         <v>50</v>
       </c>
-      <c r="AP16" s="51">
-        <v>43483</v>
+      <c r="AP16" s="45">
+        <v>43490</v>
       </c>
     </row>
     <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -3169,57 +3360,54 @@
         <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
       </c>
       <c r="M17">
-        <v>49855</v>
+        <v>12100</v>
       </c>
       <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17">
         <v>121</v>
       </c>
-      <c r="O17" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17">
-        <v>623</v>
-      </c>
       <c r="Q17" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="R17">
-        <v>80.02</v>
+        <v>100</v>
       </c>
       <c r="S17">
-        <v>49855</v>
+        <v>12100</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
       </c>
       <c r="AO17" t="s">
         <v>50</v>
       </c>
-      <c r="AP17" s="51">
-        <v>43479</v>
+      <c r="AP17" s="45">
+        <v>43483</v>
       </c>
     </row>
     <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -3234,51 +3422,57 @@
         <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L18" t="s">
         <v>35</v>
       </c>
       <c r="M18">
-        <v>60717</v>
+        <v>49855</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P18">
-        <v>67</v>
+        <v>623</v>
       </c>
       <c r="Q18" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="R18">
-        <v>906.22</v>
+        <v>80.02</v>
       </c>
       <c r="S18">
-        <v>60717</v>
+        <v>49855</v>
       </c>
       <c r="AO18" t="s">
         <v>50</v>
       </c>
-      <c r="AP18" s="51">
-        <v>43486</v>
+      <c r="AP18" s="45">
+        <v>43479</v>
       </c>
     </row>
     <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -3293,57 +3487,51 @@
         <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
       </c>
       <c r="M19">
-        <v>134707</v>
+        <v>60717</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P19">
-        <v>2245</v>
+        <v>67</v>
       </c>
       <c r="Q19" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="R19">
-        <v>60</v>
+        <v>906.22</v>
       </c>
       <c r="S19">
-        <v>134707</v>
+        <v>60717</v>
       </c>
       <c r="AO19" t="s">
         <v>50</v>
       </c>
-      <c r="AP19" s="51">
-        <v>43479</v>
+      <c r="AP19" s="45">
+        <v>43486</v>
       </c>
     </row>
     <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -3358,48 +3546,45 @@
         <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s">
         <v>35</v>
       </c>
       <c r="M20">
-        <v>200000</v>
+        <v>134707</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="P20">
-        <v>333</v>
+        <v>2245</v>
       </c>
       <c r="Q20" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R20">
-        <v>600.6</v>
+        <v>60</v>
       </c>
       <c r="S20">
-        <v>200000</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>75</v>
+        <v>134707</v>
       </c>
       <c r="AO20" t="s">
         <v>50</v>
       </c>
-      <c r="AP20" s="51">
-        <v>43472</v>
+      <c r="AP20" s="45">
+        <v>43479</v>
       </c>
     </row>
     <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -3435,40 +3620,25 @@
         <v>35</v>
       </c>
       <c r="M21">
-        <v>499332.6</v>
+        <v>200000</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="Q21" t="s">
         <v>79</v>
       </c>
       <c r="R21">
-        <v>11235.96</v>
+        <v>600.6</v>
       </c>
       <c r="S21">
-        <v>44943.839999999997</v>
-      </c>
-      <c r="T21" t="s">
-        <v>140</v>
-      </c>
-      <c r="U21">
-        <v>757</v>
-      </c>
-      <c r="V21" t="s">
-        <v>79</v>
-      </c>
-      <c r="W21">
-        <v>600.25</v>
-      </c>
-      <c r="X21">
-        <v>454388.76</v>
+        <v>200000</v>
       </c>
       <c r="AN21" t="s">
         <v>75</v>
@@ -3476,13 +3646,13 @@
       <c r="AO21" t="s">
         <v>50</v>
       </c>
-      <c r="AP21" s="51">
-        <v>43490</v>
+      <c r="AP21" s="45">
+        <v>43472</v>
       </c>
     </row>
     <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -3518,40 +3688,40 @@
         <v>35</v>
       </c>
       <c r="M22">
-        <v>500000</v>
+        <v>499332.6</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P22">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="R22">
-        <v>1348.31</v>
+        <v>11235.96</v>
       </c>
       <c r="S22">
-        <v>272358.62</v>
+        <v>44943.839999999997</v>
       </c>
       <c r="T22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U22">
-        <v>3252</v>
+        <v>757</v>
       </c>
       <c r="V22" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="W22">
-        <v>70</v>
+        <v>600.25</v>
       </c>
       <c r="X22">
-        <v>227641.38</v>
+        <v>454388.76</v>
       </c>
       <c r="AN22" t="s">
         <v>75</v>
@@ -3559,19 +3729,25 @@
       <c r="AO22" t="s">
         <v>50</v>
       </c>
-      <c r="AP22" s="51">
-        <v>43479</v>
+      <c r="AP22" s="45">
+        <v>43490</v>
       </c>
     </row>
     <row r="23" spans="1:42">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -3586,51 +3762,69 @@
         <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
       </c>
       <c r="M23">
-        <v>107010</v>
+        <v>500000</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P23">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="Q23" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R23">
-        <v>2432.0500000000002</v>
+        <v>1348.31</v>
       </c>
       <c r="S23">
-        <v>107010</v>
+        <v>272358.62</v>
+      </c>
+      <c r="T23" t="s">
+        <v>144</v>
+      </c>
+      <c r="U23">
+        <v>3252</v>
+      </c>
+      <c r="V23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23">
+        <v>70</v>
+      </c>
+      <c r="X23">
+        <v>227641.38</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>75</v>
       </c>
       <c r="AO23" t="s">
         <v>50</v>
       </c>
-      <c r="AP23" s="51">
-        <v>43484</v>
+      <c r="AP23" s="45">
+        <v>43479</v>
       </c>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -3645,51 +3839,51 @@
         <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s">
         <v>35</v>
       </c>
       <c r="M24">
-        <v>100010</v>
+        <v>107010</v>
       </c>
       <c r="N24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P24">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="R24">
-        <v>1204.94</v>
+        <v>2432.0500000000002</v>
       </c>
       <c r="S24">
-        <v>100010</v>
+        <v>107010</v>
       </c>
       <c r="AO24" t="s">
         <v>50</v>
       </c>
-      <c r="AP24" s="51">
-        <v>43486</v>
+      <c r="AP24" s="45">
+        <v>43484</v>
       </c>
     </row>
     <row r="25" spans="1:42">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -3704,66 +3898,51 @@
         <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L25" t="s">
         <v>35</v>
       </c>
       <c r="M25">
-        <v>432020</v>
+        <v>100010</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R25">
-        <v>730.34</v>
+        <v>1204.94</v>
       </c>
       <c r="S25">
-        <v>730.34</v>
-      </c>
-      <c r="T25" t="s">
-        <v>161</v>
-      </c>
-      <c r="U25">
-        <v>7188</v>
-      </c>
-      <c r="V25" t="s">
-        <v>49</v>
-      </c>
-      <c r="W25">
-        <v>60</v>
-      </c>
-      <c r="X25">
-        <v>431289.66</v>
+        <v>100010</v>
       </c>
       <c r="AO25" t="s">
         <v>50</v>
       </c>
-      <c r="AP25" s="51">
-        <v>43472</v>
+      <c r="AP25" s="45">
+        <v>43486</v>
       </c>
     </row>
     <row r="26" spans="1:42">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -3778,51 +3957,66 @@
         <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s">
         <v>35</v>
       </c>
       <c r="M26">
-        <v>75504.08</v>
+        <v>432020</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P26">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="s">
         <v>79</v>
       </c>
       <c r="R26">
-        <v>3973.9</v>
+        <v>730.34</v>
       </c>
       <c r="S26">
-        <v>75504.08</v>
+        <v>730.34</v>
+      </c>
+      <c r="T26" t="s">
+        <v>161</v>
+      </c>
+      <c r="U26">
+        <v>7188</v>
+      </c>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26">
+        <v>60</v>
+      </c>
+      <c r="X26">
+        <v>431289.66</v>
       </c>
       <c r="AO26" t="s">
         <v>50</v>
       </c>
-      <c r="AP26" s="51">
-        <v>43475</v>
+      <c r="AP26" s="45">
+        <v>43472</v>
       </c>
     </row>
     <row r="27" spans="1:42">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -3837,57 +4031,51 @@
         <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s">
         <v>35</v>
       </c>
       <c r="M27">
-        <v>100000</v>
+        <v>75504.08</v>
       </c>
       <c r="N27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P27">
-        <v>4000</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="R27">
-        <v>25</v>
+        <v>3973.9</v>
       </c>
       <c r="S27">
-        <v>100000</v>
+        <v>75504.08</v>
       </c>
       <c r="AO27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP27" s="51">
-        <v>43490</v>
+        <v>50</v>
+      </c>
+      <c r="AP27" s="45">
+        <v>43475</v>
       </c>
     </row>
     <row r="28" spans="1:42">
       <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -3902,72 +4090,57 @@
         <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s">
         <v>35</v>
       </c>
       <c r="M28">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P28">
-        <v>480</v>
+        <v>4000</v>
       </c>
       <c r="Q28" t="s">
         <v>49</v>
       </c>
       <c r="R28">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="S28">
-        <v>72000</v>
-      </c>
-      <c r="T28" t="s">
-        <v>180</v>
-      </c>
-      <c r="U28">
-        <v>216</v>
-      </c>
-      <c r="V28" t="s">
-        <v>79</v>
-      </c>
-      <c r="W28">
-        <v>500</v>
-      </c>
-      <c r="X28">
-        <v>108000</v>
+        <v>100000</v>
       </c>
       <c r="AO28" t="s">
         <v>110</v>
       </c>
-      <c r="AP28" s="51">
-        <v>43478</v>
+      <c r="AP28" s="45">
+        <v>43490</v>
       </c>
     </row>
     <row r="29" spans="1:42">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -3982,48 +4155,60 @@
         <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="K29" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
         <v>35</v>
       </c>
       <c r="M29">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="N29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P29">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="Q29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R29">
-        <v>769.23</v>
+        <v>150</v>
       </c>
       <c r="S29">
-        <v>10000</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>75</v>
+        <v>72000</v>
+      </c>
+      <c r="T29" t="s">
+        <v>180</v>
+      </c>
+      <c r="U29">
+        <v>216</v>
+      </c>
+      <c r="V29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W29">
+        <v>500</v>
+      </c>
+      <c r="X29">
+        <v>108000</v>
       </c>
       <c r="AO29" t="s">
         <v>110</v>
       </c>
-      <c r="AP29" s="51">
-        <v>43492</v>
+      <c r="AP29" s="45">
+        <v>43478</v>
       </c>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -4059,25 +4244,25 @@
         <v>35</v>
       </c>
       <c r="M30">
-        <v>117503</v>
+        <v>10000</v>
       </c>
       <c r="N30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O30" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="P30">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="Q30" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R30">
-        <v>652.79</v>
+        <v>769.23</v>
       </c>
       <c r="S30">
-        <v>117503</v>
+        <v>10000</v>
       </c>
       <c r="AN30" t="s">
         <v>75</v>
@@ -4085,13 +4270,13 @@
       <c r="AO30" t="s">
         <v>110</v>
       </c>
-      <c r="AP30" s="51">
-        <v>43493</v>
+      <c r="AP30" s="45">
+        <v>43492</v>
       </c>
     </row>
     <row r="31" spans="1:42">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -4127,40 +4312,25 @@
         <v>35</v>
       </c>
       <c r="M31">
-        <v>300000</v>
+        <v>117503</v>
       </c>
       <c r="N31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O31" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="Q31" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R31">
-        <v>8000</v>
+        <v>652.79</v>
       </c>
       <c r="S31">
-        <v>24000</v>
-      </c>
-      <c r="T31" t="s">
-        <v>189</v>
-      </c>
-      <c r="U31">
-        <v>5520</v>
-      </c>
-      <c r="V31" t="s">
-        <v>49</v>
-      </c>
-      <c r="W31">
-        <v>50</v>
-      </c>
-      <c r="X31">
-        <v>276000</v>
+        <v>117503</v>
       </c>
       <c r="AN31" t="s">
         <v>75</v>
@@ -4168,13 +4338,13 @@
       <c r="AO31" t="s">
         <v>110</v>
       </c>
-      <c r="AP31" s="51">
-        <v>43478</v>
+      <c r="AP31" s="45">
+        <v>43493</v>
       </c>
     </row>
     <row r="32" spans="1:42">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -4216,34 +4386,34 @@
         <v>187</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="P32">
-        <v>2045</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="R32">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="S32">
-        <v>204500</v>
+        <v>24000</v>
       </c>
       <c r="T32" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="U32">
-        <v>1061</v>
+        <v>5520</v>
       </c>
       <c r="V32" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="W32">
-        <v>90.01</v>
+        <v>50</v>
       </c>
       <c r="X32">
-        <v>95500</v>
+        <v>276000</v>
       </c>
       <c r="AN32" t="s">
         <v>75</v>
@@ -4251,25 +4421,25 @@
       <c r="AO32" t="s">
         <v>110</v>
       </c>
-      <c r="AP32" s="51">
-        <v>43482</v>
+      <c r="AP32" s="45">
+        <v>43478</v>
       </c>
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -4284,51 +4454,75 @@
         <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="L33" t="s">
         <v>35</v>
       </c>
       <c r="M33">
-        <v>139932</v>
+        <v>300000</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O33" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="P33">
-        <v>205</v>
+        <v>2045</v>
       </c>
       <c r="Q33" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="R33">
-        <v>682.6</v>
+        <v>100</v>
       </c>
       <c r="S33">
-        <v>139932</v>
+        <v>204500</v>
+      </c>
+      <c r="T33" t="s">
+        <v>82</v>
+      </c>
+      <c r="U33">
+        <v>1061</v>
+      </c>
+      <c r="V33" t="s">
+        <v>65</v>
+      </c>
+      <c r="W33">
+        <v>90.01</v>
+      </c>
+      <c r="X33">
+        <v>95500</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>75</v>
       </c>
       <c r="AO33" t="s">
         <v>110</v>
       </c>
-      <c r="AP33" s="51">
-        <v>43478</v>
+      <c r="AP33" s="45">
+        <v>43482</v>
       </c>
     </row>
     <row r="34" spans="1:42">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -4343,51 +4537,51 @@
         <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s">
         <v>35</v>
       </c>
       <c r="M34">
-        <v>18640</v>
+        <v>139932</v>
       </c>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O34" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P34">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="R34">
-        <v>70.08</v>
+        <v>682.6</v>
       </c>
       <c r="S34">
-        <v>18640</v>
+        <v>139932</v>
       </c>
       <c r="AO34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP34" s="51">
-        <v>43448</v>
+        <v>110</v>
+      </c>
+      <c r="AP34" s="45">
+        <v>43478</v>
       </c>
     </row>
     <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -4402,72 +4596,51 @@
         <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s">
         <v>35</v>
       </c>
       <c r="M35">
-        <v>270536</v>
+        <v>18640</v>
       </c>
       <c r="N35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P35">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="Q35" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="R35">
-        <v>786.52</v>
+        <v>70.08</v>
       </c>
       <c r="S35">
-        <v>22809.08</v>
-      </c>
-      <c r="T35" t="s">
-        <v>206</v>
-      </c>
-      <c r="U35">
-        <v>3096</v>
-      </c>
-      <c r="V35" t="s">
-        <v>49</v>
-      </c>
-      <c r="W35">
-        <v>80.02</v>
-      </c>
-      <c r="X35">
-        <v>247726.92</v>
+        <v>18640</v>
       </c>
       <c r="AO35" t="s">
         <v>50</v>
       </c>
-      <c r="AP35" s="51">
+      <c r="AP35" s="45">
         <v>43448</v>
       </c>
     </row>
     <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -4482,48 +4655,60 @@
         <v>31</v>
       </c>
       <c r="J36" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L36" t="s">
         <v>35</v>
       </c>
       <c r="M36">
-        <v>29588</v>
+        <v>270536</v>
       </c>
       <c r="N36" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P36">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="R36">
-        <v>100.3</v>
+        <v>786.52</v>
       </c>
       <c r="S36">
-        <v>29588</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>75</v>
+        <v>22809.08</v>
+      </c>
+      <c r="T36" t="s">
+        <v>206</v>
+      </c>
+      <c r="U36">
+        <v>3096</v>
+      </c>
+      <c r="V36" t="s">
+        <v>49</v>
+      </c>
+      <c r="W36">
+        <v>80.02</v>
+      </c>
+      <c r="X36">
+        <v>247726.92</v>
       </c>
       <c r="AO36" t="s">
         <v>50</v>
       </c>
-      <c r="AP36" s="51">
-        <v>43463</v>
+      <c r="AP36" s="45">
+        <v>43448</v>
       </c>
     </row>
     <row r="37" spans="1:42">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -4559,25 +4744,25 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>96000</v>
+        <v>29588</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O37" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="P37">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="Q37" t="s">
         <v>40</v>
       </c>
       <c r="R37">
-        <v>750</v>
+        <v>100.3</v>
       </c>
       <c r="S37">
-        <v>96000</v>
+        <v>29588</v>
       </c>
       <c r="AN37" t="s">
         <v>75</v>
@@ -4585,13 +4770,13 @@
       <c r="AO37" t="s">
         <v>50</v>
       </c>
-      <c r="AP37" s="51">
-        <v>43443</v>
+      <c r="AP37" s="45">
+        <v>43463</v>
       </c>
     </row>
     <row r="38" spans="1:42">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -4627,25 +4812,25 @@
         <v>35</v>
       </c>
       <c r="M38">
-        <v>179279</v>
+        <v>96000</v>
       </c>
       <c r="N38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O38" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="P38">
-        <v>2636</v>
+        <v>128</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R38">
-        <v>68.010000000000005</v>
+        <v>750</v>
       </c>
       <c r="S38">
-        <v>179279</v>
+        <v>96000</v>
       </c>
       <c r="AN38" t="s">
         <v>75</v>
@@ -4653,13 +4838,13 @@
       <c r="AO38" t="s">
         <v>50</v>
       </c>
-      <c r="AP38" s="51">
-        <v>43458</v>
+      <c r="AP38" s="45">
+        <v>43443</v>
       </c>
     </row>
     <row r="39" spans="1:42">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -4695,25 +4880,25 @@
         <v>35</v>
       </c>
       <c r="M39">
-        <v>182016.6</v>
+        <v>179279</v>
       </c>
       <c r="N39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P39">
-        <v>2022</v>
+        <v>2636</v>
       </c>
       <c r="Q39" t="s">
         <v>49</v>
       </c>
       <c r="R39">
-        <v>90.02</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="S39">
-        <v>182016.6</v>
+        <v>179279</v>
       </c>
       <c r="AN39" t="s">
         <v>75</v>
@@ -4721,13 +4906,13 @@
       <c r="AO39" t="s">
         <v>50</v>
       </c>
-      <c r="AP39" s="51">
-        <v>43451</v>
+      <c r="AP39" s="45">
+        <v>43458</v>
       </c>
     </row>
     <row r="40" spans="1:42">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -4763,40 +4948,25 @@
         <v>35</v>
       </c>
       <c r="M40">
-        <v>302611.44</v>
+        <v>182016.6</v>
       </c>
       <c r="N40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P40">
-        <v>300</v>
+        <v>2022</v>
       </c>
       <c r="Q40" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="R40">
-        <v>505.62</v>
+        <v>90.02</v>
       </c>
       <c r="S40">
-        <v>151686</v>
-      </c>
-      <c r="T40" t="s">
-        <v>39</v>
-      </c>
-      <c r="U40">
-        <v>125</v>
-      </c>
-      <c r="V40" t="s">
-        <v>40</v>
-      </c>
-      <c r="W40">
-        <v>1207.4000000000001</v>
-      </c>
-      <c r="X40">
-        <v>150925.44</v>
+        <v>182016.6</v>
       </c>
       <c r="AN40" t="s">
         <v>75</v>
@@ -4804,13 +4974,13 @@
       <c r="AO40" t="s">
         <v>50</v>
       </c>
-      <c r="AP40" s="51">
-        <v>43449</v>
+      <c r="AP40" s="45">
+        <v>43451</v>
       </c>
     </row>
     <row r="41" spans="1:42">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -4846,40 +5016,40 @@
         <v>35</v>
       </c>
       <c r="M41">
-        <v>470500</v>
+        <v>302611.44</v>
       </c>
       <c r="N41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P41">
-        <v>688</v>
+        <v>300</v>
       </c>
       <c r="Q41" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R41">
-        <v>337.08</v>
+        <v>505.62</v>
       </c>
       <c r="S41">
-        <v>231911.04000000001</v>
+        <v>151686</v>
       </c>
       <c r="T41" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="U41">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="V41" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="W41">
-        <v>4337.9799999999996</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="X41">
-        <v>238588.96</v>
+        <v>150925.44</v>
       </c>
       <c r="AN41" t="s">
         <v>75</v>
@@ -4887,19 +5057,25 @@
       <c r="AO41" t="s">
         <v>50</v>
       </c>
-      <c r="AP41" s="51">
-        <v>43448</v>
+      <c r="AP41" s="45">
+        <v>43449</v>
       </c>
     </row>
     <row r="42" spans="1:42">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -4914,51 +5090,69 @@
         <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s">
         <v>35</v>
       </c>
       <c r="M42">
-        <v>58184</v>
+        <v>470500</v>
       </c>
       <c r="N42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O42" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P42">
-        <v>484</v>
+        <v>688</v>
       </c>
       <c r="Q42" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="R42">
-        <v>120.21</v>
+        <v>337.08</v>
       </c>
       <c r="S42">
-        <v>58184</v>
+        <v>231911.04000000001</v>
+      </c>
+      <c r="T42" t="s">
+        <v>224</v>
+      </c>
+      <c r="U42">
+        <v>55</v>
+      </c>
+      <c r="V42" t="s">
+        <v>79</v>
+      </c>
+      <c r="W42">
+        <v>4337.9799999999996</v>
+      </c>
+      <c r="X42">
+        <v>238588.96</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>75</v>
       </c>
       <c r="AO42" t="s">
         <v>50</v>
       </c>
-      <c r="AP42" s="51">
-        <v>43465</v>
+      <c r="AP42" s="45">
+        <v>43448</v>
       </c>
     </row>
     <row r="43" spans="1:42">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
@@ -4973,57 +5167,51 @@
         <v>31</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="K43" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="L43" t="s">
         <v>35</v>
       </c>
       <c r="M43">
-        <v>177906.42</v>
+        <v>58184</v>
       </c>
       <c r="N43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P43">
-        <v>3535</v>
+        <v>484</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R43">
-        <v>50.33</v>
+        <v>120.21</v>
       </c>
       <c r="S43">
-        <v>177906.42</v>
+        <v>58184</v>
       </c>
       <c r="AO43" t="s">
         <v>50</v>
       </c>
-      <c r="AP43" s="51">
-        <v>43444</v>
+      <c r="AP43" s="45">
+        <v>43465</v>
       </c>
     </row>
     <row r="44" spans="1:42">
       <c r="A44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
@@ -5038,54 +5226,57 @@
         <v>31</v>
       </c>
       <c r="J44" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K44" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="L44" t="s">
         <v>35</v>
       </c>
       <c r="M44">
-        <v>16103.61</v>
+        <v>177906.42</v>
       </c>
       <c r="N44" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O44" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="P44">
-        <v>161</v>
+        <v>3535</v>
       </c>
       <c r="Q44" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="R44">
-        <v>100.02</v>
+        <v>50.33</v>
       </c>
       <c r="S44">
-        <v>16103.61</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>75</v>
+        <v>177906.42</v>
       </c>
       <c r="AO44" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP44" s="51">
-        <v>43449</v>
+        <v>50</v>
+      </c>
+      <c r="AP44" s="45">
+        <v>43444</v>
       </c>
     </row>
     <row r="45" spans="1:42">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
@@ -5100,57 +5291,54 @@
         <v>31</v>
       </c>
       <c r="J45" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="L45" t="s">
         <v>35</v>
       </c>
       <c r="M45">
-        <v>50000</v>
+        <v>16103.61</v>
       </c>
       <c r="N45" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O45" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="P45">
-        <v>333</v>
+        <v>161</v>
       </c>
       <c r="Q45" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="R45">
-        <v>150.15</v>
+        <v>100.02</v>
       </c>
       <c r="S45">
-        <v>50000</v>
+        <v>16103.61</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>75</v>
       </c>
       <c r="AO45" t="s">
         <v>110</v>
       </c>
-      <c r="AP45" s="51">
-        <v>43443</v>
+      <c r="AP45" s="45">
+        <v>43449</v>
       </c>
     </row>
     <row r="46" spans="1:42">
       <c r="A46" t="s">
-        <v>239</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -5165,54 +5353,57 @@
         <v>31</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="L46" t="s">
         <v>35</v>
       </c>
       <c r="M46">
-        <v>210000</v>
+        <v>50000</v>
       </c>
       <c r="N46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O46" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="P46">
-        <v>2100</v>
+        <v>333</v>
       </c>
       <c r="Q46" t="s">
         <v>49</v>
       </c>
       <c r="R46">
-        <v>100</v>
+        <v>150.15</v>
       </c>
       <c r="S46">
-        <v>210000</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>75</v>
+        <v>50000</v>
       </c>
       <c r="AO46" t="s">
         <v>110</v>
       </c>
-      <c r="AP46" s="51">
-        <v>43463</v>
+      <c r="AP46" s="45">
+        <v>43443</v>
       </c>
     </row>
     <row r="47" spans="1:42">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
@@ -5227,57 +5418,54 @@
         <v>31</v>
       </c>
       <c r="J47" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="L47" t="s">
         <v>35</v>
       </c>
       <c r="M47">
-        <v>88000</v>
+        <v>210000</v>
       </c>
       <c r="N47" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O47" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="P47">
-        <v>176</v>
+        <v>2100</v>
       </c>
       <c r="Q47" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="R47">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="S47">
-        <v>88000</v>
+        <v>210000</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>75</v>
       </c>
       <c r="AO47" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP47" s="51">
-        <v>43498</v>
+        <v>110</v>
+      </c>
+      <c r="AP47" s="45">
+        <v>43463</v>
       </c>
     </row>
     <row r="48" spans="1:42">
       <c r="A48" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
@@ -5292,48 +5480,45 @@
         <v>31</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="K48" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="L48" t="s">
         <v>35</v>
       </c>
       <c r="M48">
-        <v>116350</v>
+        <v>88000</v>
       </c>
       <c r="N48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="P48">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="Q48" t="s">
         <v>79</v>
       </c>
       <c r="R48">
-        <v>450.97</v>
+        <v>500</v>
       </c>
       <c r="S48">
-        <v>116350</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>75</v>
+        <v>88000</v>
       </c>
       <c r="AO48" t="s">
         <v>50</v>
       </c>
-      <c r="AP48" s="51">
-        <v>43500</v>
+      <c r="AP48" s="45">
+        <v>43498</v>
       </c>
     </row>
     <row r="49" spans="1:42">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -5369,40 +5554,25 @@
         <v>35</v>
       </c>
       <c r="M49">
-        <v>166056.6</v>
+        <v>116350</v>
       </c>
       <c r="N49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O49" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="P49">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="Q49" t="s">
         <v>79</v>
       </c>
       <c r="R49">
-        <v>1123.5999999999999</v>
+        <v>450.97</v>
       </c>
       <c r="S49">
-        <v>98876.800000000003</v>
-      </c>
-      <c r="T49" t="s">
-        <v>252</v>
-      </c>
-      <c r="U49">
-        <v>23</v>
-      </c>
-      <c r="V49" t="s">
-        <v>79</v>
-      </c>
-      <c r="W49">
-        <v>2920.86</v>
-      </c>
-      <c r="X49">
-        <v>67179.8</v>
+        <v>116350</v>
       </c>
       <c r="AN49" t="s">
         <v>75</v>
@@ -5410,13 +5580,13 @@
       <c r="AO49" t="s">
         <v>50</v>
       </c>
-      <c r="AP49" s="51">
-        <v>43516</v>
+      <c r="AP49" s="45">
+        <v>43500</v>
       </c>
     </row>
     <row r="50" spans="1:42">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -5452,40 +5622,40 @@
         <v>35</v>
       </c>
       <c r="M50">
-        <v>166950</v>
+        <v>166056.6</v>
       </c>
       <c r="N50" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O50" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="P50">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="Q50" t="s">
         <v>79</v>
       </c>
       <c r="R50">
-        <v>730.34</v>
+        <v>1123.5999999999999</v>
       </c>
       <c r="S50">
-        <v>78146.38</v>
+        <v>98876.800000000003</v>
       </c>
       <c r="T50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U50">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="V50" t="s">
         <v>79</v>
       </c>
       <c r="W50">
-        <v>752.57</v>
+        <v>2920.86</v>
       </c>
       <c r="X50">
-        <v>88803.62</v>
+        <v>67179.8</v>
       </c>
       <c r="AN50" t="s">
         <v>75</v>
@@ -5493,13 +5663,13 @@
       <c r="AO50" t="s">
         <v>50</v>
       </c>
-      <c r="AP50" s="51">
-        <v>43502</v>
+      <c r="AP50" s="45">
+        <v>43516</v>
       </c>
     </row>
     <row r="51" spans="1:42">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -5535,40 +5705,40 @@
         <v>35</v>
       </c>
       <c r="M51">
-        <v>916150</v>
+        <v>166950</v>
       </c>
       <c r="N51" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="P51">
-        <v>402</v>
+        <v>107</v>
       </c>
       <c r="Q51" t="s">
         <v>79</v>
       </c>
       <c r="R51">
-        <v>1123.5999999999999</v>
+        <v>730.34</v>
       </c>
       <c r="S51">
-        <v>451687.2</v>
+        <v>78146.38</v>
       </c>
       <c r="T51" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="U51">
-        <v>774</v>
+        <v>118</v>
       </c>
       <c r="V51" t="s">
         <v>79</v>
       </c>
       <c r="W51">
-        <v>600.08000000000004</v>
+        <v>752.57</v>
       </c>
       <c r="X51">
-        <v>464462.8</v>
+        <v>88803.62</v>
       </c>
       <c r="AN51" t="s">
         <v>75</v>
@@ -5576,13 +5746,13 @@
       <c r="AO51" t="s">
         <v>50</v>
       </c>
-      <c r="AP51" s="51">
-        <v>43514</v>
+      <c r="AP51" s="45">
+        <v>43502</v>
       </c>
     </row>
     <row r="52" spans="1:42">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
@@ -5618,51 +5788,66 @@
         <v>35</v>
       </c>
       <c r="M52">
-        <v>6845.99</v>
+        <v>916150</v>
       </c>
       <c r="N52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P52">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="Q52" t="s">
         <v>79</v>
       </c>
       <c r="R52">
-        <v>760.67</v>
+        <v>1123.5999999999999</v>
       </c>
       <c r="S52">
-        <v>6845.99</v>
+        <v>451687.2</v>
+      </c>
+      <c r="T52" t="s">
+        <v>140</v>
+      </c>
+      <c r="U52">
+        <v>774</v>
+      </c>
+      <c r="V52" t="s">
+        <v>79</v>
+      </c>
+      <c r="W52">
+        <v>600.08000000000004</v>
+      </c>
+      <c r="X52">
+        <v>464462.8</v>
       </c>
       <c r="AN52" t="s">
         <v>75</v>
       </c>
       <c r="AO52" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP52" s="51">
-        <v>43500</v>
+        <v>50</v>
+      </c>
+      <c r="AP52" s="45">
+        <v>43514</v>
       </c>
     </row>
     <row r="53" spans="1:42">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -5677,57 +5862,60 @@
         <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L53" t="s">
         <v>35</v>
       </c>
       <c r="M53">
-        <v>13000</v>
+        <v>6845.99</v>
       </c>
       <c r="N53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O53" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P53">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="Q53" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="R53">
-        <v>47.1</v>
+        <v>760.67</v>
       </c>
       <c r="S53">
-        <v>13000</v>
+        <v>6845.99</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>75</v>
       </c>
       <c r="AO53" t="s">
         <v>110</v>
       </c>
-      <c r="AP53" s="51">
-        <v>43499</v>
+      <c r="AP53" s="45">
+        <v>43500</v>
       </c>
     </row>
     <row r="54" spans="1:42">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
@@ -5742,54 +5930,57 @@
         <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L54" t="s">
         <v>35</v>
       </c>
       <c r="M54">
-        <v>25100</v>
+        <v>13000</v>
       </c>
       <c r="N54" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O54" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P54">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="Q54" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R54">
-        <v>3137.5</v>
+        <v>47.1</v>
       </c>
       <c r="S54">
-        <v>25100</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>75</v>
+        <v>13000</v>
       </c>
       <c r="AO54" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP54" s="51">
-        <v>43402</v>
+        <v>110</v>
+      </c>
+      <c r="AP54" s="45">
+        <v>43499</v>
       </c>
     </row>
     <row r="55" spans="1:42">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
@@ -5804,57 +5995,54 @@
         <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="L55" t="s">
         <v>35</v>
       </c>
       <c r="M55">
-        <v>13300</v>
+        <v>25100</v>
       </c>
       <c r="N55" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P55">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="Q55" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="R55">
-        <v>55.19</v>
+        <v>3137.5</v>
       </c>
       <c r="S55">
-        <v>13300</v>
+        <v>25100</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>75</v>
       </c>
       <c r="AO55" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP55" s="51">
-        <v>43394</v>
+        <v>50</v>
+      </c>
+      <c r="AP55" s="45">
+        <v>43402</v>
       </c>
     </row>
     <row r="56" spans="1:42">
       <c r="A56" t="s">
-        <v>273</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -5869,48 +6057,45 @@
         <v>31</v>
       </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="K56" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="L56" t="s">
         <v>35</v>
       </c>
       <c r="M56">
-        <v>61000</v>
+        <v>13300</v>
       </c>
       <c r="N56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P56">
-        <v>2103</v>
+        <v>241</v>
       </c>
       <c r="Q56" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R56">
-        <v>29.01</v>
+        <v>55.19</v>
       </c>
       <c r="S56">
-        <v>61000</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>75</v>
+        <v>13300</v>
       </c>
       <c r="AO56" t="s">
         <v>110</v>
       </c>
-      <c r="AP56" s="51">
-        <v>43395</v>
+      <c r="AP56" s="45">
+        <v>43394</v>
       </c>
     </row>
     <row r="57" spans="1:42">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
@@ -5946,25 +6131,25 @@
         <v>35</v>
       </c>
       <c r="M57">
-        <v>140500</v>
+        <v>61000</v>
       </c>
       <c r="N57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O57" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P57">
+        <v>2103</v>
+      </c>
+      <c r="Q57" t="s">
         <v>40</v>
       </c>
-      <c r="Q57" t="s">
-        <v>79</v>
-      </c>
       <c r="R57">
-        <v>3512.5</v>
+        <v>29.01</v>
       </c>
       <c r="S57">
-        <v>140500</v>
+        <v>61000</v>
       </c>
       <c r="AN57" t="s">
         <v>75</v>
@@ -5972,19 +6157,25 @@
       <c r="AO57" t="s">
         <v>110</v>
       </c>
-      <c r="AP57" s="51">
-        <v>43387</v>
+      <c r="AP57" s="45">
+        <v>43395</v>
       </c>
     </row>
     <row r="58" spans="1:42">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
@@ -5999,66 +6190,54 @@
         <v>31</v>
       </c>
       <c r="J58" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="K58" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="L58" t="s">
         <v>35</v>
       </c>
       <c r="M58">
-        <v>1046500</v>
+        <v>140500</v>
       </c>
       <c r="N58" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O58" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P58">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="Q58" t="s">
         <v>79</v>
       </c>
       <c r="R58">
-        <v>850</v>
+        <v>3512.5</v>
       </c>
       <c r="S58">
-        <v>470050</v>
-      </c>
-      <c r="T58" t="s">
-        <v>284</v>
-      </c>
-      <c r="U58">
-        <v>192</v>
-      </c>
-      <c r="V58" t="s">
-        <v>79</v>
-      </c>
-      <c r="W58">
-        <v>3002.34</v>
-      </c>
-      <c r="X58">
-        <v>576450</v>
+        <v>140500</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>75</v>
       </c>
       <c r="AO58" t="s">
         <v>110</v>
       </c>
-      <c r="AP58" s="51">
-        <v>43395</v>
+      <c r="AP58" s="45">
+        <v>43387</v>
       </c>
     </row>
     <row r="59" spans="1:42">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -6073,81 +6252,66 @@
         <v>31</v>
       </c>
       <c r="J59" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="K59" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="L59" t="s">
         <v>35</v>
       </c>
       <c r="M59">
-        <v>800000</v>
+        <v>1046500</v>
       </c>
       <c r="N59" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O59" t="s">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="Q59" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="R59">
-        <v>60000</v>
+        <v>850</v>
       </c>
       <c r="S59">
-        <v>240000</v>
+        <v>470050</v>
       </c>
       <c r="T59" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="U59">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="V59" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="W59">
-        <v>129</v>
+        <v>3002.34</v>
       </c>
       <c r="X59">
-        <v>45150</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z59">
-        <v>556</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB59">
-        <v>925.99</v>
-      </c>
-      <c r="AC59">
-        <v>514850</v>
+        <v>576450</v>
       </c>
       <c r="AO59" t="s">
         <v>110</v>
       </c>
-      <c r="AP59" s="51">
-        <v>43392</v>
+      <c r="AP59" s="45">
+        <v>43395</v>
       </c>
     </row>
     <row r="60" spans="1:42">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
@@ -6162,72 +6326,81 @@
         <v>31</v>
       </c>
       <c r="J60" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="K60" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="L60" t="s">
         <v>35</v>
       </c>
       <c r="M60">
-        <v>1258472</v>
+        <v>800000</v>
       </c>
       <c r="N60" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O60" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="P60">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="s">
         <v>40</v>
       </c>
       <c r="R60">
-        <v>149.25</v>
+        <v>60000</v>
       </c>
       <c r="S60">
-        <v>69252</v>
+        <v>240000</v>
       </c>
       <c r="T60" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="U60">
-        <v>767</v>
+        <v>350</v>
       </c>
       <c r="V60" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W60">
-        <v>1550.48</v>
+        <v>129</v>
       </c>
       <c r="X60">
-        <v>1189220</v>
+        <v>45150</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z60">
+        <v>556</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB60">
+        <v>925.99</v>
+      </c>
+      <c r="AC60">
+        <v>514850</v>
       </c>
       <c r="AO60" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP60" s="51">
-        <v>43368</v>
+        <v>110</v>
+      </c>
+      <c r="AP60" s="45">
+        <v>43392</v>
       </c>
     </row>
     <row r="61" spans="1:42">
       <c r="A61" t="s">
-        <v>297</v>
-      </c>
-      <c r="B61" t="s">
-        <v>298</v>
-      </c>
-      <c r="C61" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E61" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
@@ -6242,48 +6415,60 @@
         <v>31</v>
       </c>
       <c r="J61" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="K61" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L61" t="s">
         <v>35</v>
       </c>
       <c r="M61">
-        <v>63000</v>
+        <v>1258472</v>
       </c>
       <c r="N61" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O61" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P61">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="Q61" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R61">
-        <v>954.55</v>
+        <v>149.25</v>
       </c>
       <c r="S61">
-        <v>63000</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>305</v>
+        <v>69252</v>
+      </c>
+      <c r="T61" t="s">
+        <v>296</v>
+      </c>
+      <c r="U61">
+        <v>767</v>
+      </c>
+      <c r="V61" t="s">
+        <v>65</v>
+      </c>
+      <c r="W61">
+        <v>1550.48</v>
+      </c>
+      <c r="X61">
+        <v>1189220</v>
       </c>
       <c r="AO61" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP61" s="51">
-        <v>43372</v>
+        <v>42</v>
+      </c>
+      <c r="AP61" s="45">
+        <v>43368</v>
       </c>
     </row>
     <row r="62" spans="1:42">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B62" t="s">
         <v>298</v>
@@ -6319,63 +6504,131 @@
         <v>35</v>
       </c>
       <c r="M62">
-        <v>860000</v>
+        <v>63000</v>
       </c>
       <c r="N62" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O62" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P62">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="Q62" t="s">
         <v>79</v>
       </c>
       <c r="R62">
-        <v>750</v>
+        <v>954.55</v>
       </c>
       <c r="S62">
-        <v>159000</v>
-      </c>
-      <c r="T62" t="s">
-        <v>144</v>
-      </c>
-      <c r="U62">
-        <v>935</v>
-      </c>
-      <c r="V62" t="s">
-        <v>49</v>
-      </c>
-      <c r="W62">
-        <v>70</v>
-      </c>
-      <c r="X62">
-        <v>65450</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z62">
-        <v>794</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB62">
-        <v>800.44</v>
-      </c>
-      <c r="AC62">
-        <v>635550</v>
+        <v>63000</v>
       </c>
       <c r="AN62" t="s">
         <v>305</v>
       </c>
       <c r="AO62" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP62" s="45">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>302</v>
+      </c>
+      <c r="K63" t="s">
+        <v>301</v>
+      </c>
+      <c r="L63" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63">
+        <v>860000</v>
+      </c>
+      <c r="N63" t="s">
+        <v>307</v>
+      </c>
+      <c r="O63" t="s">
+        <v>308</v>
+      </c>
+      <c r="P63">
+        <v>212</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>79</v>
+      </c>
+      <c r="R63">
+        <v>750</v>
+      </c>
+      <c r="S63">
+        <v>159000</v>
+      </c>
+      <c r="T63" t="s">
+        <v>144</v>
+      </c>
+      <c r="U63">
+        <v>935</v>
+      </c>
+      <c r="V63" t="s">
+        <v>49</v>
+      </c>
+      <c r="W63">
+        <v>70</v>
+      </c>
+      <c r="X63">
+        <v>65450</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z63">
+        <v>794</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB63">
+        <v>800.44</v>
+      </c>
+      <c r="AC63">
+        <v>635550</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO63" t="s">
         <v>110</v>
       </c>
-      <c r="AP62" s="51">
+      <c r="AP63" s="45">
         <v>43358</v>
       </c>
     </row>
@@ -6391,8 +6644,8 @@
   </sheetPr>
   <dimension ref="A3:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6418,17 +6671,17 @@
       <c r="E3" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="34.5">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="8" spans="1:14">
       <c r="F8" s="5"/>
@@ -6461,7 +6714,7 @@
       <c r="H12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="41" t="s">
         <v>320</v>
       </c>
       <c r="J12" s="10"/>
@@ -6470,7 +6723,7 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>310</v>
       </c>
       <c r="C13" s="5"/>
@@ -6481,7 +6734,7 @@
       <c r="H13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="4"/>
@@ -6490,7 +6743,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="21">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>311</v>
       </c>
       <c r="C14" s="11"/>
@@ -6506,7 +6759,7 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="11"/>
@@ -6524,15 +6777,15 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="11"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="39" t="s">
         <v>312</v>
       </c>
       <c r="I16" s="11"/>
@@ -6540,19 +6793,19 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:14">
@@ -6568,22 +6821,22 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="60" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="48" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="55" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="3"/>
@@ -6593,84 +6846,84 @@
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="61" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="57" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="61" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="57" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="61" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="57" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="61" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="57" t="s">
         <v>335</v>
       </c>
       <c r="J23" s="2"/>
@@ -6679,22 +6932,22 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="61" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="57" t="s">
         <v>340</v>
       </c>
       <c r="J24" s="2"/>
@@ -6703,10 +6956,10 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="59">
         <f>SUM(I20:I24)</f>
         <v>0</v>
       </c>
@@ -6722,10 +6975,10 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="60" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="3"/>
@@ -6739,10 +6992,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="61">
         <f>I25</f>
         <v>0</v>
       </c>
@@ -6760,28 +7013,28 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="40" t="s">
         <v>341</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="5"/>
@@ -6790,30 +7043,30 @@
     <row r="32" spans="1:14">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="44" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6840,10 +7093,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="42" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="1"/>
@@ -6859,10 +7112,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="57" t="s">
+      <c r="I37" s="46" t="s">
         <v>342</v>
       </c>
       <c r="J37" s="1"/>
@@ -6878,10 +7131,10 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="57" t="s">
+      <c r="I38" s="46" t="s">
         <v>343</v>
       </c>
       <c r="J38" s="1"/>
@@ -6897,10 +7150,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="58" t="s">
+      <c r="I39" s="47" t="s">
         <v>344</v>
       </c>
       <c r="J39" s="1"/>
@@ -6910,7 +7163,7 @@
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="5"/>
@@ -6918,7 +7171,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="31"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -7017,121 +7270,121 @@
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
       <c r="M47" s="2"/>
       <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
       <c r="M48" s="2"/>
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
       <c r="M49" s="2"/>
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
       <c r="M50" s="2"/>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
       <c r="M51" s="2"/>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
       <c r="M52" s="2"/>
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
       <c r="M53" s="2"/>
       <c r="N53" s="4"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
       <c r="M54" s="2"/>
       <c r="N54" s="4"/>
     </row>

--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -41,7 +41,7 @@
     <definedName name="Macro2">[0]!Macro2</definedName>
     <definedName name="Ownership" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PO!$B$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PO!$B$1:$K$43</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="399">
   <si>
     <t>Date :</t>
   </si>
@@ -1265,6 +1265,28 @@
   <si>
     <t>Amount in words : One Million Seven Hundred Eighteen Thousand Dirhams Only - 30</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="5"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>PURCHASE ORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1277,7 +1299,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$AED]\ * #,##0.00_-;\-[$AED]\ * #,##0.00_-;_-[$AED]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,13 +1321,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="5" tint="0.59999389629810485"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -1343,17 +1358,6 @@
       <b/>
       <u/>
       <sz val="10"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -1446,6 +1450,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="5"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1833,152 +1844,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1988,76 +1906,179 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2086,16 +2107,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58566</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>430041</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>68091</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58566</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2124,8 +2145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2344566" y="7934325"/>
-          <a:ext cx="1219200" cy="1314450"/>
+          <a:off x="2258841" y="7572375"/>
+          <a:ext cx="1066800" cy="1314450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2138,13 +2159,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>170349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2178,134 +2199,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3629025" cy="590551"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="228600"/>
-          <a:ext cx="3629025" cy="590551"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="22225">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PURCHASE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="22225">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ORDER</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2842,7 +2735,7 @@
       <c r="AO2" t="s">
         <v>129</v>
       </c>
-      <c r="AP2" s="64">
+      <c r="AP2" s="30">
         <v>43552</v>
       </c>
       <c r="AQ2" t="s">
@@ -2863,16 +2756,16 @@
       <c r="AV2" t="s">
         <v>133</v>
       </c>
-      <c r="AW2" s="64">
+      <c r="AW2" s="30">
         <v>43522</v>
       </c>
-      <c r="AX2" s="64">
+      <c r="AX2" s="30">
         <v>43521</v>
       </c>
-      <c r="AY2" s="64">
+      <c r="AY2" s="30">
         <v>43547</v>
       </c>
-      <c r="AZ2" s="64">
+      <c r="AZ2" s="30">
         <v>43557</v>
       </c>
     </row>
@@ -2955,7 +2848,7 @@
       <c r="AO3" t="s">
         <v>145</v>
       </c>
-      <c r="AP3" s="64">
+      <c r="AP3" s="30">
         <v>43549</v>
       </c>
       <c r="AQ3" t="s">
@@ -2976,16 +2869,16 @@
       <c r="AV3" t="s">
         <v>133</v>
       </c>
-      <c r="AW3" s="64">
+      <c r="AW3" s="30">
         <v>43519</v>
       </c>
-      <c r="AX3" s="64">
+      <c r="AX3" s="30">
         <v>43518</v>
       </c>
-      <c r="AY3" s="64">
+      <c r="AY3" s="30">
         <v>43544</v>
       </c>
-      <c r="AZ3" s="64">
+      <c r="AZ3" s="30">
         <v>43554</v>
       </c>
     </row>
@@ -3053,7 +2946,7 @@
       <c r="AO4" t="s">
         <v>145</v>
       </c>
-      <c r="AP4" s="64">
+      <c r="AP4" s="30">
         <v>43549</v>
       </c>
       <c r="AQ4" t="s">
@@ -3074,16 +2967,16 @@
       <c r="AV4" t="s">
         <v>133</v>
       </c>
-      <c r="AW4" s="64">
+      <c r="AW4" s="30">
         <v>43519</v>
       </c>
-      <c r="AX4" s="64">
+      <c r="AX4" s="30">
         <v>43518</v>
       </c>
-      <c r="AY4" s="64">
+      <c r="AY4" s="30">
         <v>43544</v>
       </c>
-      <c r="AZ4" s="64">
+      <c r="AZ4" s="30">
         <v>43554</v>
       </c>
     </row>
@@ -3148,7 +3041,7 @@
       <c r="AO5" t="s">
         <v>145</v>
       </c>
-      <c r="AP5" s="64">
+      <c r="AP5" s="30">
         <v>43548</v>
       </c>
       <c r="AQ5" t="s">
@@ -3169,16 +3062,16 @@
       <c r="AV5" t="s">
         <v>133</v>
       </c>
-      <c r="AW5" s="64">
+      <c r="AW5" s="30">
         <v>43518</v>
       </c>
-      <c r="AX5" s="64">
+      <c r="AX5" s="30">
         <v>43517</v>
       </c>
-      <c r="AY5" s="64">
+      <c r="AY5" s="30">
         <v>43543</v>
       </c>
-      <c r="AZ5" s="64">
+      <c r="AZ5" s="30">
         <v>43553</v>
       </c>
     </row>
@@ -3258,7 +3151,7 @@
       <c r="AO6" t="s">
         <v>145</v>
       </c>
-      <c r="AP6" s="64">
+      <c r="AP6" s="30">
         <v>43545</v>
       </c>
       <c r="AQ6" t="s">
@@ -3279,16 +3172,16 @@
       <c r="AV6" t="s">
         <v>133</v>
       </c>
-      <c r="AW6" s="64">
+      <c r="AW6" s="30">
         <v>43515</v>
       </c>
-      <c r="AX6" s="64">
+      <c r="AX6" s="30">
         <v>43514</v>
       </c>
-      <c r="AY6" s="64">
+      <c r="AY6" s="30">
         <v>43540</v>
       </c>
-      <c r="AZ6" s="64">
+      <c r="AZ6" s="30">
         <v>43550</v>
       </c>
     </row>
@@ -3347,7 +3240,7 @@
       <c r="AO7" t="s">
         <v>184</v>
       </c>
-      <c r="AP7" s="64">
+      <c r="AP7" s="30">
         <v>43549</v>
       </c>
       <c r="AQ7" t="s">
@@ -3368,16 +3261,16 @@
       <c r="AV7" t="s">
         <v>133</v>
       </c>
-      <c r="AW7" s="64">
+      <c r="AW7" s="30">
         <v>43519</v>
       </c>
-      <c r="AX7" s="64">
+      <c r="AX7" s="30">
         <v>43518</v>
       </c>
-      <c r="AY7" s="64">
+      <c r="AY7" s="30">
         <v>43544</v>
       </c>
-      <c r="AZ7" s="64">
+      <c r="AZ7" s="30">
         <v>43554</v>
       </c>
     </row>
@@ -3436,7 +3329,7 @@
       <c r="AO8" t="s">
         <v>184</v>
       </c>
-      <c r="AP8" s="64">
+      <c r="AP8" s="30">
         <v>43548</v>
       </c>
       <c r="AQ8" t="s">
@@ -3457,16 +3350,16 @@
       <c r="AV8" t="s">
         <v>133</v>
       </c>
-      <c r="AW8" s="64">
+      <c r="AW8" s="30">
         <v>43518</v>
       </c>
-      <c r="AX8" s="64">
+      <c r="AX8" s="30">
         <v>43517</v>
       </c>
-      <c r="AY8" s="64">
+      <c r="AY8" s="30">
         <v>43543</v>
       </c>
-      <c r="AZ8" s="64">
+      <c r="AZ8" s="30">
         <v>43553</v>
       </c>
     </row>
@@ -3549,7 +3442,7 @@
       <c r="AO9" t="s">
         <v>145</v>
       </c>
-      <c r="AP9" s="64">
+      <c r="AP9" s="30">
         <v>43541</v>
       </c>
       <c r="AQ9" t="s">
@@ -3570,16 +3463,16 @@
       <c r="AV9" t="s">
         <v>133</v>
       </c>
-      <c r="AW9" s="64">
+      <c r="AW9" s="30">
         <v>43511</v>
       </c>
-      <c r="AX9" s="64">
+      <c r="AX9" s="30">
         <v>43510</v>
       </c>
-      <c r="AY9" s="64">
+      <c r="AY9" s="30">
         <v>43536</v>
       </c>
-      <c r="AZ9" s="64">
+      <c r="AZ9" s="30">
         <v>43546</v>
       </c>
     </row>
@@ -3638,7 +3531,7 @@
       <c r="AO10" t="s">
         <v>129</v>
       </c>
-      <c r="AP10" s="64">
+      <c r="AP10" s="30">
         <v>43541</v>
       </c>
       <c r="AQ10" t="s">
@@ -3659,16 +3552,16 @@
       <c r="AV10" t="s">
         <v>133</v>
       </c>
-      <c r="AW10" s="64">
+      <c r="AW10" s="30">
         <v>43511</v>
       </c>
-      <c r="AX10" s="64">
+      <c r="AX10" s="30">
         <v>43510</v>
       </c>
-      <c r="AY10" s="64">
+      <c r="AY10" s="30">
         <v>43536</v>
       </c>
-      <c r="AZ10" s="64">
+      <c r="AZ10" s="30">
         <v>43546</v>
       </c>
     </row>
@@ -3736,7 +3629,7 @@
       <c r="AO11" t="s">
         <v>145</v>
       </c>
-      <c r="AP11" s="64">
+      <c r="AP11" s="30">
         <v>43546</v>
       </c>
       <c r="AQ11" t="s">
@@ -3757,16 +3650,16 @@
       <c r="AV11" t="s">
         <v>133</v>
       </c>
-      <c r="AW11" s="64">
+      <c r="AW11" s="30">
         <v>43516</v>
       </c>
-      <c r="AX11" s="64">
+      <c r="AX11" s="30">
         <v>43515</v>
       </c>
-      <c r="AY11" s="64">
+      <c r="AY11" s="30">
         <v>43541</v>
       </c>
-      <c r="AZ11" s="64">
+      <c r="AZ11" s="30">
         <v>43551</v>
       </c>
     </row>
@@ -3834,7 +3727,7 @@
       <c r="AO12" t="s">
         <v>145</v>
       </c>
-      <c r="AP12" s="64">
+      <c r="AP12" s="30">
         <v>43548</v>
       </c>
       <c r="AQ12" t="s">
@@ -3855,16 +3748,16 @@
       <c r="AV12" t="s">
         <v>133</v>
       </c>
-      <c r="AW12" s="64">
+      <c r="AW12" s="30">
         <v>43518</v>
       </c>
-      <c r="AX12" s="64">
+      <c r="AX12" s="30">
         <v>43517</v>
       </c>
-      <c r="AY12" s="64">
+      <c r="AY12" s="30">
         <v>43543</v>
       </c>
-      <c r="AZ12" s="64">
+      <c r="AZ12" s="30">
         <v>43553</v>
       </c>
     </row>
@@ -3932,7 +3825,7 @@
       <c r="AO13" t="s">
         <v>184</v>
       </c>
-      <c r="AP13" s="64">
+      <c r="AP13" s="30">
         <v>43546</v>
       </c>
       <c r="AQ13" t="s">
@@ -3953,16 +3846,16 @@
       <c r="AV13" t="s">
         <v>133</v>
       </c>
-      <c r="AW13" s="64">
+      <c r="AW13" s="30">
         <v>43516</v>
       </c>
-      <c r="AX13" s="64">
+      <c r="AX13" s="30">
         <v>43515</v>
       </c>
-      <c r="AY13" s="64">
+      <c r="AY13" s="30">
         <v>43541</v>
       </c>
-      <c r="AZ13" s="64">
+      <c r="AZ13" s="30">
         <v>43551</v>
       </c>
     </row>
@@ -4030,7 +3923,7 @@
       <c r="AO14" t="s">
         <v>145</v>
       </c>
-      <c r="AP14" s="64">
+      <c r="AP14" s="30">
         <v>43533</v>
       </c>
       <c r="AQ14" t="s">
@@ -4051,16 +3944,16 @@
       <c r="AV14" t="s">
         <v>133</v>
       </c>
-      <c r="AW14" s="64">
+      <c r="AW14" s="30">
         <v>43503</v>
       </c>
-      <c r="AX14" s="64">
+      <c r="AX14" s="30">
         <v>43502</v>
       </c>
-      <c r="AY14" s="64">
+      <c r="AY14" s="30">
         <v>43528</v>
       </c>
-      <c r="AZ14" s="64">
+      <c r="AZ14" s="30">
         <v>43538</v>
       </c>
     </row>
@@ -4119,7 +4012,7 @@
       <c r="AO15" t="s">
         <v>184</v>
       </c>
-      <c r="AP15" s="64">
+      <c r="AP15" s="30">
         <v>43549</v>
       </c>
       <c r="AQ15" t="s">
@@ -4140,16 +4033,16 @@
       <c r="AV15" t="s">
         <v>133</v>
       </c>
-      <c r="AW15" s="64">
+      <c r="AW15" s="30">
         <v>43519</v>
       </c>
-      <c r="AX15" s="64">
+      <c r="AX15" s="30">
         <v>43518</v>
       </c>
-      <c r="AY15" s="64">
+      <c r="AY15" s="30">
         <v>43544</v>
       </c>
-      <c r="AZ15" s="64">
+      <c r="AZ15" s="30">
         <v>43554</v>
       </c>
     </row>
@@ -4217,7 +4110,7 @@
       <c r="AO16" t="s">
         <v>145</v>
       </c>
-      <c r="AP16" s="64">
+      <c r="AP16" s="30">
         <v>43546</v>
       </c>
       <c r="AQ16" t="s">
@@ -4238,16 +4131,16 @@
       <c r="AV16" t="s">
         <v>133</v>
       </c>
-      <c r="AW16" s="64">
+      <c r="AW16" s="30">
         <v>43516</v>
       </c>
-      <c r="AX16" s="64">
+      <c r="AX16" s="30">
         <v>43515</v>
       </c>
-      <c r="AY16" s="64">
+      <c r="AY16" s="30">
         <v>43541</v>
       </c>
-      <c r="AZ16" s="64">
+      <c r="AZ16" s="30">
         <v>43551</v>
       </c>
     </row>
@@ -4330,7 +4223,7 @@
       <c r="AO17" t="s">
         <v>145</v>
       </c>
-      <c r="AP17" s="64">
+      <c r="AP17" s="30">
         <v>43533</v>
       </c>
       <c r="AQ17" t="s">
@@ -4351,16 +4244,16 @@
       <c r="AV17" t="s">
         <v>133</v>
       </c>
-      <c r="AW17" s="64">
+      <c r="AW17" s="30">
         <v>43503</v>
       </c>
-      <c r="AX17" s="64">
+      <c r="AX17" s="30">
         <v>43502</v>
       </c>
-      <c r="AY17" s="64">
+      <c r="AY17" s="30">
         <v>43528</v>
       </c>
-      <c r="AZ17" s="64">
+      <c r="AZ17" s="30">
         <v>43538</v>
       </c>
     </row>
@@ -4428,7 +4321,7 @@
       <c r="AO18" t="s">
         <v>145</v>
       </c>
-      <c r="AP18" s="64">
+      <c r="AP18" s="30">
         <v>43533</v>
       </c>
       <c r="AQ18" t="s">
@@ -4449,16 +4342,16 @@
       <c r="AV18" t="s">
         <v>133</v>
       </c>
-      <c r="AW18" s="64">
+      <c r="AW18" s="30">
         <v>43503</v>
       </c>
-      <c r="AX18" s="64">
+      <c r="AX18" s="30">
         <v>43502</v>
       </c>
-      <c r="AY18" s="64">
+      <c r="AY18" s="30">
         <v>43528</v>
       </c>
-      <c r="AZ18" s="64">
+      <c r="AZ18" s="30">
         <v>43538</v>
       </c>
     </row>
@@ -4526,7 +4419,7 @@
       <c r="AO19" t="s">
         <v>145</v>
       </c>
-      <c r="AP19" s="64">
+      <c r="AP19" s="30">
         <v>43544</v>
       </c>
       <c r="AQ19" t="s">
@@ -4547,16 +4440,16 @@
       <c r="AV19" t="s">
         <v>133</v>
       </c>
-      <c r="AW19" s="64">
+      <c r="AW19" s="30">
         <v>43514</v>
       </c>
-      <c r="AX19" s="64">
+      <c r="AX19" s="30">
         <v>43513</v>
       </c>
-      <c r="AY19" s="64">
+      <c r="AY19" s="30">
         <v>43539</v>
       </c>
-      <c r="AZ19" s="64">
+      <c r="AZ19" s="30">
         <v>43549</v>
       </c>
     </row>
@@ -4624,7 +4517,7 @@
       <c r="AO20" t="s">
         <v>145</v>
       </c>
-      <c r="AP20" s="64">
+      <c r="AP20" s="30">
         <v>43547</v>
       </c>
       <c r="AQ20" t="s">
@@ -4645,16 +4538,16 @@
       <c r="AV20" t="s">
         <v>133</v>
       </c>
-      <c r="AW20" s="64">
+      <c r="AW20" s="30">
         <v>43517</v>
       </c>
-      <c r="AX20" s="64">
+      <c r="AX20" s="30">
         <v>43516</v>
       </c>
-      <c r="AY20" s="64">
+      <c r="AY20" s="30">
         <v>43542</v>
       </c>
-      <c r="AZ20" s="64">
+      <c r="AZ20" s="30">
         <v>43552</v>
       </c>
     </row>
@@ -4719,7 +4612,7 @@
       <c r="AO21" t="s">
         <v>145</v>
       </c>
-      <c r="AP21" s="64">
+      <c r="AP21" s="30">
         <v>43534</v>
       </c>
       <c r="AQ21" t="s">
@@ -4740,16 +4633,16 @@
       <c r="AV21" t="s">
         <v>133</v>
       </c>
-      <c r="AW21" s="64">
+      <c r="AW21" s="30">
         <v>43504</v>
       </c>
-      <c r="AX21" s="64">
+      <c r="AX21" s="30">
         <v>43503</v>
       </c>
-      <c r="AY21" s="64">
+      <c r="AY21" s="30">
         <v>43529</v>
       </c>
-      <c r="AZ21" s="64">
+      <c r="AZ21" s="30">
         <v>43539</v>
       </c>
     </row>
@@ -4817,7 +4710,7 @@
       <c r="AO22" t="s">
         <v>145</v>
       </c>
-      <c r="AP22" s="64">
+      <c r="AP22" s="30">
         <v>43544</v>
       </c>
       <c r="AQ22" t="s">
@@ -4838,16 +4731,16 @@
       <c r="AV22" t="s">
         <v>133</v>
       </c>
-      <c r="AW22" s="64">
+      <c r="AW22" s="30">
         <v>43514</v>
       </c>
-      <c r="AX22" s="64">
+      <c r="AX22" s="30">
         <v>43513</v>
       </c>
-      <c r="AY22" s="64">
+      <c r="AY22" s="30">
         <v>43539</v>
       </c>
-      <c r="AZ22" s="64">
+      <c r="AZ22" s="30">
         <v>43549</v>
       </c>
     </row>
@@ -4915,7 +4808,7 @@
       <c r="AO23" t="s">
         <v>145</v>
       </c>
-      <c r="AP23" s="64">
+      <c r="AP23" s="30">
         <v>43548</v>
       </c>
       <c r="AQ23" t="s">
@@ -4936,16 +4829,16 @@
       <c r="AV23" t="s">
         <v>133</v>
       </c>
-      <c r="AW23" s="64">
+      <c r="AW23" s="30">
         <v>43518</v>
       </c>
-      <c r="AX23" s="64">
+      <c r="AX23" s="30">
         <v>43517</v>
       </c>
-      <c r="AY23" s="64">
+      <c r="AY23" s="30">
         <v>43543</v>
       </c>
-      <c r="AZ23" s="64">
+      <c r="AZ23" s="30">
         <v>43553</v>
       </c>
     </row>
@@ -5043,7 +4936,7 @@
       <c r="AO24" t="s">
         <v>145</v>
       </c>
-      <c r="AP24" s="64">
+      <c r="AP24" s="30">
         <v>43549</v>
       </c>
       <c r="AQ24" t="s">
@@ -5064,16 +4957,16 @@
       <c r="AV24" t="s">
         <v>133</v>
       </c>
-      <c r="AW24" s="64">
+      <c r="AW24" s="30">
         <v>43519</v>
       </c>
-      <c r="AX24" s="64">
+      <c r="AX24" s="30">
         <v>43518</v>
       </c>
-      <c r="AY24" s="64">
+      <c r="AY24" s="30">
         <v>43544</v>
       </c>
-      <c r="AZ24" s="64">
+      <c r="AZ24" s="30">
         <v>43554</v>
       </c>
     </row>
@@ -5141,7 +5034,7 @@
       <c r="AO25" t="s">
         <v>145</v>
       </c>
-      <c r="AP25" s="64">
+      <c r="AP25" s="30">
         <v>43549</v>
       </c>
       <c r="AQ25" t="s">
@@ -5162,16 +5055,16 @@
       <c r="AV25" t="s">
         <v>133</v>
       </c>
-      <c r="AW25" s="64">
+      <c r="AW25" s="30">
         <v>43519</v>
       </c>
-      <c r="AX25" s="64">
+      <c r="AX25" s="30">
         <v>43518</v>
       </c>
-      <c r="AY25" s="64">
+      <c r="AY25" s="30">
         <v>43544</v>
       </c>
-      <c r="AZ25" s="64">
+      <c r="AZ25" s="30">
         <v>43554</v>
       </c>
     </row>
@@ -5230,7 +5123,7 @@
       <c r="AO26" t="s">
         <v>145</v>
       </c>
-      <c r="AP26" s="64">
+      <c r="AP26" s="30">
         <v>43547</v>
       </c>
       <c r="AQ26" t="s">
@@ -5251,16 +5144,16 @@
       <c r="AV26" t="s">
         <v>133</v>
       </c>
-      <c r="AW26" s="64">
+      <c r="AW26" s="30">
         <v>43517</v>
       </c>
-      <c r="AX26" s="64">
+      <c r="AX26" s="30">
         <v>43516</v>
       </c>
-      <c r="AY26" s="64">
+      <c r="AY26" s="30">
         <v>43542</v>
       </c>
-      <c r="AZ26" s="64">
+      <c r="AZ26" s="30">
         <v>43552</v>
       </c>
     </row>
@@ -5325,7 +5218,7 @@
       <c r="AO27" t="s">
         <v>145</v>
       </c>
-      <c r="AP27" s="64">
+      <c r="AP27" s="30">
         <v>43534</v>
       </c>
       <c r="AQ27" t="s">
@@ -5346,16 +5239,16 @@
       <c r="AV27" t="s">
         <v>133</v>
       </c>
-      <c r="AW27" s="64">
+      <c r="AW27" s="30">
         <v>43504</v>
       </c>
-      <c r="AX27" s="64">
+      <c r="AX27" s="30">
         <v>43503</v>
       </c>
-      <c r="AY27" s="64">
+      <c r="AY27" s="30">
         <v>43529</v>
       </c>
-      <c r="AZ27" s="64">
+      <c r="AZ27" s="30">
         <v>43539</v>
       </c>
     </row>
@@ -5435,7 +5328,7 @@
       <c r="AO28" t="s">
         <v>145</v>
       </c>
-      <c r="AP28" s="64">
+      <c r="AP28" s="30">
         <v>43546</v>
       </c>
       <c r="AQ28" t="s">
@@ -5456,16 +5349,16 @@
       <c r="AV28" t="s">
         <v>133</v>
       </c>
-      <c r="AW28" s="64">
+      <c r="AW28" s="30">
         <v>43516</v>
       </c>
-      <c r="AX28" s="64">
+      <c r="AX28" s="30">
         <v>43515</v>
       </c>
-      <c r="AY28" s="64">
+      <c r="AY28" s="30">
         <v>43541</v>
       </c>
-      <c r="AZ28" s="64">
+      <c r="AZ28" s="30">
         <v>43551</v>
       </c>
     </row>
@@ -5545,7 +5438,7 @@
       <c r="AO29" t="s">
         <v>145</v>
       </c>
-      <c r="AP29" s="64">
+      <c r="AP29" s="30">
         <v>43541</v>
       </c>
       <c r="AQ29" t="s">
@@ -5566,16 +5459,16 @@
       <c r="AV29" t="s">
         <v>133</v>
       </c>
-      <c r="AW29" s="64">
+      <c r="AW29" s="30">
         <v>43511</v>
       </c>
-      <c r="AX29" s="64">
+      <c r="AX29" s="30">
         <v>43510</v>
       </c>
-      <c r="AY29" s="64">
+      <c r="AY29" s="30">
         <v>43536</v>
       </c>
-      <c r="AZ29" s="64">
+      <c r="AZ29" s="30">
         <v>43546</v>
       </c>
     </row>
@@ -5655,7 +5548,7 @@
       <c r="AO30" t="s">
         <v>145</v>
       </c>
-      <c r="AP30" s="64">
+      <c r="AP30" s="30">
         <v>43547</v>
       </c>
       <c r="AQ30" t="s">
@@ -5676,16 +5569,16 @@
       <c r="AV30" t="s">
         <v>133</v>
       </c>
-      <c r="AW30" s="64">
+      <c r="AW30" s="30">
         <v>43517</v>
       </c>
-      <c r="AX30" s="64">
+      <c r="AX30" s="30">
         <v>43516</v>
       </c>
-      <c r="AY30" s="64">
+      <c r="AY30" s="30">
         <v>43542</v>
       </c>
-      <c r="AZ30" s="64">
+      <c r="AZ30" s="30">
         <v>43552</v>
       </c>
     </row>
@@ -5750,7 +5643,7 @@
       <c r="AO31" t="s">
         <v>145</v>
       </c>
-      <c r="AP31" s="64">
+      <c r="AP31" s="30">
         <v>43537</v>
       </c>
       <c r="AQ31" t="s">
@@ -5771,16 +5664,16 @@
       <c r="AV31" t="s">
         <v>133</v>
       </c>
-      <c r="AW31" s="64">
+      <c r="AW31" s="30">
         <v>43507</v>
       </c>
-      <c r="AX31" s="64">
+      <c r="AX31" s="30">
         <v>43506</v>
       </c>
-      <c r="AY31" s="64">
+      <c r="AY31" s="30">
         <v>43532</v>
       </c>
-      <c r="AZ31" s="64">
+      <c r="AZ31" s="30">
         <v>43542</v>
       </c>
     </row>
@@ -5875,7 +5768,7 @@
       <c r="AO32" t="s">
         <v>145</v>
       </c>
-      <c r="AP32" s="64">
+      <c r="AP32" s="30">
         <v>43545</v>
       </c>
       <c r="AQ32" t="s">
@@ -5896,16 +5789,16 @@
       <c r="AV32" t="s">
         <v>133</v>
       </c>
-      <c r="AW32" s="64">
+      <c r="AW32" s="30">
         <v>43515</v>
       </c>
-      <c r="AX32" s="64">
+      <c r="AX32" s="30">
         <v>43514</v>
       </c>
-      <c r="AY32" s="64">
+      <c r="AY32" s="30">
         <v>43540</v>
       </c>
-      <c r="AZ32" s="64">
+      <c r="AZ32" s="30">
         <v>43550</v>
       </c>
     </row>
@@ -5985,7 +5878,7 @@
       <c r="AO33" t="s">
         <v>145</v>
       </c>
-      <c r="AP33" s="64">
+      <c r="AP33" s="30">
         <v>43547</v>
       </c>
       <c r="AQ33" t="s">
@@ -6006,16 +5899,16 @@
       <c r="AV33" t="s">
         <v>133</v>
       </c>
-      <c r="AW33" s="64">
+      <c r="AW33" s="30">
         <v>43517</v>
       </c>
-      <c r="AX33" s="64">
+      <c r="AX33" s="30">
         <v>43516</v>
       </c>
-      <c r="AY33" s="64">
+      <c r="AY33" s="30">
         <v>43542</v>
       </c>
-      <c r="AZ33" s="64">
+      <c r="AZ33" s="30">
         <v>43552</v>
       </c>
     </row>
@@ -6095,7 +5988,7 @@
       <c r="AO34" t="s">
         <v>145</v>
       </c>
-      <c r="AP34" s="64">
+      <c r="AP34" s="30">
         <v>43535</v>
       </c>
       <c r="AQ34" t="s">
@@ -6116,16 +6009,16 @@
       <c r="AV34" t="s">
         <v>133</v>
       </c>
-      <c r="AW34" s="64">
+      <c r="AW34" s="30">
         <v>43505</v>
       </c>
-      <c r="AX34" s="64">
+      <c r="AX34" s="30">
         <v>43504</v>
       </c>
-      <c r="AY34" s="64">
+      <c r="AY34" s="30">
         <v>43530</v>
       </c>
-      <c r="AZ34" s="64">
+      <c r="AZ34" s="30">
         <v>43540</v>
       </c>
     </row>
@@ -6139,28 +6032,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B6:M53"/>
+  <dimension ref="B3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="7" customWidth="1"/>
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+    </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6168,651 +6081,586 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="76"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="16"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="76"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="77"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4"/>
+    <row r="14" spans="2:11" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="4"/>
+    <row r="15" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:11" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="19"/>
+    <row r="16" spans="2:11" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:13" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="2:13" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:13" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+    <row r="18" spans="2:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:13" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="77"/>
-      <c r="K22" s="78"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="82" t="s">
+      <c r="B21" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85" t="s">
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="82" t="s">
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="B24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>9</v>
+      <c r="B26" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="59" t="s">
-        <v>43</v>
+      <c r="B27" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="M29" s="22"/>
+      <c r="B29" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="51">
+        <f>SUM(K24:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="22"/>
+      <c r="B30" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="2:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="22"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="61">
+        <f>K29</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="45">
-        <f>SUM(K27:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="24"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="46">
-        <f>K32</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="24"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="24"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="48"/>
+      <c r="B35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="48"/>
+      <c r="L36" s="85"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="48"/>
+      <c r="B37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="48"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="48"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="85"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="M40" s="27"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="M41" s="32"/>
+      <c r="B41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="85"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="1"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="6"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="19"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
@@ -6865,39 +6713,39 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H3:K6"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:K23"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L
-                              &amp;G</oddHeader>
+            &amp;G</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>

--- a/PO_format.xlsx
+++ b/PO_format.xlsx
@@ -6034,8 +6034,8 @@
   </sheetPr>
   <dimension ref="B3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6742,12 +6742,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L
-            &amp;G</oddHeader>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>